--- a/content/about/Schedule.xlsx
+++ b/content/about/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2024\content\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B434DF-89DB-48E9-9880-B1AC8F58C1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8422C3-DCE4-4C77-937E-8AC64A382373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="170">
   <si>
     <t>Row</t>
   </si>
@@ -510,6 +510,42 @@
   </si>
   <si>
     <t>Task or Topic</t>
+  </si>
+  <si>
+    <t>https://github.com/join</t>
+  </si>
+  <si>
+    <t>https://forms.gle/1MGR59eq8V4UYACKA</t>
+  </si>
+  <si>
+    <t>https://coursesite.lehigh.edu/course/view.php?id=310123</t>
+  </si>
+  <si>
+    <t>Hyperlink</t>
+  </si>
+  <si>
+    <t>https://github.com/LeDataSciFi/ledatascifi-2024/discussions</t>
+  </si>
+  <si>
+    <t>https://ledatascifi.github.io/ledatascifi-2024/content/01/02_Setup.html</t>
+  </si>
+  <si>
+    <t>https://github.com/LeDataSciFi/ledatascifi-2024/blob/main/handouts/GitHub exercises.ipynb</t>
+  </si>
+  <si>
+    <t>https://ledatascifi.github.io/ledatascifi-2024/content/assignments/howto_do.html</t>
+  </si>
+  <si>
+    <t>https://github.com/LeDataSciFi/ledatascifi-2024/blob/main/handouts/Jupyterlab exercises.ipynb</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/github/jakevdp/WhirlwindTourOfPython/blob/master/02-Basic-Python-Syntax.ipynb</t>
+  </si>
+  <si>
+    <t>https://forms.gle/n1ZV3qVcZJ3Aji1r6</t>
+  </si>
+  <si>
+    <t>https://ledatascifi.github.io/ledatascifi-2024/content/about/hall_of_awesomeness.html</t>
   </si>
 </sst>
 </file>
@@ -2429,18 +2465,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF092B6-1F8C-4FD2-8E57-195959BA7874}">
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:N211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="46.81640625" style="43" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2462,14 +2499,17 @@
       <c r="G1" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2477,14 +2517,15 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="34"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2502,14 +2543,15 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="35"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2527,14 +2569,15 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2552,14 +2595,15 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2577,14 +2621,15 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2602,14 +2647,15 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2625,14 +2671,15 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2650,14 +2697,15 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2673,14 +2721,15 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2696,14 +2745,15 @@
       <c r="E11" s="2"/>
       <c r="F11" s="10"/>
       <c r="G11" s="36"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2719,14 +2769,15 @@
       <c r="E12" s="2"/>
       <c r="F12" s="10"/>
       <c r="G12" s="36"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2746,22 +2797,25 @@
       <c r="G13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="L13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="M13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2781,24 +2835,27 @@
       <c r="G14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="16">
-        <f>$F$13+J14</f>
+      <c r="L14" s="16">
+        <f>$F$13+K14</f>
         <v>45313</v>
       </c>
-      <c r="L14" s="3" t="str">
+      <c r="M14" s="3" t="str">
         <f>TEXT(F14,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2818,24 +2875,27 @@
       <c r="G15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="16">
-        <f t="shared" ref="K15:K70" si="0">$F$13+J15</f>
+      <c r="L15" s="16">
+        <f t="shared" ref="L15:L70" si="0">$F$13+K15</f>
         <v>45313</v>
       </c>
-      <c r="L15" s="3" t="str">
+      <c r="M15" s="3" t="str">
         <f>TEXT(F15,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14.1</v>
       </c>
@@ -2855,24 +2915,27 @@
       <c r="G16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
         <v>1</v>
       </c>
-      <c r="K16" s="16">
+      <c r="L16" s="16">
         <f t="shared" si="0"/>
         <v>45314</v>
       </c>
-      <c r="L16" s="3" t="str">
+      <c r="M16" s="3" t="str">
         <f>TEXT(F16,"ddd")</f>
         <v>Tue</v>
       </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14.2</v>
       </c>
@@ -2886,22 +2949,23 @@
       <c r="E17" s="2"/>
       <c r="F17" s="13"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="16">
+      <c r="L17" s="16">
         <f t="shared" si="0"/>
         <v>45314</v>
       </c>
-      <c r="L17" s="3" t="str">
+      <c r="M17" s="3" t="str">
         <f>TEXT(F17,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>14.3</v>
       </c>
@@ -2915,22 +2979,23 @@
       <c r="E18" s="2"/>
       <c r="F18" s="13"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3">
         <v>1</v>
       </c>
-      <c r="K18" s="16">
+      <c r="L18" s="16">
         <f t="shared" si="0"/>
         <v>45314</v>
       </c>
-      <c r="L18" s="3" t="str">
+      <c r="M18" s="3" t="str">
         <f>TEXT(F18,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2950,22 +3015,23 @@
       <c r="G19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
         <v>0</v>
       </c>
-      <c r="K19" s="16">
+      <c r="L19" s="16">
         <f t="shared" si="0"/>
         <v>45313</v>
       </c>
-      <c r="L19" s="3" t="str">
+      <c r="M19" s="3" t="str">
         <f>TEXT(F19,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2981,19 +3047,20 @@
       <c r="E20" s="2"/>
       <c r="F20" s="19"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="3" t="str">
+      <c r="K20" s="3"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="3" t="str">
         <f>TEXT(F20,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3013,24 +3080,27 @@
       <c r="G21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3">
         <v>2</v>
       </c>
-      <c r="K21" s="16">
+      <c r="L21" s="16">
         <f t="shared" si="0"/>
         <v>45315</v>
       </c>
-      <c r="L21" s="3" t="str">
+      <c r="M21" s="3" t="str">
         <f>TEXT(F21,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>17.100000000000001</v>
       </c>
@@ -3050,22 +3120,23 @@
       <c r="G22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
         <v>2</v>
       </c>
-      <c r="K22" s="16">
+      <c r="L22" s="16">
         <f t="shared" si="0"/>
         <v>45315</v>
       </c>
-      <c r="L22" s="3" t="str">
+      <c r="M22" s="3" t="str">
         <f>TEXT(F22,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>17.2</v>
       </c>
@@ -3085,24 +3156,27 @@
       <c r="G23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3">
         <v>2</v>
       </c>
-      <c r="K23" s="16">
+      <c r="L23" s="16">
         <f t="shared" si="0"/>
         <v>45315</v>
       </c>
-      <c r="L23" s="3" t="str">
+      <c r="M23" s="3" t="str">
         <f>TEXT(F23,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -3122,24 +3196,25 @@
       <c r="G24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3">
         <v>2</v>
       </c>
-      <c r="K24" s="16">
+      <c r="L24" s="16">
         <f t="shared" si="0"/>
         <v>45315</v>
       </c>
-      <c r="L24" s="3" t="str">
+      <c r="M24" s="3" t="str">
         <f>TEXT(F24,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>19.100000000000001</v>
       </c>
@@ -3159,22 +3234,23 @@
       <c r="G25" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3">
+      <c r="H25" s="18"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
         <v>2</v>
       </c>
-      <c r="K25" s="16">
-        <f>$F$13+J25</f>
+      <c r="L25" s="16">
+        <f>$F$13+K25</f>
         <v>45315</v>
       </c>
-      <c r="L25" s="3" t="str">
+      <c r="M25" s="3" t="str">
         <f>TEXT(F25,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -3188,14 +3264,15 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -3209,19 +3286,20 @@
       <c r="E27" s="2"/>
       <c r="F27" s="19"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3">
         <v>-44228</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="3" t="str">
+      <c r="L27" s="16"/>
+      <c r="M27" s="3" t="str">
         <f>TEXT(F27,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -3237,21 +3315,22 @@
       <c r="E28" s="2"/>
       <c r="F28" s="19"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="18"/>
+      <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3">
         <v>-44228</v>
       </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="3" t="str">
+      <c r="L28" s="16"/>
+      <c r="M28" s="3" t="str">
         <f>TEXT(F28,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -3267,21 +3346,22 @@
       <c r="E29" s="2"/>
       <c r="F29" s="19"/>
       <c r="G29" s="18"/>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="18"/>
+      <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3">
         <v>-44228</v>
       </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="3" t="str">
+      <c r="L29" s="16"/>
+      <c r="M29" s="3" t="str">
         <f>TEXT(F29,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -3301,22 +3381,23 @@
       <c r="G30" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3">
+      <c r="H30" s="37"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3">
         <v>7</v>
       </c>
-      <c r="K30" s="16">
+      <c r="L30" s="16">
         <f t="shared" si="0"/>
         <v>45320</v>
       </c>
-      <c r="L30" s="3" t="str">
+      <c r="M30" s="3" t="str">
         <f>TEXT(F30,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>26.5</v>
       </c>
@@ -3336,24 +3417,27 @@
       <c r="G31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3">
         <v>7</v>
       </c>
-      <c r="K31" s="16">
+      <c r="L31" s="16">
         <f t="shared" si="0"/>
         <v>45320</v>
       </c>
-      <c r="L31" s="3" t="str">
+      <c r="M31" s="3" t="str">
         <f>TEXT(F31,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -3373,22 +3457,23 @@
       <c r="G32" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3">
+      <c r="H32" s="18"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3">
         <v>7</v>
       </c>
-      <c r="K32" s="16">
+      <c r="L32" s="16">
         <f t="shared" si="0"/>
         <v>45320</v>
       </c>
-      <c r="L32" s="3" t="str">
+      <c r="M32" s="3" t="str">
         <f>TEXT(F32,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>27.1</v>
       </c>
@@ -3408,24 +3493,27 @@
       <c r="G33" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3">
         <v>7</v>
       </c>
-      <c r="K33" s="16">
+      <c r="L33" s="16">
         <f t="shared" si="0"/>
         <v>45320</v>
       </c>
-      <c r="L33" s="3" t="str">
+      <c r="M33" s="3" t="str">
         <f>TEXT(F33,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -3445,22 +3533,23 @@
       <c r="G34" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3">
+      <c r="H34" s="18"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3">
         <v>7</v>
       </c>
-      <c r="K34" s="16">
+      <c r="L34" s="16">
         <f t="shared" si="0"/>
         <v>45320</v>
       </c>
-      <c r="L34" s="3" t="str">
+      <c r="M34" s="3" t="str">
         <f>TEXT(F34,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -3476,21 +3565,22 @@
       <c r="E35" s="2"/>
       <c r="F35" s="19"/>
       <c r="G35" s="18"/>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="18"/>
+      <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3">
         <v>-44228</v>
       </c>
-      <c r="K35" s="16"/>
-      <c r="L35" s="3" t="str">
+      <c r="L35" s="16"/>
+      <c r="M35" s="3" t="str">
         <f>TEXT(F35,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>31</v>
       </c>
@@ -3510,24 +3600,27 @@
       <c r="G36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3">
         <v>9</v>
       </c>
-      <c r="K36" s="16">
+      <c r="L36" s="16">
         <f t="shared" si="0"/>
         <v>45322</v>
       </c>
-      <c r="L36" s="3" t="str">
+      <c r="M36" s="3" t="str">
         <f>TEXT(F36,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>31.5</v>
       </c>
@@ -3547,22 +3640,23 @@
       <c r="G37" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3">
         <v>9</v>
       </c>
-      <c r="K37" s="16">
+      <c r="L37" s="16">
         <f t="shared" si="0"/>
         <v>45322</v>
       </c>
-      <c r="L37" s="3" t="str">
+      <c r="M37" s="3" t="str">
         <f>TEXT(F37,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -3582,24 +3676,25 @@
       <c r="G38" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3" t="s">
+      <c r="H38" s="18"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J38" s="3">
+      <c r="K38" s="3">
         <v>9</v>
       </c>
-      <c r="K38" s="16">
+      <c r="L38" s="16">
         <f t="shared" si="0"/>
         <v>45322</v>
       </c>
-      <c r="L38" s="3" t="str">
+      <c r="M38" s="3" t="str">
         <f>TEXT(F38,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -3619,22 +3714,23 @@
       <c r="G39" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3">
         <v>13</v>
       </c>
-      <c r="K39" s="16">
+      <c r="L39" s="16">
         <f t="shared" si="0"/>
         <v>45326</v>
       </c>
-      <c r="L39" s="3" t="str">
+      <c r="M39" s="3" t="str">
         <f>TEXT(F39,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -3648,19 +3744,20 @@
       <c r="E40" s="2"/>
       <c r="F40" s="19"/>
       <c r="G40" s="18"/>
-      <c r="H40" s="3"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3">
         <v>-44228</v>
       </c>
-      <c r="K40" s="16"/>
-      <c r="L40" s="3" t="str">
+      <c r="L40" s="16"/>
+      <c r="M40" s="3" t="str">
         <f>TEXT(F40,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -3680,22 +3777,23 @@
       <c r="G41" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="3">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3">
         <v>2</v>
       </c>
-      <c r="K41" s="16">
+      <c r="L41" s="16">
         <f t="shared" si="0"/>
         <v>45315</v>
       </c>
-      <c r="L41" s="3" t="str">
+      <c r="M41" s="3" t="str">
         <f>TEXT(F41,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>36</v>
       </c>
@@ -3715,22 +3813,23 @@
       <c r="G42" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="3"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="3">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3">
         <v>11</v>
       </c>
-      <c r="K42" s="16">
+      <c r="L42" s="16">
         <f t="shared" si="0"/>
         <v>45324</v>
       </c>
-      <c r="L42" s="3" t="str">
+      <c r="M42" s="3" t="str">
         <f>TEXT(F42,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>37</v>
       </c>
@@ -3750,22 +3849,23 @@
       <c r="G43" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="3"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="3">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3">
         <v>11</v>
       </c>
-      <c r="K43" s="16">
+      <c r="L43" s="16">
         <f t="shared" si="0"/>
         <v>45324</v>
       </c>
-      <c r="L43" s="3" t="str">
+      <c r="M43" s="3" t="str">
         <f>TEXT(F43,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>38</v>
       </c>
@@ -3785,22 +3885,23 @@
       <c r="G44" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="3"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="3">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3">
         <v>11</v>
       </c>
-      <c r="K44" s="16">
+      <c r="L44" s="16">
         <f t="shared" si="0"/>
         <v>45324</v>
       </c>
-      <c r="L44" s="3" t="str">
+      <c r="M44" s="3" t="str">
         <f>TEXT(F44,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39</v>
       </c>
@@ -3814,19 +3915,20 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="18"/>
-      <c r="H45" s="3"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="3">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3">
         <v>-44228</v>
       </c>
-      <c r="K45" s="16"/>
-      <c r="L45" s="3" t="str">
+      <c r="L45" s="16"/>
+      <c r="M45" s="3" t="str">
         <f>TEXT(F45,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>41</v>
       </c>
@@ -3842,19 +3944,20 @@
       <c r="E46" s="2"/>
       <c r="F46" s="25"/>
       <c r="G46" s="18"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="3">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3">
         <v>-44228</v>
       </c>
-      <c r="K46" s="16"/>
-      <c r="L46" s="3" t="str">
+      <c r="L46" s="16"/>
+      <c r="M46" s="3" t="str">
         <f>TEXT(F46,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>42</v>
       </c>
@@ -3872,19 +3975,20 @@
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="3"/>
+      <c r="H47" s="35"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="3">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3">
         <v>-44228</v>
       </c>
-      <c r="K47" s="16"/>
-      <c r="L47" s="3" t="str">
+      <c r="L47" s="16"/>
+      <c r="M47" s="3" t="str">
         <f>TEXT(F47,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43</v>
       </c>
@@ -3902,19 +4006,20 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="18"/>
-      <c r="H48" s="3"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="3">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3">
         <v>-44228</v>
       </c>
-      <c r="K48" s="16"/>
-      <c r="L48" s="3" t="str">
+      <c r="L48" s="16"/>
+      <c r="M48" s="3" t="str">
         <f>TEXT(F48,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44</v>
       </c>
@@ -3932,19 +4037,20 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="18"/>
-      <c r="H49" s="3"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="3">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3">
         <v>-44228</v>
       </c>
-      <c r="K49" s="16"/>
-      <c r="L49" s="3" t="str">
+      <c r="L49" s="16"/>
+      <c r="M49" s="3" t="str">
         <f>TEXT(F49,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45</v>
       </c>
@@ -3962,19 +4068,20 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="18"/>
-      <c r="H50" s="3"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="3">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3">
         <v>-44228</v>
       </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="3" t="str">
+      <c r="L50" s="16"/>
+      <c r="M50" s="3" t="str">
         <f>TEXT(F50,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>46</v>
       </c>
@@ -3992,19 +4099,20 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="18"/>
-      <c r="H51" s="3"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="3">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3">
         <v>-44228</v>
       </c>
-      <c r="K51" s="16"/>
-      <c r="L51" s="3" t="str">
+      <c r="L51" s="16"/>
+      <c r="M51" s="3" t="str">
         <f>TEXT(F51,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>47</v>
       </c>
@@ -4022,19 +4130,20 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="18"/>
-      <c r="H52" s="3"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="3">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3">
         <v>-44228</v>
       </c>
-      <c r="K52" s="16"/>
-      <c r="L52" s="3" t="str">
+      <c r="L52" s="16"/>
+      <c r="M52" s="3" t="str">
         <f>TEXT(F52,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>48</v>
       </c>
@@ -4050,19 +4159,20 @@
       <c r="E53" s="2"/>
       <c r="F53" s="25"/>
       <c r="G53" s="18"/>
-      <c r="H53" s="3"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="3">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3">
         <v>-44228</v>
       </c>
-      <c r="K53" s="16"/>
-      <c r="L53" s="3" t="str">
+      <c r="L53" s="16"/>
+      <c r="M53" s="3" t="str">
         <f>TEXT(F53,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>49</v>
       </c>
@@ -4080,19 +4190,20 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="18"/>
-      <c r="H54" s="3"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="3">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3">
         <v>-44228</v>
       </c>
-      <c r="K54" s="16"/>
-      <c r="L54" s="3" t="str">
+      <c r="L54" s="16"/>
+      <c r="M54" s="3" t="str">
         <f>TEXT(F54,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>50</v>
       </c>
@@ -4108,19 +4219,20 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="18"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="3">
+      <c r="J55" s="3"/>
+      <c r="K55" s="3">
         <v>-44228</v>
       </c>
-      <c r="K55" s="16"/>
-      <c r="L55" s="3" t="str">
+      <c r="L55" s="16"/>
+      <c r="M55" s="3" t="str">
         <f>TEXT(F55,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -4136,14 +4248,15 @@
       <c r="E56" s="2"/>
       <c r="F56" s="10"/>
       <c r="G56" s="36"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="3"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="16"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -4159,19 +4272,20 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="18"/>
-      <c r="H57" s="3"/>
+      <c r="H57" s="18"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="3">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3">
         <v>-44228</v>
       </c>
-      <c r="K57" s="16"/>
-      <c r="L57" s="3" t="str">
+      <c r="L57" s="16"/>
+      <c r="M57" s="3" t="str">
         <f>TEXT(F57,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -4191,22 +4305,23 @@
       <c r="G58" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H58" s="3"/>
+      <c r="H58" s="38"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="3">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3">
         <v>13</v>
       </c>
-      <c r="K58" s="16">
+      <c r="L58" s="16">
         <f t="shared" si="0"/>
         <v>45326</v>
       </c>
-      <c r="L58" s="3" t="str">
+      <c r="M58" s="3" t="str">
         <f>TEXT(F58,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -4226,22 +4341,23 @@
       <c r="G59" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="H59" s="3"/>
+      <c r="H59" s="37"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="3">
+      <c r="J59" s="3"/>
+      <c r="K59" s="3">
         <v>14</v>
       </c>
-      <c r="K59" s="16">
+      <c r="L59" s="16">
         <f t="shared" si="0"/>
         <v>45327</v>
       </c>
-      <c r="L59" s="3" t="str">
+      <c r="M59" s="3" t="str">
         <f>TEXT(F59,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -4261,22 +4377,23 @@
       <c r="G60" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H60" s="3"/>
+      <c r="H60" s="37"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="3">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3">
         <v>14</v>
       </c>
-      <c r="K60" s="16">
+      <c r="L60" s="16">
         <f t="shared" si="0"/>
         <v>45327</v>
       </c>
-      <c r="L60" s="3" t="str">
+      <c r="M60" s="3" t="str">
         <f>TEXT(F60,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -4296,22 +4413,23 @@
       <c r="G61" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H61" s="3"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="3">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3">
         <v>14</v>
       </c>
-      <c r="K61" s="16">
+      <c r="L61" s="16">
         <f t="shared" si="0"/>
         <v>45327</v>
       </c>
-      <c r="L61" s="3" t="str">
+      <c r="M61" s="3" t="str">
         <f>TEXT(F61,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -4331,22 +4449,23 @@
       <c r="G62" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H62" s="3"/>
+      <c r="H62" s="18"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="3">
+      <c r="J62" s="3"/>
+      <c r="K62" s="3">
         <v>14</v>
       </c>
-      <c r="K62" s="16">
+      <c r="L62" s="16">
         <f t="shared" si="0"/>
         <v>45327</v>
       </c>
-      <c r="L62" s="3" t="str">
+      <c r="M62" s="3" t="str">
         <f>TEXT(F62,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -4366,22 +4485,23 @@
       <c r="G63" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="3"/>
+      <c r="H63" s="18"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="3">
+      <c r="J63" s="3"/>
+      <c r="K63" s="3">
         <v>14</v>
       </c>
-      <c r="K63" s="16">
+      <c r="L63" s="16">
         <f t="shared" si="0"/>
         <v>45327</v>
       </c>
-      <c r="L63" s="3" t="str">
+      <c r="M63" s="3" t="str">
         <f>TEXT(F63,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -4395,21 +4515,22 @@
       <c r="E64" s="3"/>
       <c r="F64" s="19"/>
       <c r="G64" s="18"/>
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="18"/>
+      <c r="I64" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3">
+      <c r="J64" s="3"/>
+      <c r="K64" s="3">
         <v>-44228</v>
       </c>
-      <c r="K64" s="16"/>
-      <c r="L64" s="3" t="str">
+      <c r="L64" s="16"/>
+      <c r="M64" s="3" t="str">
         <f>TEXT(F64,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -4423,19 +4544,20 @@
       <c r="E65" s="3"/>
       <c r="F65" s="19"/>
       <c r="G65" s="18"/>
-      <c r="H65" s="3"/>
+      <c r="H65" s="18"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="3">
+      <c r="J65" s="3"/>
+      <c r="K65" s="3">
         <v>-44228</v>
       </c>
-      <c r="K65" s="16"/>
-      <c r="L65" s="3" t="str">
+      <c r="L65" s="16"/>
+      <c r="M65" s="3" t="str">
         <f>TEXT(F65,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -4455,24 +4577,27 @@
       <c r="G66" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I66" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3">
+      <c r="J66" s="3"/>
+      <c r="K66" s="3">
         <v>16</v>
       </c>
-      <c r="K66" s="16">
+      <c r="L66" s="16">
         <f t="shared" si="0"/>
         <v>45329</v>
       </c>
-      <c r="L66" s="3" t="str">
+      <c r="M66" s="3" t="str">
         <f>TEXT(F66,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -4492,22 +4617,23 @@
       <c r="G67" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H67" s="3"/>
+      <c r="H67" s="18"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="3">
+      <c r="J67" s="3"/>
+      <c r="K67" s="3">
         <v>16</v>
       </c>
-      <c r="K67" s="16">
+      <c r="L67" s="16">
         <f t="shared" si="0"/>
         <v>45329</v>
       </c>
-      <c r="L67" s="3" t="str">
+      <c r="M67" s="3" t="str">
         <f>TEXT(F67,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -4527,22 +4653,23 @@
       <c r="G68" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H68" s="3"/>
+      <c r="H68" s="18"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="3">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3">
         <v>16</v>
       </c>
-      <c r="K68" s="16">
+      <c r="L68" s="16">
         <f t="shared" si="0"/>
         <v>45329</v>
       </c>
-      <c r="L68" s="3" t="str">
+      <c r="M68" s="3" t="str">
         <f>TEXT(F68,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -4562,22 +4689,23 @@
       <c r="G69" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H69" s="3"/>
+      <c r="H69" s="18"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="3">
+      <c r="J69" s="3"/>
+      <c r="K69" s="3">
         <v>16</v>
       </c>
-      <c r="K69" s="16">
+      <c r="L69" s="16">
         <f t="shared" si="0"/>
         <v>45329</v>
       </c>
-      <c r="L69" s="3" t="str">
+      <c r="M69" s="3" t="str">
         <f>TEXT(F69,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -4597,22 +4725,23 @@
       <c r="G70" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H70" s="3"/>
+      <c r="H70" s="38"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="3">
+      <c r="J70" s="3"/>
+      <c r="K70" s="3">
         <v>18</v>
       </c>
-      <c r="K70" s="16">
+      <c r="L70" s="16">
         <f t="shared" si="0"/>
         <v>45331</v>
       </c>
-      <c r="L70" s="3" t="str">
+      <c r="M70" s="3" t="str">
         <f>TEXT(F70,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -4626,19 +4755,20 @@
       <c r="E71" s="2"/>
       <c r="F71" s="19"/>
       <c r="G71" s="18"/>
-      <c r="H71" s="3"/>
+      <c r="H71" s="18"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="3">
+      <c r="J71" s="3"/>
+      <c r="K71" s="3">
         <v>-44228</v>
       </c>
-      <c r="K71" s="16"/>
-      <c r="L71" s="3" t="str">
+      <c r="L71" s="16"/>
+      <c r="M71" s="3" t="str">
         <f>TEXT(F71,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -4654,21 +4784,22 @@
       <c r="E72" s="2"/>
       <c r="F72" s="19"/>
       <c r="G72" s="18"/>
-      <c r="H72" s="11" t="s">
+      <c r="H72" s="18"/>
+      <c r="I72" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3">
+      <c r="J72" s="3"/>
+      <c r="K72" s="3">
         <v>-44228</v>
       </c>
-      <c r="K72" s="16"/>
-      <c r="L72" s="3" t="str">
+      <c r="L72" s="16"/>
+      <c r="M72" s="3" t="str">
         <f>TEXT(F72,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -4684,21 +4815,22 @@
       <c r="E73" s="2"/>
       <c r="F73" s="19"/>
       <c r="G73" s="18"/>
-      <c r="H73" s="11" t="s">
+      <c r="H73" s="18"/>
+      <c r="I73" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3">
+      <c r="J73" s="3"/>
+      <c r="K73" s="3">
         <v>-44228</v>
       </c>
-      <c r="K73" s="16"/>
-      <c r="L73" s="3" t="str">
+      <c r="L73" s="16"/>
+      <c r="M73" s="3" t="str">
         <f>TEXT(F73,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4712,19 +4844,20 @@
       <c r="E74" s="3"/>
       <c r="F74" s="19"/>
       <c r="G74" s="18"/>
-      <c r="H74" s="3"/>
+      <c r="H74" s="18"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="3">
+      <c r="J74" s="3"/>
+      <c r="K74" s="3">
         <v>-44228</v>
       </c>
-      <c r="K74" s="16"/>
-      <c r="L74" s="3" t="str">
+      <c r="L74" s="16"/>
+      <c r="M74" s="3" t="str">
         <f>TEXT(F74,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4744,24 +4877,25 @@
       <c r="G75" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H75" s="14" t="s">
+      <c r="H75" s="18"/>
+      <c r="I75" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3">
+      <c r="J75" s="3"/>
+      <c r="K75" s="3">
         <v>21</v>
       </c>
-      <c r="K75" s="16">
-        <f t="shared" ref="K75:K127" si="1">$F$13+J75</f>
+      <c r="L75" s="16">
+        <f t="shared" ref="L75:L127" si="1">$F$13+K75</f>
         <v>45334</v>
       </c>
-      <c r="L75" s="3" t="str">
+      <c r="M75" s="3" t="str">
         <f>TEXT(F75,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4781,22 +4915,23 @@
       <c r="G76" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H76" s="3"/>
+      <c r="H76" s="18"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="3">
+      <c r="J76" s="3"/>
+      <c r="K76" s="3">
         <v>21</v>
       </c>
-      <c r="K76" s="16">
+      <c r="L76" s="16">
         <f t="shared" si="1"/>
         <v>45334</v>
       </c>
-      <c r="L76" s="3" t="str">
+      <c r="M76" s="3" t="str">
         <f>TEXT(F76,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4810,19 +4945,20 @@
       <c r="E77" s="3"/>
       <c r="F77" s="19"/>
       <c r="G77" s="18"/>
-      <c r="H77" s="3"/>
+      <c r="H77" s="18"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="3">
+      <c r="J77" s="3"/>
+      <c r="K77" s="3">
         <v>-44228</v>
       </c>
-      <c r="K77" s="16"/>
-      <c r="L77" s="3" t="str">
+      <c r="L77" s="16"/>
+      <c r="M77" s="3" t="str">
         <f>TEXT(F77,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4836,19 +4972,20 @@
       <c r="E78" s="3"/>
       <c r="F78" s="19"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="3"/>
+      <c r="H78" s="18"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="3">
+      <c r="J78" s="3"/>
+      <c r="K78" s="3">
         <v>-44228</v>
       </c>
-      <c r="K78" s="16"/>
-      <c r="L78" s="3" t="str">
+      <c r="L78" s="16"/>
+      <c r="M78" s="3" t="str">
         <f>TEXT(F78,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M78" s="3"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77.099999999999994</v>
       </c>
@@ -4868,22 +5005,23 @@
       <c r="G79" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="H79" s="3"/>
+      <c r="H79" s="38"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="3">
+      <c r="J79" s="3"/>
+      <c r="K79" s="3">
         <v>20</v>
       </c>
-      <c r="K79" s="16">
-        <f>$F$13+J79</f>
+      <c r="L79" s="16">
+        <f>$F$13+K79</f>
         <v>45333</v>
       </c>
-      <c r="L79" s="3" t="str">
+      <c r="M79" s="3" t="str">
         <f>TEXT(F79,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>77.2</v>
       </c>
@@ -4903,22 +5041,23 @@
       <c r="G80" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="H80" s="3"/>
+      <c r="H80" s="37"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="3">
+      <c r="J80" s="3"/>
+      <c r="K80" s="3">
         <v>21</v>
       </c>
-      <c r="K80" s="16">
-        <f>$F$13+J80</f>
+      <c r="L80" s="16">
+        <f>$F$13+K80</f>
         <v>45334</v>
       </c>
-      <c r="L80" s="3" t="str">
+      <c r="M80" s="3" t="str">
         <f>TEXT(F80,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M80" s="3"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>77.3</v>
       </c>
@@ -4938,22 +5077,23 @@
       <c r="G81" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="H81" s="3"/>
+      <c r="H81" s="37"/>
       <c r="I81" s="3"/>
-      <c r="J81" s="3">
+      <c r="J81" s="3"/>
+      <c r="K81" s="3">
         <v>21</v>
       </c>
-      <c r="K81" s="16">
-        <f>$F$13+J81</f>
+      <c r="L81" s="16">
+        <f>$F$13+K81</f>
         <v>45334</v>
       </c>
-      <c r="L81" s="3" t="str">
+      <c r="M81" s="3" t="str">
         <f>TEXT(F81,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -4973,22 +5113,23 @@
       <c r="G82" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H82" s="3"/>
+      <c r="H82" s="18"/>
       <c r="I82" s="3"/>
-      <c r="J82" s="3">
+      <c r="J82" s="3"/>
+      <c r="K82" s="3">
         <v>23</v>
       </c>
-      <c r="K82" s="16">
+      <c r="L82" s="16">
         <f t="shared" si="1"/>
         <v>45336</v>
       </c>
-      <c r="L82" s="3" t="str">
+      <c r="M82" s="3" t="str">
         <f>TEXT(F82,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -5008,22 +5149,23 @@
       <c r="G83" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H83" s="3"/>
+      <c r="H83" s="18"/>
       <c r="I83" s="3"/>
-      <c r="J83" s="3">
+      <c r="J83" s="3"/>
+      <c r="K83" s="3">
         <v>23</v>
       </c>
-      <c r="K83" s="16">
+      <c r="L83" s="16">
         <f t="shared" si="1"/>
         <v>45336</v>
       </c>
-      <c r="L83" s="3" t="str">
+      <c r="M83" s="3" t="str">
         <f>TEXT(F83,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -5043,22 +5185,23 @@
       <c r="G84" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H84" s="3"/>
+      <c r="H84" s="18"/>
       <c r="I84" s="3"/>
-      <c r="J84" s="3">
+      <c r="J84" s="3"/>
+      <c r="K84" s="3">
         <v>24</v>
       </c>
-      <c r="K84" s="16">
+      <c r="L84" s="16">
         <f t="shared" si="1"/>
         <v>45337</v>
       </c>
-      <c r="L84" s="3" t="str">
+      <c r="M84" s="3" t="str">
         <f>TEXT(F84,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -5078,22 +5221,23 @@
       <c r="G85" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="H85" s="3"/>
+      <c r="H85" s="38"/>
       <c r="I85" s="3"/>
-      <c r="J85" s="3">
+      <c r="J85" s="3"/>
+      <c r="K85" s="3">
         <v>25</v>
       </c>
-      <c r="K85" s="16">
+      <c r="L85" s="16">
         <f t="shared" si="1"/>
         <v>45338</v>
       </c>
-      <c r="L85" s="3" t="str">
+      <c r="M85" s="3" t="str">
         <f>TEXT(F85,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -5113,22 +5257,23 @@
       <c r="G86" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H86" s="3"/>
+      <c r="H86" s="38"/>
       <c r="I86" s="3"/>
-      <c r="J86" s="3">
+      <c r="J86" s="3"/>
+      <c r="K86" s="3">
         <v>27</v>
       </c>
-      <c r="K86" s="16">
+      <c r="L86" s="16">
         <f t="shared" si="1"/>
         <v>45340</v>
       </c>
-      <c r="L86" s="3" t="str">
+      <c r="M86" s="3" t="str">
         <f>TEXT(F86,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -5142,19 +5287,20 @@
       <c r="E87" s="2"/>
       <c r="F87" s="19"/>
       <c r="G87" s="18"/>
-      <c r="H87" s="3"/>
+      <c r="H87" s="18"/>
       <c r="I87" s="3"/>
-      <c r="J87" s="3">
+      <c r="J87" s="3"/>
+      <c r="K87" s="3">
         <v>-44228</v>
       </c>
-      <c r="K87" s="16"/>
-      <c r="L87" s="3" t="str">
+      <c r="L87" s="16"/>
+      <c r="M87" s="3" t="str">
         <f>TEXT(F87,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -5170,21 +5316,22 @@
       <c r="E88" s="2"/>
       <c r="F88" s="19"/>
       <c r="G88" s="18"/>
-      <c r="H88" s="11" t="s">
+      <c r="H88" s="18"/>
+      <c r="I88" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3">
+      <c r="J88" s="3"/>
+      <c r="K88" s="3">
         <v>-44228</v>
       </c>
-      <c r="K88" s="16"/>
-      <c r="L88" s="3" t="str">
+      <c r="L88" s="16"/>
+      <c r="M88" s="3" t="str">
         <f>TEXT(F88,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -5200,21 +5347,22 @@
       <c r="E89" s="2"/>
       <c r="F89" s="19"/>
       <c r="G89" s="18"/>
-      <c r="H89" s="11" t="s">
+      <c r="H89" s="18"/>
+      <c r="I89" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3">
+      <c r="J89" s="3"/>
+      <c r="K89" s="3">
         <v>-44228</v>
       </c>
-      <c r="K89" s="16"/>
-      <c r="L89" s="3" t="str">
+      <c r="L89" s="16"/>
+      <c r="M89" s="3" t="str">
         <f>TEXT(F89,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -5234,22 +5382,23 @@
       <c r="G90" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H90" s="3"/>
+      <c r="H90" s="37"/>
       <c r="I90" s="3"/>
-      <c r="J90" s="3">
+      <c r="J90" s="3"/>
+      <c r="K90" s="3">
         <v>28</v>
       </c>
-      <c r="K90" s="16">
+      <c r="L90" s="16">
         <f t="shared" si="1"/>
         <v>45341</v>
       </c>
-      <c r="L90" s="3" t="str">
+      <c r="M90" s="3" t="str">
         <f>TEXT(F90,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -5269,22 +5418,23 @@
       <c r="G91" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="H91" s="3"/>
+      <c r="H91" s="37"/>
       <c r="I91" s="3"/>
-      <c r="J91" s="3">
+      <c r="J91" s="3"/>
+      <c r="K91" s="3">
         <v>28</v>
       </c>
-      <c r="K91" s="16">
+      <c r="L91" s="16">
         <f t="shared" si="1"/>
         <v>45341</v>
       </c>
-      <c r="L91" s="3" t="str">
+      <c r="M91" s="3" t="str">
         <f>TEXT(F91,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -5298,19 +5448,20 @@
       <c r="E92" s="3"/>
       <c r="F92" s="19"/>
       <c r="G92" s="18"/>
-      <c r="H92" s="3"/>
+      <c r="H92" s="18"/>
       <c r="I92" s="3"/>
-      <c r="J92" s="3">
+      <c r="J92" s="3"/>
+      <c r="K92" s="3">
         <v>-44228</v>
       </c>
-      <c r="K92" s="16"/>
-      <c r="L92" s="3" t="str">
+      <c r="L92" s="16"/>
+      <c r="M92" s="3" t="str">
         <f>TEXT(F92,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -5330,22 +5481,23 @@
       <c r="G93" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H93" s="3"/>
+      <c r="H93" s="18"/>
       <c r="I93" s="3"/>
-      <c r="J93" s="3">
+      <c r="J93" s="3"/>
+      <c r="K93" s="3">
         <v>28</v>
       </c>
-      <c r="K93" s="16">
+      <c r="L93" s="16">
         <f t="shared" si="1"/>
         <v>45341</v>
       </c>
-      <c r="L93" s="3" t="str">
+      <c r="M93" s="3" t="str">
         <f>TEXT(F93,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -5365,22 +5517,23 @@
       <c r="G94" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H94" s="3"/>
+      <c r="H94" s="18"/>
       <c r="I94" s="3"/>
-      <c r="J94" s="3">
+      <c r="J94" s="3"/>
+      <c r="K94" s="3">
         <v>28</v>
       </c>
-      <c r="K94" s="16">
+      <c r="L94" s="16">
         <f t="shared" si="1"/>
         <v>45341</v>
       </c>
-      <c r="L94" s="3" t="str">
+      <c r="M94" s="3" t="str">
         <f>TEXT(F94,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -5394,19 +5547,20 @@
       <c r="E95" s="3"/>
       <c r="F95" s="19"/>
       <c r="G95" s="18"/>
-      <c r="H95" s="3"/>
+      <c r="H95" s="18"/>
       <c r="I95" s="3"/>
-      <c r="J95" s="3">
+      <c r="J95" s="3"/>
+      <c r="K95" s="3">
         <v>-44228</v>
       </c>
-      <c r="K95" s="16"/>
-      <c r="L95" s="3" t="str">
+      <c r="L95" s="16"/>
+      <c r="M95" s="3" t="str">
         <f>TEXT(F95,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -5420,19 +5574,20 @@
       <c r="E96" s="3"/>
       <c r="F96" s="19"/>
       <c r="G96" s="18"/>
-      <c r="H96" s="3"/>
+      <c r="H96" s="18"/>
       <c r="I96" s="3"/>
-      <c r="J96" s="3">
+      <c r="J96" s="3"/>
+      <c r="K96" s="3">
         <v>-44228</v>
       </c>
-      <c r="K96" s="16"/>
-      <c r="L96" s="3" t="str">
+      <c r="L96" s="16"/>
+      <c r="M96" s="3" t="str">
         <f>TEXT(F96,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -5452,22 +5607,23 @@
       <c r="G97" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H97" s="3"/>
+      <c r="H97" s="18"/>
       <c r="I97" s="3"/>
-      <c r="J97" s="3">
+      <c r="J97" s="3"/>
+      <c r="K97" s="3">
         <v>30</v>
       </c>
-      <c r="K97" s="16">
+      <c r="L97" s="16">
         <f t="shared" si="1"/>
         <v>45343</v>
       </c>
-      <c r="L97" s="3" t="str">
+      <c r="M97" s="3" t="str">
         <f>TEXT(F97,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -5487,22 +5643,23 @@
       <c r="G98" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H98" s="3"/>
+      <c r="H98" s="18"/>
       <c r="I98" s="3"/>
-      <c r="J98" s="3">
+      <c r="J98" s="3"/>
+      <c r="K98" s="3">
         <v>30</v>
       </c>
-      <c r="K98" s="16">
+      <c r="L98" s="16">
         <f t="shared" si="1"/>
         <v>45343</v>
       </c>
-      <c r="L98" s="3" t="str">
+      <c r="M98" s="3" t="str">
         <f>TEXT(F98,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -5522,22 +5679,23 @@
       <c r="G99" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="H99" s="3"/>
+      <c r="H99" s="38"/>
       <c r="I99" s="3"/>
-      <c r="J99" s="3">
+      <c r="J99" s="3"/>
+      <c r="K99" s="3">
         <v>32</v>
       </c>
-      <c r="K99" s="16">
+      <c r="L99" s="16">
         <f t="shared" si="1"/>
         <v>45345</v>
       </c>
-      <c r="L99" s="3" t="str">
+      <c r="M99" s="3" t="str">
         <f>TEXT(F99,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>97</v>
       </c>
@@ -5551,19 +5709,20 @@
       <c r="E100" s="2"/>
       <c r="F100" s="19"/>
       <c r="G100" s="18"/>
-      <c r="H100" s="3"/>
+      <c r="H100" s="18"/>
       <c r="I100" s="3"/>
-      <c r="J100" s="3">
+      <c r="J100" s="3"/>
+      <c r="K100" s="3">
         <v>-44228</v>
       </c>
-      <c r="K100" s="16"/>
-      <c r="L100" s="3" t="str">
+      <c r="L100" s="16"/>
+      <c r="M100" s="3" t="str">
         <f>TEXT(F100,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>98</v>
       </c>
@@ -5577,19 +5736,20 @@
       <c r="E101" s="2"/>
       <c r="F101" s="19"/>
       <c r="G101" s="18"/>
-      <c r="H101" s="3"/>
+      <c r="H101" s="18"/>
       <c r="I101" s="3"/>
-      <c r="J101" s="3">
+      <c r="J101" s="3"/>
+      <c r="K101" s="3">
         <v>-44228</v>
       </c>
-      <c r="K101" s="16"/>
-      <c r="L101" s="3" t="str">
+      <c r="L101" s="16"/>
+      <c r="M101" s="3" t="str">
         <f>TEXT(F101,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>99</v>
       </c>
@@ -5605,19 +5765,20 @@
       <c r="E102" s="7"/>
       <c r="F102" s="25"/>
       <c r="G102" s="18"/>
-      <c r="H102" s="3"/>
+      <c r="H102" s="18"/>
       <c r="I102" s="3"/>
-      <c r="J102" s="3">
+      <c r="J102" s="3"/>
+      <c r="K102" s="3">
         <v>-44228</v>
       </c>
-      <c r="K102" s="16"/>
-      <c r="L102" s="3" t="str">
+      <c r="L102" s="16"/>
+      <c r="M102" s="3" t="str">
         <f>TEXT(F102,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M102" s="3"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N102" s="3"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>100</v>
       </c>
@@ -5635,19 +5796,20 @@
       </c>
       <c r="F103" s="26"/>
       <c r="G103" s="35"/>
-      <c r="H103" s="3"/>
+      <c r="H103" s="35"/>
       <c r="I103" s="3"/>
-      <c r="J103" s="3">
+      <c r="J103" s="3"/>
+      <c r="K103" s="3">
         <v>-44228</v>
       </c>
-      <c r="K103" s="16"/>
-      <c r="L103" s="3" t="str">
+      <c r="L103" s="16"/>
+      <c r="M103" s="3" t="str">
         <f>TEXT(F103,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M103" s="3"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N103" s="3"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>101</v>
       </c>
@@ -5665,19 +5827,20 @@
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="18"/>
-      <c r="H104" s="3"/>
+      <c r="H104" s="18"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="3">
+      <c r="J104" s="3"/>
+      <c r="K104" s="3">
         <v>-44228</v>
       </c>
-      <c r="K104" s="16"/>
-      <c r="L104" s="3" t="str">
+      <c r="L104" s="16"/>
+      <c r="M104" s="3" t="str">
         <f>TEXT(F104,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M104" s="3"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N104" s="3"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>102</v>
       </c>
@@ -5695,19 +5858,20 @@
       </c>
       <c r="F105" s="25"/>
       <c r="G105" s="18"/>
-      <c r="H105" s="3"/>
+      <c r="H105" s="18"/>
       <c r="I105" s="3"/>
-      <c r="J105" s="3">
+      <c r="J105" s="3"/>
+      <c r="K105" s="3">
         <v>-44228</v>
       </c>
-      <c r="K105" s="16"/>
-      <c r="L105" s="3" t="str">
+      <c r="L105" s="16"/>
+      <c r="M105" s="3" t="str">
         <f>TEXT(F105,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M105" s="3"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N105" s="3"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>103</v>
       </c>
@@ -5725,19 +5889,20 @@
       </c>
       <c r="F106" s="25"/>
       <c r="G106" s="18"/>
-      <c r="H106" s="3"/>
+      <c r="H106" s="18"/>
       <c r="I106" s="3"/>
-      <c r="J106" s="3">
+      <c r="J106" s="3"/>
+      <c r="K106" s="3">
         <v>-44228</v>
       </c>
-      <c r="K106" s="16"/>
-      <c r="L106" s="3" t="str">
+      <c r="L106" s="16"/>
+      <c r="M106" s="3" t="str">
         <f>TEXT(F106,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M106" s="3"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N106" s="3"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>104</v>
       </c>
@@ -5753,19 +5918,20 @@
       <c r="E107" s="2"/>
       <c r="F107" s="25"/>
       <c r="G107" s="18"/>
-      <c r="H107" s="3"/>
+      <c r="H107" s="18"/>
       <c r="I107" s="3"/>
-      <c r="J107" s="3">
+      <c r="J107" s="3"/>
+      <c r="K107" s="3">
         <v>-44228</v>
       </c>
-      <c r="K107" s="16"/>
-      <c r="L107" s="3" t="str">
+      <c r="L107" s="16"/>
+      <c r="M107" s="3" t="str">
         <f>TEXT(F107,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M107" s="3"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N107" s="3"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>105</v>
       </c>
@@ -5783,19 +5949,20 @@
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="18"/>
-      <c r="H108" s="3"/>
+      <c r="H108" s="18"/>
       <c r="I108" s="3"/>
-      <c r="J108" s="3">
+      <c r="J108" s="3"/>
+      <c r="K108" s="3">
         <v>-44228</v>
       </c>
-      <c r="K108" s="16"/>
-      <c r="L108" s="3" t="str">
+      <c r="L108" s="16"/>
+      <c r="M108" s="3" t="str">
         <f>TEXT(F108,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M108" s="3"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N108" s="3"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5811,19 +5978,20 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="18"/>
-      <c r="H109" s="3"/>
+      <c r="H109" s="18"/>
       <c r="I109" s="3"/>
-      <c r="J109" s="3">
+      <c r="J109" s="3"/>
+      <c r="K109" s="3">
         <v>-44228</v>
       </c>
-      <c r="K109" s="16"/>
-      <c r="L109" s="3" t="str">
+      <c r="L109" s="16"/>
+      <c r="M109" s="3" t="str">
         <f>TEXT(F109,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M109" s="3"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N109" s="3"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5839,19 +6007,20 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="18"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3">
+      <c r="H110" s="18"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3">
         <v>-44228</v>
       </c>
-      <c r="K110" s="16"/>
-      <c r="L110" s="3" t="str">
+      <c r="L110" s="16"/>
+      <c r="M110" s="3" t="str">
         <f>TEXT(F110,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M110" s="3"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N110" s="3"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5867,19 +6036,20 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="18"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3">
+      <c r="H111" s="18"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3">
         <v>-44228</v>
       </c>
-      <c r="K111" s="16"/>
-      <c r="L111" s="3" t="str">
+      <c r="L111" s="16"/>
+      <c r="M111" s="3" t="str">
         <f>TEXT(F111,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M111" s="3"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N111" s="3"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -5899,22 +6069,23 @@
       <c r="G112" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="H112" s="11"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3">
+      <c r="H112" s="39"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3">
         <v>35</v>
       </c>
-      <c r="K112" s="16">
+      <c r="L112" s="16">
         <f t="shared" si="1"/>
         <v>45348</v>
       </c>
-      <c r="L112" s="3" t="str">
+      <c r="M112" s="3" t="str">
         <f>TEXT(F112,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M112" s="3"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N112" s="3"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -5928,19 +6099,20 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="18"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3">
+      <c r="H113" s="18"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3">
         <v>-44228</v>
       </c>
-      <c r="K113" s="16"/>
-      <c r="L113" s="3" t="str">
+      <c r="L113" s="16"/>
+      <c r="M113" s="3" t="str">
         <f>TEXT(F113,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M113" s="3"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N113" s="3"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -5960,22 +6132,23 @@
       <c r="G114" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H114" s="11"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3">
+      <c r="H114" s="18"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3">
         <v>35</v>
       </c>
-      <c r="K114" s="16">
+      <c r="L114" s="16">
         <f t="shared" si="1"/>
         <v>45348</v>
       </c>
-      <c r="L114" s="3" t="str">
+      <c r="M114" s="3" t="str">
         <f>TEXT(F114,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M114" s="3"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N114" s="3"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -5995,22 +6168,23 @@
       <c r="G115" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H115" s="11"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3">
+      <c r="H115" s="18"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3">
         <v>35</v>
       </c>
-      <c r="K115" s="16">
+      <c r="L115" s="16">
         <f t="shared" si="1"/>
         <v>45348</v>
       </c>
-      <c r="L115" s="3" t="str">
+      <c r="M115" s="3" t="str">
         <f>TEXT(F115,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M115" s="3"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N115" s="3"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>117</v>
       </c>
@@ -6030,22 +6204,23 @@
       <c r="G116" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H116" s="11"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3">
+      <c r="H116" s="18"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3">
         <v>37</v>
       </c>
-      <c r="K116" s="16">
+      <c r="L116" s="16">
         <f t="shared" si="1"/>
         <v>45350</v>
       </c>
-      <c r="L116" s="3" t="str">
+      <c r="M116" s="3" t="str">
         <f>TEXT(F116,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M116" s="3"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N116" s="3"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>118</v>
       </c>
@@ -6065,22 +6240,23 @@
       <c r="G117" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H117" s="11"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3">
+      <c r="H117" s="18"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3">
         <v>37</v>
       </c>
-      <c r="K117" s="16">
+      <c r="L117" s="16">
         <f t="shared" si="1"/>
         <v>45350</v>
       </c>
-      <c r="L117" s="3" t="str">
+      <c r="M117" s="3" t="str">
         <f>TEXT(F117,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M117" s="3"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N117" s="3"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>118.05</v>
       </c>
@@ -6100,22 +6276,23 @@
       <c r="G118" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="H118" s="3"/>
+      <c r="H118" s="38"/>
       <c r="I118" s="3"/>
-      <c r="J118" s="3">
+      <c r="J118" s="3"/>
+      <c r="K118" s="3">
         <v>34</v>
       </c>
-      <c r="K118" s="16">
-        <f>$F$13+J118</f>
+      <c r="L118" s="16">
+        <f>$F$13+K118</f>
         <v>45347</v>
       </c>
-      <c r="L118" s="3" t="str">
+      <c r="M118" s="3" t="str">
         <f>TEXT(F118,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M118" s="3"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N118" s="3"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>118.06</v>
       </c>
@@ -6135,22 +6312,23 @@
       <c r="G119" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H119" s="11"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3">
+      <c r="H119" s="37"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3">
         <v>35</v>
       </c>
-      <c r="K119" s="16">
-        <f>$F$13+J119</f>
+      <c r="L119" s="16">
+        <f>$F$13+K119</f>
         <v>45348</v>
       </c>
-      <c r="L119" s="3" t="str">
+      <c r="M119" s="3" t="str">
         <f>TEXT(F119,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M119" s="3"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N119" s="3"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>118.1</v>
       </c>
@@ -6170,22 +6348,23 @@
       <c r="G120" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H120" s="3"/>
+      <c r="H120" s="38"/>
       <c r="I120" s="3"/>
-      <c r="J120" s="3">
+      <c r="J120" s="3"/>
+      <c r="K120" s="3">
         <v>39</v>
       </c>
-      <c r="K120" s="16">
+      <c r="L120" s="16">
         <f t="shared" si="1"/>
         <v>45352</v>
       </c>
-      <c r="L120" s="3" t="str">
+      <c r="M120" s="3" t="str">
         <f>TEXT(F120,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M120" s="3"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N120" s="3"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6199,19 +6378,20 @@
       <c r="E121" s="2"/>
       <c r="F121" s="10"/>
       <c r="G121" s="36"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3">
+      <c r="H121" s="36"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3">
         <v>-44228</v>
       </c>
-      <c r="K121" s="16"/>
-      <c r="L121" s="3" t="str">
+      <c r="L121" s="16"/>
+      <c r="M121" s="3" t="str">
         <f>TEXT(F121,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M121" s="3"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N121" s="3"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6225,19 +6405,20 @@
       <c r="E122" s="2"/>
       <c r="F122" s="10"/>
       <c r="G122" s="36"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3">
+      <c r="H122" s="36"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3">
         <v>-44228</v>
       </c>
-      <c r="K122" s="16"/>
-      <c r="L122" s="3" t="str">
+      <c r="L122" s="16"/>
+      <c r="M122" s="3" t="str">
         <f>TEXT(F122,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M122" s="3"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N122" s="3"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6253,19 +6434,20 @@
       <c r="E123" s="2"/>
       <c r="F123" s="10"/>
       <c r="G123" s="36"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3">
+      <c r="H123" s="36"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3">
         <v>-44228</v>
       </c>
-      <c r="K123" s="16"/>
-      <c r="L123" s="3" t="str">
+      <c r="L123" s="16"/>
+      <c r="M123" s="3" t="str">
         <f>TEXT(F123,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M123" s="3"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N123" s="3"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6281,19 +6463,20 @@
       <c r="E124" s="2"/>
       <c r="F124" s="10"/>
       <c r="G124" s="36"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3">
+      <c r="H124" s="36"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3">
         <v>-44228</v>
       </c>
-      <c r="K124" s="16"/>
-      <c r="L124" s="3" t="str">
+      <c r="L124" s="16"/>
+      <c r="M124" s="3" t="str">
         <f>TEXT(F124,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M124" s="3"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N124" s="3"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6313,22 +6496,23 @@
       <c r="G125" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H125" s="11"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3">
+      <c r="H125" s="18"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3">
         <v>42</v>
       </c>
-      <c r="K125" s="16">
+      <c r="L125" s="16">
         <f t="shared" si="1"/>
         <v>45355</v>
       </c>
-      <c r="L125" s="3" t="str">
+      <c r="M125" s="3" t="str">
         <f>TEXT(F125,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M125" s="3"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N125" s="3"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6348,22 +6532,23 @@
       <c r="G126" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H126" s="11"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3">
+      <c r="H126" s="18"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3">
         <v>42</v>
       </c>
-      <c r="K126" s="16">
+      <c r="L126" s="16">
         <f t="shared" si="1"/>
         <v>45355</v>
       </c>
-      <c r="L126" s="3" t="str">
+      <c r="M126" s="3" t="str">
         <f>TEXT(F126,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M126" s="3"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N126" s="3"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6383,22 +6568,23 @@
       <c r="G127" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H127" s="3"/>
+      <c r="H127" s="18"/>
       <c r="I127" s="3"/>
-      <c r="J127" s="3">
+      <c r="J127" s="3"/>
+      <c r="K127" s="3">
         <v>44</v>
       </c>
-      <c r="K127" s="16">
+      <c r="L127" s="16">
         <f t="shared" si="1"/>
         <v>45357</v>
       </c>
-      <c r="L127" s="3" t="str">
+      <c r="M127" s="3" t="str">
         <f>TEXT(F127,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M127" s="3"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N127" s="3"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6418,19 +6604,20 @@
       <c r="G128" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H128" s="14" t="s">
+      <c r="H128" s="18"/>
+      <c r="I128" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="16"/>
-      <c r="L128" s="3" t="str">
+      <c r="K128" s="3"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="3" t="str">
         <f>TEXT(F128,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M128" s="3"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N128" s="3"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6446,19 +6633,20 @@
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="18"/>
-      <c r="H129" s="3"/>
+      <c r="H129" s="18"/>
       <c r="I129" s="3"/>
-      <c r="J129" s="3">
+      <c r="J129" s="3"/>
+      <c r="K129" s="3">
         <v>-44228</v>
       </c>
-      <c r="K129" s="16"/>
-      <c r="L129" s="3" t="str">
+      <c r="L129" s="16"/>
+      <c r="M129" s="3" t="str">
         <f>TEXT(F129,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M129" s="3"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N129" s="3"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6478,21 +6666,22 @@
       <c r="G130" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="H130" s="14" t="s">
+      <c r="H130" s="18"/>
+      <c r="I130" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3">
+      <c r="J130" s="3"/>
+      <c r="K130" s="3">
         <v>49</v>
       </c>
-      <c r="K130" s="16"/>
-      <c r="L130" s="3" t="str">
+      <c r="L130" s="16"/>
+      <c r="M130" s="3" t="str">
         <f>TEXT(F130,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M130" s="3"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N130" s="3"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6512,19 +6701,20 @@
       <c r="G131" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="H131" s="3"/>
+      <c r="H131" s="18"/>
       <c r="I131" s="3"/>
-      <c r="J131" s="30" t="e">
+      <c r="J131" s="3"/>
+      <c r="K131" s="30" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="K131" s="16"/>
-      <c r="L131" s="3" t="str">
+      <c r="L131" s="16"/>
+      <c r="M131" s="3" t="str">
         <f>TEXT(F131,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M131" s="3"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N131" s="3"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6544,21 +6734,22 @@
       <c r="G132" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="H132" s="14" t="s">
+      <c r="H132" s="18"/>
+      <c r="I132" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3">
+      <c r="J132" s="3"/>
+      <c r="K132" s="3">
         <v>51</v>
       </c>
-      <c r="K132" s="16"/>
-      <c r="L132" s="3" t="str">
+      <c r="L132" s="16"/>
+      <c r="M132" s="3" t="str">
         <f>TEXT(F132,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M132" s="3"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N132" s="3"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6574,19 +6765,20 @@
       <c r="E133" s="7"/>
       <c r="F133" s="19"/>
       <c r="G133" s="18"/>
-      <c r="H133" s="3"/>
+      <c r="H133" s="18"/>
       <c r="I133" s="3"/>
-      <c r="J133" s="3">
+      <c r="J133" s="3"/>
+      <c r="K133" s="3">
         <v>-44228</v>
       </c>
-      <c r="K133" s="16"/>
-      <c r="L133" s="3" t="str">
+      <c r="L133" s="16"/>
+      <c r="M133" s="3" t="str">
         <f>TEXT(F133,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M133" s="3"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N133" s="3"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6604,19 +6796,20 @@
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="35"/>
-      <c r="H134" s="3"/>
+      <c r="H134" s="35"/>
       <c r="I134" s="3"/>
-      <c r="J134" s="3">
+      <c r="J134" s="3"/>
+      <c r="K134" s="3">
         <v>-44228</v>
       </c>
-      <c r="K134" s="16"/>
-      <c r="L134" s="3" t="str">
+      <c r="L134" s="16"/>
+      <c r="M134" s="3" t="str">
         <f>TEXT(F134,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M134" s="3"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N134" s="3"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6634,19 +6827,20 @@
       </c>
       <c r="F135" s="25"/>
       <c r="G135" s="18"/>
-      <c r="H135" s="3"/>
+      <c r="H135" s="18"/>
       <c r="I135" s="3"/>
-      <c r="J135" s="3">
+      <c r="J135" s="3"/>
+      <c r="K135" s="3">
         <v>-44228</v>
       </c>
-      <c r="K135" s="16"/>
-      <c r="L135" s="3" t="str">
+      <c r="L135" s="16"/>
+      <c r="M135" s="3" t="str">
         <f>TEXT(F135,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M135" s="3"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N135" s="3"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6664,19 +6858,20 @@
       </c>
       <c r="F136" s="25"/>
       <c r="G136" s="18"/>
-      <c r="H136" s="3"/>
+      <c r="H136" s="18"/>
       <c r="I136" s="3"/>
-      <c r="J136" s="3">
+      <c r="J136" s="3"/>
+      <c r="K136" s="3">
         <v>-44228</v>
       </c>
-      <c r="K136" s="16"/>
-      <c r="L136" s="3" t="str">
+      <c r="L136" s="16"/>
+      <c r="M136" s="3" t="str">
         <f>TEXT(F136,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M136" s="3"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N136" s="3"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6694,19 +6889,20 @@
       </c>
       <c r="F137" s="25"/>
       <c r="G137" s="18"/>
-      <c r="H137" s="3"/>
+      <c r="H137" s="18"/>
       <c r="I137" s="3"/>
-      <c r="J137" s="3">
+      <c r="J137" s="3"/>
+      <c r="K137" s="3">
         <v>-44228</v>
       </c>
-      <c r="K137" s="16"/>
-      <c r="L137" s="3" t="str">
+      <c r="L137" s="16"/>
+      <c r="M137" s="3" t="str">
         <f>TEXT(F137,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M137" s="3"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N137" s="3"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6724,19 +6920,20 @@
       </c>
       <c r="F138" s="25"/>
       <c r="G138" s="18"/>
-      <c r="H138" s="3"/>
+      <c r="H138" s="18"/>
       <c r="I138" s="3"/>
-      <c r="J138" s="3">
+      <c r="J138" s="3"/>
+      <c r="K138" s="3">
         <v>-44228</v>
       </c>
-      <c r="K138" s="16"/>
-      <c r="L138" s="3" t="str">
+      <c r="L138" s="16"/>
+      <c r="M138" s="3" t="str">
         <f>TEXT(F138,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M138" s="3"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N138" s="3"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6754,19 +6951,20 @@
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="18"/>
-      <c r="H139" s="3"/>
+      <c r="H139" s="18"/>
       <c r="I139" s="3"/>
-      <c r="J139" s="3">
+      <c r="J139" s="3"/>
+      <c r="K139" s="3">
         <v>-44228</v>
       </c>
-      <c r="K139" s="16"/>
-      <c r="L139" s="3" t="str">
+      <c r="L139" s="16"/>
+      <c r="M139" s="3" t="str">
         <f>TEXT(F139,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M139" s="3"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N139" s="3"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6782,19 +6980,20 @@
       <c r="E140" s="7"/>
       <c r="F140" s="25"/>
       <c r="G140" s="18"/>
-      <c r="H140" s="3"/>
+      <c r="H140" s="18"/>
       <c r="I140" s="3"/>
-      <c r="J140" s="3">
+      <c r="J140" s="3"/>
+      <c r="K140" s="3">
         <v>-44228</v>
       </c>
-      <c r="K140" s="16"/>
-      <c r="L140" s="3" t="str">
+      <c r="L140" s="16"/>
+      <c r="M140" s="3" t="str">
         <f>TEXT(F140,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M140" s="3"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N140" s="3"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -6812,21 +7011,24 @@
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="18"/>
-      <c r="H141" s="14" t="s">
+      <c r="H141" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="I141" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3">
+      <c r="J141" s="3"/>
+      <c r="K141" s="3">
         <v>-44228</v>
       </c>
-      <c r="K141" s="16"/>
-      <c r="L141" s="3" t="str">
+      <c r="L141" s="16"/>
+      <c r="M141" s="3" t="str">
         <f>TEXT(F141,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M141" s="3"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N141" s="3"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -6844,19 +7046,20 @@
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="18"/>
-      <c r="H142" s="3"/>
+      <c r="H142" s="18"/>
       <c r="I142" s="3"/>
-      <c r="J142" s="3">
+      <c r="J142" s="3"/>
+      <c r="K142" s="3">
         <v>-44228</v>
       </c>
-      <c r="K142" s="16"/>
-      <c r="L142" s="3" t="str">
+      <c r="L142" s="16"/>
+      <c r="M142" s="3" t="str">
         <f>TEXT(F142,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M142" s="3"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N142" s="3"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -6872,19 +7075,20 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="18"/>
-      <c r="H143" s="3"/>
+      <c r="H143" s="18"/>
       <c r="I143" s="3"/>
-      <c r="J143" s="3">
+      <c r="J143" s="3"/>
+      <c r="K143" s="3">
         <v>-44228</v>
       </c>
-      <c r="K143" s="16"/>
-      <c r="L143" s="3" t="str">
+      <c r="L143" s="16"/>
+      <c r="M143" s="3" t="str">
         <f>TEXT(F143,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M143" s="3"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N143" s="3"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -6900,19 +7104,20 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="18"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3">
+      <c r="H144" s="18"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3">
         <v>-44228</v>
       </c>
-      <c r="K144" s="16"/>
-      <c r="L144" s="3" t="str">
+      <c r="L144" s="16"/>
+      <c r="M144" s="3" t="str">
         <f>TEXT(F144,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M144" s="3"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N144" s="3"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -6928,19 +7133,20 @@
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="18"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3">
+      <c r="H145" s="18"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3">
         <v>-44228</v>
       </c>
-      <c r="K145" s="16"/>
-      <c r="L145" s="3" t="str">
+      <c r="L145" s="16"/>
+      <c r="M145" s="3" t="str">
         <f>TEXT(F145,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M145" s="3"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N145" s="3"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -6954,19 +7160,20 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="18"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3">
+      <c r="H146" s="18"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3">
         <v>-44228</v>
       </c>
-      <c r="K146" s="16"/>
-      <c r="L146" s="3" t="str">
+      <c r="L146" s="16"/>
+      <c r="M146" s="3" t="str">
         <f>TEXT(F146,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M146" s="3"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N146" s="3"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -6986,22 +7193,23 @@
       <c r="G147" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H147" s="3"/>
+      <c r="H147" s="18"/>
       <c r="I147" s="3"/>
-      <c r="J147" s="3">
+      <c r="J147" s="3"/>
+      <c r="K147" s="3">
         <v>56</v>
       </c>
-      <c r="K147" s="16">
-        <f t="shared" ref="K147:K194" si="2">$F$13+J147</f>
+      <c r="L147" s="16">
+        <f t="shared" ref="L147:L194" si="2">$F$13+K147</f>
         <v>45369</v>
       </c>
-      <c r="L147" s="3" t="str">
+      <c r="M147" s="3" t="str">
         <f>TEXT(F147,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M147" s="3"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N147" s="3"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -7021,22 +7229,23 @@
       <c r="G148" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="H148" s="3"/>
+      <c r="H148" s="18"/>
       <c r="I148" s="3"/>
-      <c r="J148" s="3">
+      <c r="J148" s="3"/>
+      <c r="K148" s="3">
         <v>56</v>
       </c>
-      <c r="K148" s="16">
+      <c r="L148" s="16">
         <f t="shared" si="2"/>
         <v>45369</v>
       </c>
-      <c r="L148" s="3" t="str">
+      <c r="M148" s="3" t="str">
         <f>TEXT(F148,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M148" s="3"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N148" s="3"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -7056,22 +7265,23 @@
       <c r="G149" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="H149" s="3"/>
+      <c r="H149" s="18"/>
       <c r="I149" s="3"/>
-      <c r="J149" s="3">
+      <c r="J149" s="3"/>
+      <c r="K149" s="3">
         <v>58</v>
       </c>
-      <c r="K149" s="16">
+      <c r="L149" s="16">
         <f t="shared" si="2"/>
         <v>45371</v>
       </c>
-      <c r="L149" s="3" t="str">
+      <c r="M149" s="3" t="str">
         <f>TEXT(F149,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M149" s="3"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N149" s="3"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -7091,22 +7301,23 @@
       <c r="G150" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="H150" s="3"/>
+      <c r="H150" s="40"/>
       <c r="I150" s="3"/>
-      <c r="J150" s="3">
+      <c r="J150" s="3"/>
+      <c r="K150" s="3">
         <v>58</v>
       </c>
-      <c r="K150" s="16">
+      <c r="L150" s="16">
         <f t="shared" si="2"/>
         <v>45371</v>
       </c>
-      <c r="L150" s="3" t="str">
+      <c r="M150" s="3" t="str">
         <f>TEXT(F150,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M150" s="3"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N150" s="3"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -7126,22 +7337,23 @@
       <c r="G151" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="H151" s="3"/>
+      <c r="H151" s="18"/>
       <c r="I151" s="3"/>
-      <c r="J151" s="3">
+      <c r="J151" s="3"/>
+      <c r="K151" s="3">
         <v>58</v>
       </c>
-      <c r="K151" s="16">
+      <c r="L151" s="16">
         <f t="shared" si="2"/>
         <v>45371</v>
       </c>
-      <c r="L151" s="3" t="str">
+      <c r="M151" s="3" t="str">
         <f>TEXT(F151,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M151" s="3"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N151" s="3"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -7161,22 +7373,23 @@
       <c r="G152" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="H152" s="3"/>
+      <c r="H152" s="38"/>
       <c r="I152" s="3"/>
-      <c r="J152" s="3">
+      <c r="J152" s="3"/>
+      <c r="K152" s="3">
         <v>60</v>
       </c>
-      <c r="K152" s="16">
+      <c r="L152" s="16">
         <f t="shared" si="2"/>
         <v>45373</v>
       </c>
-      <c r="L152" s="3" t="str">
+      <c r="M152" s="3" t="str">
         <f>TEXT(F152,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M152" s="3"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N152" s="3"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -7196,22 +7409,23 @@
       <c r="G153" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="H153" s="11"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3">
+      <c r="H153" s="37"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3">
         <v>60</v>
       </c>
-      <c r="K153" s="16">
+      <c r="L153" s="16">
         <f t="shared" si="2"/>
         <v>45373</v>
       </c>
-      <c r="L153" s="3" t="str">
+      <c r="M153" s="3" t="str">
         <f>TEXT(F153,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M153" s="3"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N153" s="3"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>156</v>
       </c>
@@ -7225,19 +7439,20 @@
       <c r="E154" s="7"/>
       <c r="F154" s="19"/>
       <c r="G154" s="18"/>
-      <c r="H154" s="3"/>
+      <c r="H154" s="18"/>
       <c r="I154" s="3"/>
-      <c r="J154" s="3">
+      <c r="J154" s="3"/>
+      <c r="K154" s="3">
         <v>-44228</v>
       </c>
-      <c r="K154" s="16"/>
-      <c r="L154" s="3" t="str">
+      <c r="L154" s="16"/>
+      <c r="M154" s="3" t="str">
         <f>TEXT(F154,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M154" s="3"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N154" s="3"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>157</v>
       </c>
@@ -7253,19 +7468,20 @@
       <c r="E155" s="7"/>
       <c r="F155" s="19"/>
       <c r="G155" s="18"/>
-      <c r="H155" s="3"/>
+      <c r="H155" s="18"/>
       <c r="I155" s="3"/>
-      <c r="J155" s="3">
+      <c r="J155" s="3"/>
+      <c r="K155" s="3">
         <v>-44228</v>
       </c>
-      <c r="K155" s="16"/>
-      <c r="L155" s="3" t="str">
+      <c r="L155" s="16"/>
+      <c r="M155" s="3" t="str">
         <f>TEXT(F155,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M155" s="3"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N155" s="3"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>158</v>
       </c>
@@ -7281,19 +7497,20 @@
       <c r="E156" s="7"/>
       <c r="F156" s="19"/>
       <c r="G156" s="18"/>
-      <c r="H156" s="3"/>
+      <c r="H156" s="18"/>
       <c r="I156" s="3"/>
-      <c r="J156" s="3">
+      <c r="J156" s="3"/>
+      <c r="K156" s="3">
         <v>-44228</v>
       </c>
-      <c r="K156" s="16"/>
-      <c r="L156" s="3" t="str">
+      <c r="L156" s="16"/>
+      <c r="M156" s="3" t="str">
         <f>TEXT(F156,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M156" s="3"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N156" s="3"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>158.1</v>
       </c>
@@ -7313,22 +7530,23 @@
       <c r="G157" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="H157" s="11"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3">
+      <c r="H157" s="38"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3">
         <v>62</v>
       </c>
-      <c r="K157" s="16">
-        <f>$F$13+J157</f>
+      <c r="L157" s="16">
+        <f>$F$13+K157</f>
         <v>45375</v>
       </c>
-      <c r="L157" s="3" t="str">
+      <c r="M157" s="3" t="str">
         <f>TEXT(F157,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="M157" s="3"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N157" s="3"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>158.19999999999999</v>
       </c>
@@ -7348,22 +7566,23 @@
       <c r="G158" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="H158" s="11"/>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3">
+      <c r="H158" s="37"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3">
         <v>62</v>
       </c>
-      <c r="K158" s="16">
-        <f>$F$13+J158</f>
+      <c r="L158" s="16">
+        <f>$F$13+K158</f>
         <v>45375</v>
       </c>
-      <c r="L158" s="3" t="str">
+      <c r="M158" s="3" t="str">
         <f>TEXT(F158,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="M158" s="3"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N158" s="3"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -7383,22 +7602,23 @@
       <c r="G159" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H159" s="3"/>
+      <c r="H159" s="17"/>
       <c r="I159" s="3"/>
-      <c r="J159" s="3">
+      <c r="J159" s="3"/>
+      <c r="K159" s="3">
         <v>63</v>
       </c>
-      <c r="K159" s="16">
+      <c r="L159" s="16">
         <f t="shared" si="2"/>
         <v>45376</v>
       </c>
-      <c r="L159" s="3" t="str">
+      <c r="M159" s="3" t="str">
         <f>TEXT(F159,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M159" s="3"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N159" s="3"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -7418,22 +7638,23 @@
       <c r="G160" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H160" s="3"/>
-      <c r="I160" s="24"/>
-      <c r="J160" s="3">
+      <c r="H160" s="18"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="3">
         <v>63</v>
       </c>
-      <c r="K160" s="16">
+      <c r="L160" s="16">
         <f t="shared" si="2"/>
         <v>45376</v>
       </c>
-      <c r="L160" s="3" t="str">
+      <c r="M160" s="3" t="str">
         <f>TEXT(F160,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M160" s="3"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N160" s="3"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -7453,22 +7674,23 @@
       <c r="G161" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="H161" s="3"/>
+      <c r="H161" s="18"/>
       <c r="I161" s="3"/>
-      <c r="J161" s="3">
+      <c r="J161" s="3"/>
+      <c r="K161" s="3">
         <v>65</v>
       </c>
-      <c r="K161" s="16">
+      <c r="L161" s="16">
         <f t="shared" si="2"/>
         <v>45378</v>
       </c>
-      <c r="L161" s="3" t="str">
+      <c r="M161" s="3" t="str">
         <f>TEXT(F161,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M161" s="3"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N161" s="3"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>163</v>
       </c>
@@ -7488,22 +7710,23 @@
       <c r="G162" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="H162" s="3"/>
+      <c r="H162" s="38"/>
       <c r="I162" s="3"/>
-      <c r="J162" s="3">
+      <c r="J162" s="3"/>
+      <c r="K162" s="3">
         <v>69</v>
       </c>
-      <c r="K162" s="16">
+      <c r="L162" s="16">
         <f t="shared" si="2"/>
         <v>45382</v>
       </c>
-      <c r="L162" s="3" t="str">
+      <c r="M162" s="3" t="str">
         <f>TEXT(F162,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="M162" s="3"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N162" s="3"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>164</v>
       </c>
@@ -7523,22 +7746,23 @@
       <c r="G163" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="H163" s="11"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3">
+      <c r="H163" s="37"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3">
         <v>69</v>
       </c>
-      <c r="K163" s="16">
+      <c r="L163" s="16">
         <f t="shared" si="2"/>
         <v>45382</v>
       </c>
-      <c r="L163" s="3" t="str">
+      <c r="M163" s="3" t="str">
         <f>TEXT(F163,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="M163" s="3"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N163" s="3"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>166</v>
       </c>
@@ -7552,19 +7776,20 @@
       <c r="E164" s="7"/>
       <c r="F164" s="19"/>
       <c r="G164" s="18"/>
-      <c r="H164" s="3"/>
+      <c r="H164" s="18"/>
       <c r="I164" s="3"/>
-      <c r="J164" s="3">
+      <c r="J164" s="3"/>
+      <c r="K164" s="3">
         <v>-44228</v>
       </c>
-      <c r="K164" s="16"/>
-      <c r="L164" s="3" t="str">
+      <c r="L164" s="16"/>
+      <c r="M164" s="3" t="str">
         <f>TEXT(F164,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M164" s="3"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N164" s="3"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>167</v>
       </c>
@@ -7580,19 +7805,20 @@
       <c r="E165" s="7"/>
       <c r="F165" s="19"/>
       <c r="G165" s="18"/>
-      <c r="H165" s="3"/>
+      <c r="H165" s="18"/>
       <c r="I165" s="3"/>
-      <c r="J165" s="3">
+      <c r="J165" s="3"/>
+      <c r="K165" s="3">
         <v>-44228</v>
       </c>
-      <c r="K165" s="16"/>
-      <c r="L165" s="3" t="str">
+      <c r="L165" s="16"/>
+      <c r="M165" s="3" t="str">
         <f>TEXT(F165,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M165" s="3"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N165" s="3"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>168</v>
       </c>
@@ -7608,19 +7834,20 @@
       <c r="E166" s="7"/>
       <c r="F166" s="19"/>
       <c r="G166" s="18"/>
-      <c r="H166" s="3"/>
+      <c r="H166" s="18"/>
       <c r="I166" s="3"/>
-      <c r="J166" s="3">
+      <c r="J166" s="3"/>
+      <c r="K166" s="3">
         <v>-44228</v>
       </c>
-      <c r="K166" s="16"/>
-      <c r="L166" s="3" t="str">
+      <c r="L166" s="16"/>
+      <c r="M166" s="3" t="str">
         <f>TEXT(F166,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M166" s="3"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N166" s="3"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>169</v>
       </c>
@@ -7640,22 +7867,23 @@
       <c r="G167" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H167" s="3"/>
+      <c r="H167" s="18"/>
       <c r="I167" s="3"/>
-      <c r="J167" s="3">
+      <c r="J167" s="3"/>
+      <c r="K167" s="3">
         <v>70</v>
       </c>
-      <c r="K167" s="16">
+      <c r="L167" s="16">
         <f t="shared" si="2"/>
         <v>45383</v>
       </c>
-      <c r="L167" s="3" t="str">
+      <c r="M167" s="3" t="str">
         <f>TEXT(F167,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M167" s="3"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N167" s="3"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>170</v>
       </c>
@@ -7675,22 +7903,23 @@
       <c r="G168" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H168" s="3"/>
+      <c r="H168" s="18"/>
       <c r="I168" s="3"/>
-      <c r="J168" s="3">
+      <c r="J168" s="3"/>
+      <c r="K168" s="3">
         <v>72</v>
       </c>
-      <c r="K168" s="16">
+      <c r="L168" s="16">
         <f t="shared" si="2"/>
         <v>45385</v>
       </c>
-      <c r="L168" s="3" t="str">
+      <c r="M168" s="3" t="str">
         <f>TEXT(F168,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M168" s="3"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N168" s="3"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>171</v>
       </c>
@@ -7710,22 +7939,23 @@
       <c r="G169" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="H169" s="3"/>
+      <c r="H169" s="18"/>
       <c r="I169" s="3"/>
-      <c r="J169" s="3">
+      <c r="J169" s="3"/>
+      <c r="K169" s="3">
         <v>72</v>
       </c>
-      <c r="K169" s="16">
+      <c r="L169" s="16">
         <f t="shared" si="2"/>
         <v>45385</v>
       </c>
-      <c r="L169" s="3" t="str">
+      <c r="M169" s="3" t="str">
         <f>TEXT(F169,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M169" s="3"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N169" s="3"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>171.5</v>
       </c>
@@ -7745,22 +7975,23 @@
       <c r="G170" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="H170" s="11"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3">
+      <c r="H170" s="38"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3">
         <v>72</v>
       </c>
-      <c r="K170" s="16">
-        <f>$F$13+J170</f>
+      <c r="L170" s="16">
+        <f>$F$13+K170</f>
         <v>45385</v>
       </c>
-      <c r="L170" s="3" t="str">
+      <c r="M170" s="3" t="str">
         <f>TEXT(F170,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M170" s="3"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N170" s="3"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>172</v>
       </c>
@@ -7776,19 +8007,20 @@
       <c r="E171" s="7"/>
       <c r="F171" s="19"/>
       <c r="G171" s="18"/>
-      <c r="H171" s="3"/>
+      <c r="H171" s="18"/>
       <c r="I171" s="3"/>
-      <c r="J171" s="3">
+      <c r="J171" s="3"/>
+      <c r="K171" s="3">
         <v>-44227</v>
       </c>
-      <c r="K171" s="16"/>
-      <c r="L171" s="3" t="str">
+      <c r="L171" s="16"/>
+      <c r="M171" s="3" t="str">
         <f>TEXT(F171,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M171" s="3"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N171" s="3"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>172.1</v>
       </c>
@@ -7804,14 +8036,15 @@
       <c r="E172" s="7"/>
       <c r="F172" s="19"/>
       <c r="G172" s="18"/>
-      <c r="H172" s="3"/>
+      <c r="H172" s="18"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="16"/>
-      <c r="L172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="16"/>
       <c r="M172" s="3"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N172" s="3"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>172.2</v>
       </c>
@@ -7831,22 +8064,23 @@
       <c r="G173" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="H173" s="3"/>
+      <c r="H173" s="41"/>
       <c r="I173" s="3"/>
-      <c r="J173" s="3">
+      <c r="J173" s="3"/>
+      <c r="K173" s="3">
         <v>77</v>
       </c>
-      <c r="K173" s="16">
-        <f t="shared" ref="K173:K174" si="3">$F$13+J173</f>
+      <c r="L173" s="16">
+        <f t="shared" ref="L173:L174" si="3">$F$13+K173</f>
         <v>45390</v>
       </c>
-      <c r="L173" s="3" t="str">
+      <c r="M173" s="3" t="str">
         <f>TEXT(F173,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M173" s="3"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N173" s="3"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>172.3</v>
       </c>
@@ -7866,22 +8100,23 @@
       <c r="G174" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="H174" s="3"/>
+      <c r="H174" s="38"/>
       <c r="I174" s="3"/>
-      <c r="J174" s="3">
+      <c r="J174" s="3"/>
+      <c r="K174" s="3">
         <v>77</v>
       </c>
-      <c r="K174" s="16">
+      <c r="L174" s="16">
         <f t="shared" si="3"/>
         <v>45390</v>
       </c>
-      <c r="L174" s="3" t="str">
+      <c r="M174" s="3" t="str">
         <f>TEXT(F174,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M174" s="3"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N174" s="3"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7901,22 +8136,23 @@
       <c r="G175" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="H175" s="3"/>
+      <c r="H175" s="18"/>
       <c r="I175" s="3"/>
-      <c r="J175" s="3">
+      <c r="J175" s="3"/>
+      <c r="K175" s="3">
         <v>77</v>
       </c>
-      <c r="K175" s="16">
+      <c r="L175" s="16">
         <f t="shared" si="2"/>
         <v>45390</v>
       </c>
-      <c r="L175" s="3" t="str">
+      <c r="M175" s="3" t="str">
         <f>TEXT(F175,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M175" s="3"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N175" s="3"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>173.3</v>
       </c>
@@ -7936,22 +8172,23 @@
       <c r="G176" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="H176" s="3"/>
+      <c r="H176" s="18"/>
       <c r="I176" s="3"/>
-      <c r="J176" s="3">
+      <c r="J176" s="3"/>
+      <c r="K176" s="3">
         <v>79</v>
       </c>
-      <c r="K176" s="16">
+      <c r="L176" s="16">
         <f t="shared" si="2"/>
         <v>45392</v>
       </c>
-      <c r="L176" s="3" t="str">
+      <c r="M176" s="3" t="str">
         <f>TEXT(F176,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M176" s="3"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N176" s="3"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>174</v>
       </c>
@@ -7971,22 +8208,23 @@
       <c r="G177" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H177" s="3"/>
+      <c r="H177" s="18"/>
       <c r="I177" s="3"/>
-      <c r="J177" s="3">
+      <c r="J177" s="3"/>
+      <c r="K177" s="3">
         <v>79</v>
       </c>
-      <c r="K177" s="16">
+      <c r="L177" s="16">
         <f t="shared" si="2"/>
         <v>45392</v>
       </c>
-      <c r="L177" s="3" t="str">
+      <c r="M177" s="3" t="str">
         <f>TEXT(F177,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M177" s="3"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N177" s="3"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>175</v>
       </c>
@@ -8000,19 +8238,20 @@
       <c r="E178" s="7"/>
       <c r="F178" s="19"/>
       <c r="G178" s="18"/>
-      <c r="H178" s="3"/>
+      <c r="H178" s="18"/>
       <c r="I178" s="3"/>
-      <c r="J178" s="3">
+      <c r="J178" s="3"/>
+      <c r="K178" s="3">
         <v>-44224</v>
       </c>
-      <c r="K178" s="16"/>
-      <c r="L178" s="3" t="str">
+      <c r="L178" s="16"/>
+      <c r="M178" s="3" t="str">
         <f>TEXT(F178,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M178" s="3"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N178" s="3"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>175.5</v>
       </c>
@@ -8032,22 +8271,23 @@
       <c r="G179" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="H179" s="3"/>
+      <c r="H179" s="38"/>
       <c r="I179" s="3"/>
-      <c r="J179" s="3">
+      <c r="J179" s="3"/>
+      <c r="K179" s="3">
         <v>81</v>
       </c>
-      <c r="K179" s="16">
-        <f>$F$13+J179</f>
+      <c r="L179" s="16">
+        <f>$F$13+K179</f>
         <v>45394</v>
       </c>
-      <c r="L179" s="3" t="str">
+      <c r="M179" s="3" t="str">
         <f>TEXT(F179,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M179" s="3"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N179" s="3"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>176</v>
       </c>
@@ -8067,24 +8307,25 @@
       <c r="G180" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="H180" s="14" t="s">
+      <c r="H180" s="18"/>
+      <c r="I180" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3">
+      <c r="J180" s="3"/>
+      <c r="K180" s="3">
         <v>81</v>
       </c>
-      <c r="K180" s="16">
-        <f>$F$13+J180</f>
+      <c r="L180" s="16">
+        <f>$F$13+K180</f>
         <v>45394</v>
       </c>
-      <c r="L180" s="3" t="str">
+      <c r="M180" s="3" t="str">
         <f>TEXT(F180,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M180" s="3"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N180" s="3"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>177</v>
       </c>
@@ -8100,19 +8341,20 @@
       <c r="E181" s="7"/>
       <c r="F181" s="19"/>
       <c r="G181" s="18"/>
-      <c r="H181" s="3"/>
+      <c r="H181" s="18"/>
       <c r="I181" s="3"/>
-      <c r="J181" s="3">
+      <c r="J181" s="3"/>
+      <c r="K181" s="3">
         <v>-44221</v>
       </c>
-      <c r="K181" s="16"/>
-      <c r="L181" s="3" t="str">
+      <c r="L181" s="16"/>
+      <c r="M181" s="3" t="str">
         <f>TEXT(F181,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M181" s="3"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N181" s="3"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>178</v>
       </c>
@@ -8128,19 +8370,20 @@
       <c r="E182" s="7"/>
       <c r="F182" s="19"/>
       <c r="G182" s="18"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="24"/>
-      <c r="J182" s="3">
+      <c r="H182" s="18"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="24"/>
+      <c r="K182" s="3">
         <v>-44220</v>
       </c>
-      <c r="K182" s="16"/>
-      <c r="L182" s="3" t="str">
+      <c r="L182" s="16"/>
+      <c r="M182" s="3" t="str">
         <f>TEXT(F182,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M182" s="3"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N182" s="3"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>179</v>
       </c>
@@ -8160,22 +8403,23 @@
       <c r="G183" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="H183" s="11"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3">
+      <c r="H183" s="37"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3">
         <v>84</v>
       </c>
-      <c r="K183" s="16">
+      <c r="L183" s="16">
         <f t="shared" si="2"/>
         <v>45397</v>
       </c>
-      <c r="L183" s="3" t="str">
+      <c r="M183" s="3" t="str">
         <f>TEXT(F183,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M183" s="3"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N183" s="3"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>179.5</v>
       </c>
@@ -8195,22 +8439,23 @@
       <c r="G184" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="H184" s="3"/>
+      <c r="H184" s="18"/>
       <c r="I184" s="3"/>
-      <c r="J184" s="3">
+      <c r="J184" s="3"/>
+      <c r="K184" s="3">
         <v>84</v>
       </c>
-      <c r="K184" s="16">
+      <c r="L184" s="16">
         <f t="shared" si="2"/>
         <v>45397</v>
       </c>
-      <c r="L184" s="3" t="str">
+      <c r="M184" s="3" t="str">
         <f>TEXT(F184,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M184" s="3"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N184" s="3"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>180</v>
       </c>
@@ -8230,22 +8475,23 @@
       <c r="G185" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="H185" s="3"/>
+      <c r="H185" s="18"/>
       <c r="I185" s="3"/>
-      <c r="J185" s="3">
+      <c r="J185" s="3"/>
+      <c r="K185" s="3">
         <v>84</v>
       </c>
-      <c r="K185" s="16">
+      <c r="L185" s="16">
         <f t="shared" si="2"/>
         <v>45397</v>
       </c>
-      <c r="L185" s="3" t="str">
+      <c r="M185" s="3" t="str">
         <f>TEXT(F185,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M185" s="3"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N185" s="3"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>180.5</v>
       </c>
@@ -8265,22 +8511,23 @@
       <c r="G186" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H186" s="3"/>
+      <c r="H186" s="18"/>
       <c r="I186" s="3"/>
-      <c r="J186" s="3">
+      <c r="J186" s="3"/>
+      <c r="K186" s="3">
         <v>86</v>
       </c>
-      <c r="K186" s="16">
+      <c r="L186" s="16">
         <f t="shared" si="2"/>
         <v>45399</v>
       </c>
-      <c r="L186" s="3" t="str">
+      <c r="M186" s="3" t="str">
         <f>TEXT(F186,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M186" s="3"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N186" s="3"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>182</v>
       </c>
@@ -8300,22 +8547,23 @@
       <c r="G187" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="H187" s="3"/>
+      <c r="H187" s="18"/>
       <c r="I187" s="3"/>
-      <c r="J187" s="3">
+      <c r="J187" s="3"/>
+      <c r="K187" s="3">
         <v>86</v>
       </c>
-      <c r="K187" s="16">
+      <c r="L187" s="16">
         <f t="shared" si="2"/>
         <v>45399</v>
       </c>
-      <c r="L187" s="3" t="str">
+      <c r="M187" s="3" t="str">
         <f>TEXT(F187,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M187" s="3"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N187" s="3"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>182.5</v>
       </c>
@@ -8335,22 +8583,23 @@
       <c r="G188" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H188" s="3"/>
+      <c r="H188" s="38"/>
       <c r="I188" s="3"/>
-      <c r="J188" s="3">
+      <c r="J188" s="3"/>
+      <c r="K188" s="3">
         <v>88</v>
       </c>
-      <c r="K188" s="16">
+      <c r="L188" s="16">
         <f t="shared" si="2"/>
         <v>45401</v>
       </c>
-      <c r="L188" s="3" t="str">
+      <c r="M188" s="3" t="str">
         <f>TEXT(F188,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M188" s="3"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N188" s="3"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>185</v>
       </c>
@@ -8366,19 +8615,20 @@
       <c r="E189" s="7"/>
       <c r="F189" s="19"/>
       <c r="G189" s="18"/>
-      <c r="H189" s="3"/>
+      <c r="H189" s="18"/>
       <c r="I189" s="3"/>
-      <c r="J189" s="3">
+      <c r="J189" s="3"/>
+      <c r="K189" s="3">
         <v>-44228</v>
       </c>
-      <c r="K189" s="16"/>
-      <c r="L189" s="3" t="str">
+      <c r="L189" s="16"/>
+      <c r="M189" s="3" t="str">
         <f>TEXT(F189,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M189" s="3"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N189" s="3"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>186</v>
       </c>
@@ -8394,19 +8644,20 @@
       <c r="E190" s="7"/>
       <c r="F190" s="19"/>
       <c r="G190" s="18"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="24"/>
-      <c r="J190" s="3">
+      <c r="H190" s="18"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="24"/>
+      <c r="K190" s="3">
         <v>-44228</v>
       </c>
-      <c r="K190" s="16"/>
-      <c r="L190" s="3" t="str">
+      <c r="L190" s="16"/>
+      <c r="M190" s="3" t="str">
         <f>TEXT(F190,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M190" s="3"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N190" s="3"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>187</v>
       </c>
@@ -8426,22 +8677,23 @@
       <c r="G191" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="H191" s="3"/>
-      <c r="I191" s="24"/>
-      <c r="J191" s="3">
+      <c r="H191" s="38"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="24"/>
+      <c r="K191" s="3">
         <v>90</v>
       </c>
-      <c r="K191" s="16">
+      <c r="L191" s="16">
         <f t="shared" si="2"/>
         <v>45403</v>
       </c>
-      <c r="L191" s="3" t="str">
+      <c r="M191" s="3" t="str">
         <f>TEXT(F191,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="M191" s="3"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N191" s="3"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>188</v>
       </c>
@@ -8461,22 +8713,23 @@
       <c r="G192" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="H192" s="3"/>
-      <c r="I192" s="24"/>
-      <c r="J192" s="3">
+      <c r="H192" s="37"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="24"/>
+      <c r="K192" s="3">
         <v>90</v>
       </c>
-      <c r="K192" s="16">
+      <c r="L192" s="16">
         <f t="shared" si="2"/>
         <v>45403</v>
       </c>
-      <c r="L192" s="3" t="str">
+      <c r="M192" s="3" t="str">
         <f>TEXT(F192,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="M192" s="3"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N192" s="3"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>189</v>
       </c>
@@ -8496,22 +8749,23 @@
       <c r="G193" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="H193" s="3"/>
-      <c r="I193" s="24"/>
-      <c r="J193" s="3">
+      <c r="H193" s="37"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="24"/>
+      <c r="K193" s="3">
         <v>90</v>
       </c>
-      <c r="K193" s="16">
+      <c r="L193" s="16">
         <f t="shared" si="2"/>
         <v>45403</v>
       </c>
-      <c r="L193" s="3" t="str">
+      <c r="M193" s="3" t="str">
         <f>TEXT(F193,"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="M193" s="3"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N193" s="3"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>190</v>
       </c>
@@ -8531,22 +8785,23 @@
       <c r="G194" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="H194" s="3"/>
+      <c r="H194" s="18"/>
       <c r="I194" s="3"/>
-      <c r="J194" s="3">
+      <c r="J194" s="3"/>
+      <c r="K194" s="3">
         <v>91</v>
       </c>
-      <c r="K194" s="16">
+      <c r="L194" s="16">
         <f t="shared" si="2"/>
         <v>45404</v>
       </c>
-      <c r="L194" s="3" t="str">
+      <c r="M194" s="3" t="str">
         <f>TEXT(F194,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M194" s="3"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N194" s="3"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>191</v>
       </c>
@@ -8560,19 +8815,20 @@
       <c r="E195" s="7"/>
       <c r="F195" s="19"/>
       <c r="G195" s="18"/>
-      <c r="H195" s="3"/>
+      <c r="H195" s="18"/>
       <c r="I195" s="3"/>
-      <c r="J195" s="3">
+      <c r="J195" s="3"/>
+      <c r="K195" s="3">
         <v>-44228</v>
       </c>
-      <c r="K195" s="16"/>
-      <c r="L195" s="3" t="str">
+      <c r="L195" s="16"/>
+      <c r="M195" s="3" t="str">
         <f>TEXT(F195,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M195" s="3"/>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N195" s="3"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>192</v>
       </c>
@@ -8592,22 +8848,23 @@
       <c r="G196" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="H196" s="3"/>
+      <c r="H196" s="38"/>
       <c r="I196" s="3"/>
-      <c r="J196" s="3">
+      <c r="J196" s="3"/>
+      <c r="K196" s="3">
         <v>92</v>
       </c>
-      <c r="K196" s="16">
-        <f t="shared" ref="K196:K207" si="4">$F$13+J196</f>
+      <c r="L196" s="16">
+        <f t="shared" ref="L196:L207" si="4">$F$13+K196</f>
         <v>45405</v>
       </c>
-      <c r="L196" s="3" t="str">
+      <c r="M196" s="3" t="str">
         <f>TEXT(F196,"ddd")</f>
         <v>Tue</v>
       </c>
-      <c r="M196" s="3"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N196" s="3"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>194</v>
       </c>
@@ -8627,22 +8884,23 @@
       <c r="G197" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="H197" s="3"/>
+      <c r="H197" s="18"/>
       <c r="I197" s="3"/>
-      <c r="J197" s="3">
+      <c r="J197" s="3"/>
+      <c r="K197" s="3">
         <v>93</v>
       </c>
-      <c r="K197" s="16">
+      <c r="L197" s="16">
         <f t="shared" si="4"/>
         <v>45406</v>
       </c>
-      <c r="L197" s="3" t="str">
+      <c r="M197" s="3" t="str">
         <f>TEXT(F197,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="M197" s="3"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N197" s="3"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>194.5</v>
       </c>
@@ -8662,22 +8920,23 @@
       <c r="G198" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="H198" s="3"/>
+      <c r="H198" s="42"/>
       <c r="I198" s="3"/>
-      <c r="J198" s="3">
+      <c r="J198" s="3"/>
+      <c r="K198" s="3">
         <v>95</v>
       </c>
-      <c r="K198" s="16">
-        <f>$F$13+J198</f>
+      <c r="L198" s="16">
+        <f>$F$13+K198</f>
         <v>45408</v>
       </c>
-      <c r="L198" s="3" t="str">
+      <c r="M198" s="3" t="str">
         <f>TEXT(F198,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M198" s="3"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N198" s="3"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>195</v>
       </c>
@@ -8693,19 +8952,20 @@
       <c r="E199" s="7"/>
       <c r="F199" s="19"/>
       <c r="G199" s="18"/>
-      <c r="H199" s="3"/>
+      <c r="H199" s="18"/>
       <c r="I199" s="3"/>
-      <c r="J199" s="3">
+      <c r="J199" s="3"/>
+      <c r="K199" s="3">
         <v>-44228</v>
       </c>
-      <c r="K199" s="16"/>
-      <c r="L199" s="3" t="str">
+      <c r="L199" s="16"/>
+      <c r="M199" s="3" t="str">
         <f>TEXT(F199,"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="M199" s="3"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N199" s="3"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>195.5</v>
       </c>
@@ -8721,14 +8981,15 @@
       <c r="E200" s="7"/>
       <c r="F200" s="19"/>
       <c r="G200" s="18"/>
-      <c r="H200" s="3"/>
+      <c r="H200" s="18"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="16"/>
-      <c r="L200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="16"/>
       <c r="M200" s="3"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N200" s="3"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>196</v>
       </c>
@@ -8748,22 +9009,23 @@
       <c r="G201" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="H201" s="3"/>
+      <c r="H201" s="18"/>
       <c r="I201" s="3"/>
-      <c r="J201" s="3">
+      <c r="J201" s="3"/>
+      <c r="K201" s="3">
         <v>98</v>
       </c>
-      <c r="K201" s="16">
+      <c r="L201" s="16">
         <f t="shared" si="4"/>
         <v>45411</v>
       </c>
-      <c r="L201" s="3" t="str">
-        <f t="shared" ref="L201:L207" si="5">TEXT(F201,"ddd")</f>
+      <c r="M201" s="3" t="str">
+        <f t="shared" ref="M201:M207" si="5">TEXT(F201,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="M201" s="3"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N201" s="3"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>198</v>
       </c>
@@ -8783,22 +9045,23 @@
       <c r="G202" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="H202" s="11"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3">
+      <c r="H202" s="38"/>
+      <c r="I202" s="11"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3">
         <v>98</v>
       </c>
-      <c r="K202" s="16">
+      <c r="L202" s="16">
         <f t="shared" si="4"/>
         <v>45411</v>
       </c>
-      <c r="L202" s="3" t="str">
+      <c r="M202" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
-      <c r="M202" s="3"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N202" s="3"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>198</v>
       </c>
@@ -8818,22 +9081,23 @@
       <c r="G203" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="H203" s="11"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3">
+      <c r="H203" s="38"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3">
         <v>98</v>
       </c>
-      <c r="K203" s="16">
+      <c r="L203" s="16">
         <f t="shared" si="4"/>
         <v>45411</v>
       </c>
-      <c r="L203" s="3" t="str">
+      <c r="M203" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
-      <c r="M203" s="3"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N203" s="3"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>199</v>
       </c>
@@ -8853,24 +9117,25 @@
       <c r="G204" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3" t="s">
+      <c r="H204" s="18"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J204" s="3">
+      <c r="K204" s="3">
         <v>100</v>
       </c>
-      <c r="K204" s="16">
+      <c r="L204" s="16">
         <f t="shared" si="4"/>
         <v>45413</v>
       </c>
-      <c r="L204" s="3" t="str">
+      <c r="M204" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
-      <c r="M204" s="3"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N204" s="3"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>200</v>
       </c>
@@ -8890,22 +9155,23 @@
       <c r="G205" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="H205" s="3"/>
+      <c r="H205" s="38"/>
       <c r="I205" s="3"/>
-      <c r="J205" s="3">
+      <c r="J205" s="3"/>
+      <c r="K205" s="3">
         <v>100</v>
       </c>
-      <c r="K205" s="16">
+      <c r="L205" s="16">
         <f t="shared" si="4"/>
         <v>45413</v>
       </c>
-      <c r="L205" s="3" t="str">
+      <c r="M205" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
-      <c r="M205" s="3"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N205" s="3"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>201</v>
       </c>
@@ -8925,22 +9191,23 @@
       <c r="G206" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="H206" s="3"/>
+      <c r="H206" s="38"/>
       <c r="I206" s="3"/>
-      <c r="J206" s="3">
+      <c r="J206" s="3"/>
+      <c r="K206" s="3">
         <v>100</v>
       </c>
-      <c r="K206" s="16">
+      <c r="L206" s="16">
         <f t="shared" si="4"/>
         <v>45413</v>
       </c>
-      <c r="L206" s="3" t="str">
+      <c r="M206" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
-      <c r="M206" s="3"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N206" s="3"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>202</v>
       </c>
@@ -8960,22 +9227,23 @@
       <c r="G207" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="H207" s="3"/>
+      <c r="H207" s="38"/>
       <c r="I207" s="3"/>
-      <c r="J207" s="3">
+      <c r="J207" s="3"/>
+      <c r="K207" s="3">
         <v>102</v>
       </c>
-      <c r="K207" s="16">
+      <c r="L207" s="16">
         <f t="shared" si="4"/>
         <v>45415</v>
       </c>
-      <c r="L207" s="3" t="str">
+      <c r="M207" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Fri</v>
       </c>
-      <c r="M207" s="3"/>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N207" s="3"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>204</v>
       </c>
@@ -8989,14 +9257,15 @@
       <c r="E208" s="2"/>
       <c r="F208" s="33"/>
       <c r="G208" s="18"/>
-      <c r="H208" s="3"/>
+      <c r="H208" s="18"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="16"/>
+      <c r="K208" s="3"/>
       <c r="L208" s="16"/>
-      <c r="M208" s="3"/>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M208" s="16"/>
+      <c r="N208" s="3"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>206</v>
       </c>
@@ -9016,16 +9285,17 @@
       <c r="G209" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H209" s="14" t="s">
+      <c r="H209" s="18"/>
+      <c r="I209" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="16"/>
+      <c r="K209" s="3"/>
       <c r="L209" s="16"/>
-      <c r="M209" s="3"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M209" s="16"/>
+      <c r="N209" s="3"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>207</v>
       </c>
@@ -9035,14 +9305,15 @@
       <c r="E210" s="2"/>
       <c r="F210" s="33"/>
       <c r="G210" s="18"/>
-      <c r="H210" s="3"/>
+      <c r="H210" s="18"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="16"/>
+      <c r="K210" s="3"/>
       <c r="L210" s="16"/>
-      <c r="M210" s="3"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M210" s="16"/>
+      <c r="N210" s="3"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>208</v>
       </c>
@@ -9052,12 +9323,13 @@
       <c r="E211" s="2"/>
       <c r="F211" s="33"/>
       <c r="G211" s="18"/>
-      <c r="H211" s="3"/>
+      <c r="H211" s="18"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="16"/>
+      <c r="K211" s="3"/>
       <c r="L211" s="16"/>
-      <c r="M211" s="3"/>
+      <c r="M211" s="16"/>
+      <c r="N211" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C8 C103:C106 C57 C59:C61 C63:C65 C67 C130 C125 C127:C128 C151 C132:C140 C117:C119 C153 C204 C13:C15 C69:C70 C79:C81 C169:C172 C179:C182 C185 C201 C194:C198 C175 C177 C187:C188 C17:C21 C26:C41 C148 C160:C163 C44:C53">
@@ -9800,15 +10072,15 @@
     <hyperlink ref="G21" r:id="rId1" xr:uid="{BB099E47-7FF5-41CE-AAF7-A77A8CFF3913}"/>
     <hyperlink ref="G13" r:id="rId2" xr:uid="{3AA9989C-9EEB-4718-A411-408DFFE8A965}"/>
     <hyperlink ref="G14" r:id="rId3" xr:uid="{1874924A-1AE9-41C0-9173-3489A9096F49}"/>
-    <hyperlink ref="G15" r:id="rId4" xr:uid="{FACE2ED2-97E0-440E-8529-7CC59DFCE43C}"/>
-    <hyperlink ref="G36" r:id="rId5" display="Chapter 2 (basic syntax) to 14 (modules)" xr:uid="{3255AB21-7541-4BF2-83F3-3E94C5712664}"/>
-    <hyperlink ref="G66" r:id="rId6" xr:uid="{6931D715-50E7-411F-909D-5849DD40C628}"/>
-    <hyperlink ref="G31" r:id="rId7" xr:uid="{4A294440-1502-4A36-9E24-43501A9B4B04}"/>
-    <hyperlink ref="G23" r:id="rId8" xr:uid="{3A343C54-588F-4EE4-A684-BEAC7E066F79}"/>
-    <hyperlink ref="G33" r:id="rId9" xr:uid="{74E0F602-4AD5-4DB2-94D9-EE31C0B1A8CC}"/>
-    <hyperlink ref="G112" r:id="rId10" xr:uid="{C8D7C107-7C07-41CA-A2CD-31DDAFF3FDF8}"/>
-    <hyperlink ref="G16" r:id="rId11" display="Once I accept you into the organization, go to the GitHub discussion board and:" xr:uid="{581D3263-F357-4CC0-8037-85ECE40E0165}"/>
-    <hyperlink ref="E141" r:id="rId12" xr:uid="{07E3D8FE-19F7-46BC-B625-DD8BCFA50F3C}"/>
+    <hyperlink ref="G36" r:id="rId4" display="Chapter 2 (basic syntax) to 14 (modules)" xr:uid="{3255AB21-7541-4BF2-83F3-3E94C5712664}"/>
+    <hyperlink ref="G66" r:id="rId5" xr:uid="{6931D715-50E7-411F-909D-5849DD40C628}"/>
+    <hyperlink ref="G31" r:id="rId6" xr:uid="{4A294440-1502-4A36-9E24-43501A9B4B04}"/>
+    <hyperlink ref="G23" r:id="rId7" xr:uid="{3A343C54-588F-4EE4-A684-BEAC7E066F79}"/>
+    <hyperlink ref="G33" r:id="rId8" xr:uid="{74E0F602-4AD5-4DB2-94D9-EE31C0B1A8CC}"/>
+    <hyperlink ref="G112" r:id="rId9" xr:uid="{C8D7C107-7C07-41CA-A2CD-31DDAFF3FDF8}"/>
+    <hyperlink ref="G16" r:id="rId10" display="Once I accept you into the organization, go to the GitHub discussion board and:" xr:uid="{581D3263-F357-4CC0-8037-85ECE40E0165}"/>
+    <hyperlink ref="E141" r:id="rId11" xr:uid="{07E3D8FE-19F7-46BC-B625-DD8BCFA50F3C}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{FACE2ED2-97E0-440E-8529-7CC59DFCE43C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>

--- a/content/about/Schedule.xlsx
+++ b/content/about/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2024\content\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8422C3-DCE4-4C77-937E-8AC64A382373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981111FC-5609-4E89-8FE5-C42DA53A593C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
   </bookViews>
@@ -846,21 +846,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="184">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="182">
     <dxf>
       <fill>
         <patternFill>
@@ -2467,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF092B6-1F8C-4FD2-8E57-195959BA7874}">
   <dimension ref="A1:N211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="H159" sqref="H159"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7512,7 +7498,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>158.1</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="B157" s="1">
         <v>4</v>
@@ -7520,17 +7506,17 @@
       <c r="C157" s="1">
         <v>10</v>
       </c>
-      <c r="D157" s="20" t="s">
-        <v>33</v>
+      <c r="D157" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E157" s="3"/>
-      <c r="F157" s="29">
+      <c r="F157" s="21">
         <v>45375</v>
       </c>
-      <c r="G157" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="H157" s="38"/>
+      <c r="G157" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H157" s="37"/>
       <c r="I157" s="11"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3">
@@ -7548,7 +7534,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>158.19999999999999</v>
+        <v>159</v>
       </c>
       <c r="B158" s="1">
         <v>4</v>
@@ -7556,35 +7542,35 @@
       <c r="C158" s="1">
         <v>10</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E158" s="3"/>
-      <c r="F158" s="21">
-        <v>45375</v>
-      </c>
-      <c r="G158" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="H158" s="37"/>
-      <c r="I158" s="11"/>
+      <c r="D158" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="7"/>
+      <c r="F158" s="19">
+        <v>45376</v>
+      </c>
+      <c r="G158" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H158" s="17"/>
+      <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L158" s="16">
-        <f>$F$13+K158</f>
-        <v>45375</v>
+        <f t="shared" si="2"/>
+        <v>45376</v>
       </c>
       <c r="M158" s="3" t="str">
         <f>TEXT(F158,"ddd")</f>
-        <v>Sun</v>
+        <v>Mon</v>
       </c>
       <c r="N158" s="3"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B159" s="1">
         <v>4</v>
@@ -7592,19 +7578,19 @@
       <c r="C159" s="1">
         <v>10</v>
       </c>
-      <c r="D159" s="12" t="s">
-        <v>14</v>
+      <c r="D159" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E159" s="7"/>
       <c r="F159" s="19">
         <v>45376</v>
       </c>
       <c r="G159" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H159" s="17"/>
+        <v>120</v>
+      </c>
+      <c r="H159" s="18"/>
       <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
+      <c r="J159" s="24"/>
       <c r="K159" s="3">
         <v>63</v>
       </c>
@@ -7620,7 +7606,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>160</v>
+        <v>160.1</v>
       </c>
       <c r="B160" s="1">
         <v>4</v>
@@ -7628,29 +7614,29 @@
       <c r="C160" s="1">
         <v>10</v>
       </c>
-      <c r="D160" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160" s="7"/>
-      <c r="F160" s="19">
-        <v>45376</v>
-      </c>
-      <c r="G160" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="H160" s="18"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="24"/>
+      <c r="D160" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E160" s="3"/>
+      <c r="F160" s="29">
+        <v>45377</v>
+      </c>
+      <c r="G160" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H160" s="38"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="3"/>
       <c r="K160" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L160" s="16">
-        <f t="shared" si="2"/>
-        <v>45376</v>
+        <f>$F$13+K160</f>
+        <v>45375</v>
       </c>
       <c r="M160" s="3" t="str">
         <f>TEXT(F160,"ddd")</f>
-        <v>Mon</v>
+        <v>Tue</v>
       </c>
       <c r="N160" s="3"/>
     </row>
@@ -9332,396 +9318,388 @@
       <c r="N211" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C8 C103:C106 C57 C59:C61 C63:C65 C67 C130 C125 C127:C128 C151 C132:C140 C117:C119 C153 C204 C13:C15 C69:C70 C79:C81 C169:C172 C179:C182 C185 C201 C194:C198 C175 C177 C187:C188 C17:C21 C26:C41 C148 C160:C163 C44:C53">
-    <cfRule type="expression" dxfId="183" priority="187">
+  <conditionalFormatting sqref="C3:C8 C103:C106 C57 C59:C61 C63:C65 C67 C130 C125 C127:C128 C151 C132:C140 C117:C119 C153 C204 C13:C15 C69:C70 C79:C81 C169:C172 C179:C182 C185 C201 C194:C198 C175 C177 C187:C188 C17:C21 C26:C41 C148 C44:C53 C156:C157 C159:C163">
+    <cfRule type="expression" dxfId="181" priority="187">
       <formula>ISEVEN(C3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="188">
+    <cfRule type="expression" dxfId="180" priority="188">
       <formula>ISODD(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="181" priority="185">
+    <cfRule type="expression" dxfId="179" priority="185">
       <formula>ISEVEN(C9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="186">
+    <cfRule type="expression" dxfId="178" priority="186">
       <formula>ISODD(C9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="179" priority="183">
+    <cfRule type="expression" dxfId="177" priority="183">
       <formula>ISEVEN(C54)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="184">
+    <cfRule type="expression" dxfId="176" priority="184">
       <formula>ISODD(C54)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="177" priority="181">
+    <cfRule type="expression" dxfId="175" priority="181">
       <formula>ISEVEN(C55)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="182">
+    <cfRule type="expression" dxfId="174" priority="182">
       <formula>ISODD(C55)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="expression" dxfId="175" priority="177">
+    <cfRule type="expression" dxfId="173" priority="177">
       <formula>ISEVEN(C107)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="178">
+    <cfRule type="expression" dxfId="172" priority="178">
       <formula>ISODD(C107)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="expression" dxfId="173" priority="175">
+    <cfRule type="expression" dxfId="171" priority="175">
       <formula>ISEVEN(C108)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="176">
+    <cfRule type="expression" dxfId="170" priority="176">
       <formula>ISODD(C108)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:C112 C114:C115">
-    <cfRule type="expression" dxfId="171" priority="171">
+    <cfRule type="expression" dxfId="169" priority="171">
       <formula>ISEVEN(C111)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="172">
+    <cfRule type="expression" dxfId="168" priority="172">
       <formula>ISODD(C111)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109:C110 C119 C113 C116">
-    <cfRule type="expression" dxfId="169" priority="173">
+    <cfRule type="expression" dxfId="167" priority="173">
       <formula>ISEVEN(C109)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="174">
+    <cfRule type="expression" dxfId="166" priority="174">
       <formula>ISODD(C109)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C143">
-    <cfRule type="expression" dxfId="167" priority="167">
+    <cfRule type="expression" dxfId="165" priority="167">
       <formula>ISEVEN(C143)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="168">
+    <cfRule type="expression" dxfId="164" priority="168">
       <formula>ISODD(C143)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142">
-    <cfRule type="expression" dxfId="165" priority="169">
+    <cfRule type="expression" dxfId="163" priority="169">
       <formula>ISEVEN(C142)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="170">
+    <cfRule type="expression" dxfId="162" priority="170">
       <formula>ISODD(C142)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="163" priority="163">
+    <cfRule type="expression" dxfId="161" priority="163">
       <formula>ISEVEN(C10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="164">
+    <cfRule type="expression" dxfId="160" priority="164">
       <formula>ISODD(C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="161" priority="161">
+    <cfRule type="expression" dxfId="159" priority="161">
       <formula>ISEVEN(C24)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="162">
+    <cfRule type="expression" dxfId="158" priority="162">
       <formula>ISODD(C24)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="159" priority="159">
+    <cfRule type="expression" dxfId="157" priority="159">
       <formula>ISEVEN(C25)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="160">
+    <cfRule type="expression" dxfId="156" priority="160">
       <formula>ISODD(C25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="157" priority="157">
+    <cfRule type="expression" dxfId="155" priority="157">
       <formula>ISEVEN(C42)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="158">
+    <cfRule type="expression" dxfId="154" priority="158">
       <formula>ISODD(C42)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="155" priority="155">
+    <cfRule type="expression" dxfId="153" priority="155">
       <formula>ISEVEN(C43)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="156">
+    <cfRule type="expression" dxfId="152" priority="156">
       <formula>ISODD(C43)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80 C82 C85">
-    <cfRule type="expression" dxfId="153" priority="153">
+    <cfRule type="expression" dxfId="151" priority="153">
       <formula>ISEVEN(C80)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="154">
+    <cfRule type="expression" dxfId="150" priority="154">
       <formula>ISODD(C80)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72 C74 C77:C81 C83">
-    <cfRule type="expression" dxfId="151" priority="151">
+    <cfRule type="expression" dxfId="149" priority="151">
       <formula>ISEVEN(C72)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="152">
+    <cfRule type="expression" dxfId="148" priority="152">
       <formula>ISODD(C72)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73 C75 C78 C84">
-    <cfRule type="expression" dxfId="149" priority="149">
+    <cfRule type="expression" dxfId="147" priority="149">
       <formula>ISEVEN(C73)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="150">
+    <cfRule type="expression" dxfId="146" priority="150">
       <formula>ISODD(C73)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81 C76 C86">
-    <cfRule type="expression" dxfId="147" priority="147">
+    <cfRule type="expression" dxfId="145" priority="147">
       <formula>ISEVEN(C76)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="148">
+    <cfRule type="expression" dxfId="144" priority="148">
       <formula>ISODD(C76)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90 C92 C94 C96 C98 C118:C119">
-    <cfRule type="expression" dxfId="145" priority="145">
+    <cfRule type="expression" dxfId="143" priority="145">
       <formula>ISEVEN(C90)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="146">
+    <cfRule type="expression" dxfId="142" priority="146">
       <formula>ISODD(C90)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="143" priority="143">
+    <cfRule type="expression" dxfId="141" priority="143">
       <formula>ISEVEN(C88)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="144">
+    <cfRule type="expression" dxfId="140" priority="144">
       <formula>ISODD(C88)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="expression" dxfId="141" priority="141">
+    <cfRule type="expression" dxfId="139" priority="141">
       <formula>ISEVEN(C89)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="142">
+    <cfRule type="expression" dxfId="138" priority="142">
       <formula>ISODD(C89)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91 C93 C95 C97 C99">
-    <cfRule type="expression" dxfId="139" priority="139">
+    <cfRule type="expression" dxfId="137" priority="139">
       <formula>ISEVEN(C91)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="140">
+    <cfRule type="expression" dxfId="136" priority="140">
       <formula>ISODD(C91)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="expression" dxfId="137" priority="137">
+    <cfRule type="expression" dxfId="135" priority="137">
       <formula>ISEVEN(C100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="138">
+    <cfRule type="expression" dxfId="134" priority="138">
       <formula>ISODD(C100)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="135" priority="135">
+    <cfRule type="expression" dxfId="133" priority="135">
       <formula>ISEVEN(C71)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="136">
+    <cfRule type="expression" dxfId="132" priority="136">
       <formula>ISODD(C71)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="133" priority="133">
+    <cfRule type="expression" dxfId="131" priority="133">
       <formula>ISEVEN(C87)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="134">
+    <cfRule type="expression" dxfId="130" priority="134">
       <formula>ISODD(C87)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="131" priority="131">
+    <cfRule type="expression" dxfId="129" priority="131">
       <formula>ISEVEN(C58)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="132">
+    <cfRule type="expression" dxfId="128" priority="132">
       <formula>ISODD(C58)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="129" priority="129">
+    <cfRule type="expression" dxfId="127" priority="129">
       <formula>ISEVEN(C62)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="130">
+    <cfRule type="expression" dxfId="126" priority="130">
       <formula>ISODD(C62)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="127" priority="127">
+    <cfRule type="expression" dxfId="125" priority="127">
       <formula>ISEVEN(C68)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="128">
+    <cfRule type="expression" dxfId="124" priority="128">
       <formula>ISODD(C68)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="125" priority="125">
+    <cfRule type="expression" dxfId="123" priority="125">
       <formula>ISEVEN(C66)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="126">
+    <cfRule type="expression" dxfId="122" priority="126">
       <formula>ISODD(C66)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="expression" dxfId="123" priority="123">
+    <cfRule type="expression" dxfId="121" priority="123">
       <formula>ISEVEN(C153)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="124">
+    <cfRule type="expression" dxfId="120" priority="124">
       <formula>ISODD(C153)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="expression" dxfId="121" priority="121">
+    <cfRule type="expression" dxfId="119" priority="121">
       <formula>ISEVEN(C101)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="122">
+    <cfRule type="expression" dxfId="118" priority="122">
       <formula>ISODD(C101)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="119" priority="119">
+    <cfRule type="expression" dxfId="117" priority="119">
       <formula>ISEVEN(C102)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="120">
+    <cfRule type="expression" dxfId="116" priority="120">
       <formula>ISODD(C102)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="expression" dxfId="117" priority="117">
+    <cfRule type="expression" dxfId="115" priority="117">
       <formula>ISEVEN(C124)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="118">
+    <cfRule type="expression" dxfId="114" priority="118">
       <formula>ISODD(C124)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129">
-    <cfRule type="expression" dxfId="115" priority="115">
+    <cfRule type="expression" dxfId="113" priority="115">
       <formula>ISEVEN(C129)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="116">
+    <cfRule type="expression" dxfId="112" priority="116">
       <formula>ISODD(C129)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C126">
-    <cfRule type="expression" dxfId="113" priority="113">
+    <cfRule type="expression" dxfId="111" priority="113">
       <formula>ISEVEN(C126)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="114">
+    <cfRule type="expression" dxfId="110" priority="114">
       <formula>ISODD(C126)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="expression" dxfId="111" priority="111">
+    <cfRule type="expression" dxfId="109" priority="111">
       <formula>ISEVEN(C121)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="112">
+    <cfRule type="expression" dxfId="108" priority="112">
       <formula>ISODD(C121)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="expression" dxfId="109" priority="109">
+    <cfRule type="expression" dxfId="107" priority="109">
       <formula>ISEVEN(C122)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="110">
+    <cfRule type="expression" dxfId="106" priority="110">
       <formula>ISODD(C122)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C123">
-    <cfRule type="expression" dxfId="107" priority="107">
+    <cfRule type="expression" dxfId="105" priority="107">
       <formula>ISEVEN(C123)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="108">
+    <cfRule type="expression" dxfId="104" priority="108">
       <formula>ISODD(C123)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="expression" dxfId="105" priority="105">
+    <cfRule type="expression" dxfId="103" priority="105">
       <formula>ISEVEN(C131)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="106">
+    <cfRule type="expression" dxfId="102" priority="106">
       <formula>ISODD(C131)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167">
-    <cfRule type="expression" dxfId="103" priority="103">
+    <cfRule type="expression" dxfId="101" priority="103">
       <formula>ISEVEN(C167)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="104">
+    <cfRule type="expression" dxfId="100" priority="104">
       <formula>ISODD(C167)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C190 C188">
-    <cfRule type="expression" dxfId="101" priority="101">
+    <cfRule type="expression" dxfId="99" priority="101">
       <formula>ISEVEN(C188)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="102">
+    <cfRule type="expression" dxfId="98" priority="102">
       <formula>ISODD(C188)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145">
-    <cfRule type="expression" dxfId="99" priority="97">
+    <cfRule type="expression" dxfId="97" priority="97">
       <formula>ISEVEN(C145)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="98">
+    <cfRule type="expression" dxfId="96" priority="98">
       <formula>ISODD(C145)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C144">
-    <cfRule type="expression" dxfId="97" priority="99">
+    <cfRule type="expression" dxfId="95" priority="99">
       <formula>ISEVEN(C144)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="100">
+    <cfRule type="expression" dxfId="94" priority="100">
       <formula>ISODD(C144)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
-    <cfRule type="expression" dxfId="95" priority="89">
+    <cfRule type="expression" dxfId="93" priority="89">
       <formula>ISEVEN(C149)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="90">
+    <cfRule type="expression" dxfId="92" priority="90">
       <formula>ISODD(C149)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="expression" dxfId="93" priority="95">
+    <cfRule type="expression" dxfId="91" priority="95">
       <formula>ISEVEN(C153)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="96">
+    <cfRule type="expression" dxfId="90" priority="96">
       <formula>ISODD(C153)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146">
-    <cfRule type="expression" dxfId="91" priority="93">
+    <cfRule type="expression" dxfId="89" priority="93">
       <formula>ISEVEN(C146)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="94">
+    <cfRule type="expression" dxfId="88" priority="94">
       <formula>ISODD(C146)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141">
-    <cfRule type="expression" dxfId="89" priority="91">
+    <cfRule type="expression" dxfId="87" priority="91">
       <formula>ISEVEN(C141)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="92">
+    <cfRule type="expression" dxfId="86" priority="92">
       <formula>ISODD(C141)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:C158">
-    <cfRule type="expression" dxfId="87" priority="87">
-      <formula>ISEVEN(C156)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="88">
-      <formula>ISODD(C156)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
@@ -9788,28 +9766,28 @@
       <formula>ISODD(C152)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
+  <conditionalFormatting sqref="C160">
     <cfRule type="expression" dxfId="69" priority="69">
-      <formula>ISEVEN(C157)</formula>
+      <formula>ISEVEN(C160)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="68" priority="70">
-      <formula>ISODD(C157)</formula>
+      <formula>ISODD(C160)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
+  <conditionalFormatting sqref="C160">
     <cfRule type="expression" dxfId="67" priority="65">
-      <formula>ISEVEN(C157)</formula>
+      <formula>ISEVEN(C160)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="66" priority="66">
-      <formula>ISODD(C157)</formula>
+      <formula>ISODD(C160)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
+  <conditionalFormatting sqref="C160">
     <cfRule type="expression" dxfId="65" priority="67">
-      <formula>ISEVEN(C157)</formula>
+      <formula>ISEVEN(C160)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="64" priority="68">
-      <formula>ISODD(C157)</formula>
+      <formula>ISODD(C160)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150">
@@ -9836,28 +9814,28 @@
       <formula>ISODD(C163)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
+  <conditionalFormatting sqref="C157">
     <cfRule type="expression" dxfId="57" priority="57">
-      <formula>ISEVEN(C158)</formula>
+      <formula>ISEVEN(C157)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="56" priority="58">
-      <formula>ISODD(C158)</formula>
+      <formula>ISODD(C157)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
+  <conditionalFormatting sqref="C157">
     <cfRule type="expression" dxfId="55" priority="55">
-      <formula>ISEVEN(C158)</formula>
+      <formula>ISEVEN(C157)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="54" priority="56">
-      <formula>ISODD(C158)</formula>
+      <formula>ISODD(C157)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
+  <conditionalFormatting sqref="C157">
     <cfRule type="expression" dxfId="53" priority="53">
-      <formula>ISEVEN(C158)</formula>
+      <formula>ISEVEN(C157)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="52" priority="54">
-      <formula>ISODD(C158)</formula>
+      <formula>ISODD(C157)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C183">
@@ -9884,12 +9862,12 @@
       <formula>ISODD(C147)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
+  <conditionalFormatting sqref="C158">
     <cfRule type="expression" dxfId="45" priority="45">
-      <formula>ISEVEN(C159)</formula>
+      <formula>ISEVEN(C158)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="44" priority="46">
-      <formula>ISODD(C159)</formula>
+      <formula>ISODD(C158)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C188">

--- a/content/about/Schedule.xlsx
+++ b/content/about/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2024\content\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981111FC-5609-4E89-8FE5-C42DA53A593C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01189244-0FBC-4BB8-BE2D-1081621A24FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
   </bookViews>
@@ -846,7 +846,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="182">
+  <dxfs count="56">
     <dxf>
       <fill>
         <patternFill>
@@ -1144,13 +1144,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1201,881 +1194,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2453,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF092B6-1F8C-4FD2-8E57-195959BA7874}">
   <dimension ref="A1:N211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2836,7 +1954,7 @@
         <v>45313</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f>TEXT(F14,"ddd")</f>
+        <f t="shared" ref="M14:M25" si="0">TEXT(F14,"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="N14" s="3"/>
@@ -2872,11 +1990,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" ref="L15:L70" si="0">$F$13+K15</f>
+        <f t="shared" ref="L15:L70" si="1">$F$13+K15</f>
         <v>45313</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f>TEXT(F15,"ddd")</f>
+        <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
       <c r="N15" s="3"/>
@@ -2912,11 +2030,11 @@
         <v>1</v>
       </c>
       <c r="L16" s="16">
+        <f t="shared" si="1"/>
+        <v>45314</v>
+      </c>
+      <c r="M16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45314</v>
-      </c>
-      <c r="M16" s="3" t="str">
-        <f>TEXT(F16,"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="N16" s="3"/>
@@ -2942,11 +2060,11 @@
         <v>1</v>
       </c>
       <c r="L17" s="16">
+        <f t="shared" si="1"/>
+        <v>45314</v>
+      </c>
+      <c r="M17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45314</v>
-      </c>
-      <c r="M17" s="3" t="str">
-        <f>TEXT(F17,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="N17" s="3"/>
@@ -2972,11 +2090,11 @@
         <v>1</v>
       </c>
       <c r="L18" s="16">
+        <f t="shared" si="1"/>
+        <v>45314</v>
+      </c>
+      <c r="M18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45314</v>
-      </c>
-      <c r="M18" s="3" t="str">
-        <f>TEXT(F18,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="N18" s="3"/>
@@ -3008,11 +2126,11 @@
         <v>0</v>
       </c>
       <c r="L19" s="16">
+        <f t="shared" si="1"/>
+        <v>45313</v>
+      </c>
+      <c r="M19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45313</v>
-      </c>
-      <c r="M19" s="3" t="str">
-        <f>TEXT(F19,"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="N19" s="3"/>
@@ -3041,7 +2159,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="16"/>
       <c r="M20" s="3" t="str">
-        <f>TEXT(F20,"ddd")</f>
+        <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
       <c r="N20" s="3"/>
@@ -3077,11 +2195,11 @@
         <v>2</v>
       </c>
       <c r="L21" s="16">
+        <f t="shared" si="1"/>
+        <v>45315</v>
+      </c>
+      <c r="M21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45315</v>
-      </c>
-      <c r="M21" s="3" t="str">
-        <f>TEXT(F21,"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="N21" s="3"/>
@@ -3113,11 +2231,11 @@
         <v>2</v>
       </c>
       <c r="L22" s="16">
+        <f t="shared" si="1"/>
+        <v>45315</v>
+      </c>
+      <c r="M22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45315</v>
-      </c>
-      <c r="M22" s="3" t="str">
-        <f>TEXT(F22,"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="N22" s="3"/>
@@ -3153,11 +2271,11 @@
         <v>2</v>
       </c>
       <c r="L23" s="16">
+        <f t="shared" si="1"/>
+        <v>45315</v>
+      </c>
+      <c r="M23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45315</v>
-      </c>
-      <c r="M23" s="3" t="str">
-        <f>TEXT(F23,"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="N23" s="3"/>
@@ -3191,11 +2309,11 @@
         <v>2</v>
       </c>
       <c r="L24" s="16">
+        <f t="shared" si="1"/>
+        <v>45315</v>
+      </c>
+      <c r="M24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45315</v>
-      </c>
-      <c r="M24" s="3" t="str">
-        <f>TEXT(F24,"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="N24" s="3"/>
@@ -3231,7 +2349,7 @@
         <v>45315</v>
       </c>
       <c r="M25" s="3" t="str">
-        <f>TEXT(F25,"ddd")</f>
+        <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
       <c r="N25" s="3"/>
@@ -3280,7 +2398,7 @@
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="3" t="str">
-        <f>TEXT(F27,"ddd")</f>
+        <f t="shared" ref="M27:M55" si="2">TEXT(F27,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="N27" s="3"/>
@@ -3311,7 +2429,7 @@
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="3" t="str">
-        <f>TEXT(F28,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N28" s="3"/>
@@ -3342,7 +2460,7 @@
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="3" t="str">
-        <f>TEXT(F29,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N29" s="3"/>
@@ -3374,11 +2492,11 @@
         <v>7</v>
       </c>
       <c r="L30" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45320</v>
       </c>
       <c r="M30" s="3" t="str">
-        <f>TEXT(F30,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="N30" s="3"/>
@@ -3414,11 +2532,11 @@
         <v>7</v>
       </c>
       <c r="L31" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45320</v>
       </c>
       <c r="M31" s="3" t="str">
-        <f>TEXT(F31,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="N31" s="3"/>
@@ -3450,11 +2568,11 @@
         <v>7</v>
       </c>
       <c r="L32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45320</v>
       </c>
       <c r="M32" s="3" t="str">
-        <f>TEXT(F32,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="N32" s="3"/>
@@ -3490,11 +2608,11 @@
         <v>7</v>
       </c>
       <c r="L33" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45320</v>
       </c>
       <c r="M33" s="3" t="str">
-        <f>TEXT(F33,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="N33" s="3"/>
@@ -3526,11 +2644,11 @@
         <v>7</v>
       </c>
       <c r="L34" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45320</v>
       </c>
       <c r="M34" s="3" t="str">
-        <f>TEXT(F34,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="N34" s="3"/>
@@ -3561,7 +2679,7 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="3" t="str">
-        <f>TEXT(F35,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N35" s="3"/>
@@ -3597,11 +2715,11 @@
         <v>9</v>
       </c>
       <c r="L36" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45322</v>
       </c>
       <c r="M36" s="3" t="str">
-        <f>TEXT(F36,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Wed</v>
       </c>
       <c r="N36" s="3"/>
@@ -3633,11 +2751,11 @@
         <v>9</v>
       </c>
       <c r="L37" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45322</v>
       </c>
       <c r="M37" s="3" t="str">
-        <f>TEXT(F37,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Wed</v>
       </c>
       <c r="N37" s="3"/>
@@ -3671,11 +2789,11 @@
         <v>9</v>
       </c>
       <c r="L38" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45322</v>
       </c>
       <c r="M38" s="3" t="str">
-        <f>TEXT(F38,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Wed</v>
       </c>
       <c r="N38" s="3"/>
@@ -3707,11 +2825,11 @@
         <v>13</v>
       </c>
       <c r="L39" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45326</v>
       </c>
       <c r="M39" s="3" t="str">
-        <f>TEXT(F39,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
       <c r="N39" s="3"/>
@@ -3738,7 +2856,7 @@
       </c>
       <c r="L40" s="16"/>
       <c r="M40" s="3" t="str">
-        <f>TEXT(F40,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N40" s="3"/>
@@ -3770,11 +2888,11 @@
         <v>2</v>
       </c>
       <c r="L41" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45315</v>
       </c>
       <c r="M41" s="3" t="str">
-        <f>TEXT(F41,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Wed</v>
       </c>
       <c r="N41" s="3"/>
@@ -3806,11 +2924,11 @@
         <v>11</v>
       </c>
       <c r="L42" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45324</v>
       </c>
       <c r="M42" s="3" t="str">
-        <f>TEXT(F42,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Fri</v>
       </c>
       <c r="N42" s="3"/>
@@ -3842,11 +2960,11 @@
         <v>11</v>
       </c>
       <c r="L43" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45324</v>
       </c>
       <c r="M43" s="3" t="str">
-        <f>TEXT(F43,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Fri</v>
       </c>
       <c r="N43" s="3"/>
@@ -3878,11 +2996,11 @@
         <v>11</v>
       </c>
       <c r="L44" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45324</v>
       </c>
       <c r="M44" s="3" t="str">
-        <f>TEXT(F44,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Fri</v>
       </c>
       <c r="N44" s="3"/>
@@ -3909,7 +3027,7 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="3" t="str">
-        <f>TEXT(F45,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N45" s="3"/>
@@ -3938,7 +3056,7 @@
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="3" t="str">
-        <f>TEXT(F46,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N46" s="3"/>
@@ -3969,7 +3087,7 @@
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="3" t="str">
-        <f>TEXT(F47,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N47" s="3"/>
@@ -4000,7 +3118,7 @@
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="3" t="str">
-        <f>TEXT(F48,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N48" s="3"/>
@@ -4031,7 +3149,7 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="3" t="str">
-        <f>TEXT(F49,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N49" s="3"/>
@@ -4062,7 +3180,7 @@
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="3" t="str">
-        <f>TEXT(F50,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N50" s="3"/>
@@ -4093,7 +3211,7 @@
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="3" t="str">
-        <f>TEXT(F51,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N51" s="3"/>
@@ -4124,7 +3242,7 @@
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="3" t="str">
-        <f>TEXT(F52,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N52" s="3"/>
@@ -4153,7 +3271,7 @@
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="3" t="str">
-        <f>TEXT(F53,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N53" s="3"/>
@@ -4184,7 +3302,7 @@
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="3" t="str">
-        <f>TEXT(F54,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N54" s="3"/>
@@ -4213,7 +3331,7 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="3" t="str">
-        <f>TEXT(F55,"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="N55" s="3"/>
@@ -4266,7 +3384,7 @@
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="3" t="str">
-        <f>TEXT(F57,"ddd")</f>
+        <f t="shared" ref="M57:M88" si="3">TEXT(F57,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="N57" s="3"/>
@@ -4298,11 +3416,11 @@
         <v>13</v>
       </c>
       <c r="L58" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45326</v>
       </c>
       <c r="M58" s="3" t="str">
-        <f>TEXT(F58,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Sun</v>
       </c>
       <c r="N58" s="3"/>
@@ -4334,11 +3452,11 @@
         <v>14</v>
       </c>
       <c r="L59" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45327</v>
       </c>
       <c r="M59" s="3" t="str">
-        <f>TEXT(F59,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="N59" s="3"/>
@@ -4370,11 +3488,11 @@
         <v>14</v>
       </c>
       <c r="L60" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45327</v>
       </c>
       <c r="M60" s="3" t="str">
-        <f>TEXT(F60,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="N60" s="3"/>
@@ -4406,11 +3524,11 @@
         <v>14</v>
       </c>
       <c r="L61" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45327</v>
       </c>
       <c r="M61" s="3" t="str">
-        <f>TEXT(F61,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="N61" s="3"/>
@@ -4442,11 +3560,11 @@
         <v>14</v>
       </c>
       <c r="L62" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45327</v>
       </c>
       <c r="M62" s="3" t="str">
-        <f>TEXT(F62,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="N62" s="3"/>
@@ -4478,11 +3596,11 @@
         <v>14</v>
       </c>
       <c r="L63" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45327</v>
       </c>
       <c r="M63" s="3" t="str">
-        <f>TEXT(F63,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="N63" s="3"/>
@@ -4511,7 +3629,7 @@
       </c>
       <c r="L64" s="16"/>
       <c r="M64" s="3" t="str">
-        <f>TEXT(F64,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="N64" s="3"/>
@@ -4538,7 +3656,7 @@
       </c>
       <c r="L65" s="16"/>
       <c r="M65" s="3" t="str">
-        <f>TEXT(F65,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="N65" s="3"/>
@@ -4574,11 +3692,11 @@
         <v>16</v>
       </c>
       <c r="L66" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45329</v>
       </c>
       <c r="M66" s="3" t="str">
-        <f>TEXT(F66,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="N66" s="3"/>
@@ -4610,11 +3728,11 @@
         <v>16</v>
       </c>
       <c r="L67" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45329</v>
       </c>
       <c r="M67" s="3" t="str">
-        <f>TEXT(F67,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="N67" s="3"/>
@@ -4646,11 +3764,11 @@
         <v>16</v>
       </c>
       <c r="L68" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45329</v>
       </c>
       <c r="M68" s="3" t="str">
-        <f>TEXT(F68,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="N68" s="3"/>
@@ -4682,11 +3800,11 @@
         <v>16</v>
       </c>
       <c r="L69" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45329</v>
       </c>
       <c r="M69" s="3" t="str">
-        <f>TEXT(F69,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="N69" s="3"/>
@@ -4718,11 +3836,11 @@
         <v>18</v>
       </c>
       <c r="L70" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45331</v>
       </c>
       <c r="M70" s="3" t="str">
-        <f>TEXT(F70,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Fri</v>
       </c>
       <c r="N70" s="3"/>
@@ -4749,7 +3867,7 @@
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="3" t="str">
-        <f>TEXT(F71,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="N71" s="3"/>
@@ -4780,7 +3898,7 @@
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="3" t="str">
-        <f>TEXT(F72,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="N72" s="3"/>
@@ -4811,7 +3929,7 @@
       </c>
       <c r="L73" s="16"/>
       <c r="M73" s="3" t="str">
-        <f>TEXT(F73,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="N73" s="3"/>
@@ -4838,7 +3956,7 @@
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="3" t="str">
-        <f>TEXT(F74,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="N74" s="3"/>
@@ -4872,11 +3990,11 @@
         <v>21</v>
       </c>
       <c r="L75" s="16">
-        <f t="shared" ref="L75:L127" si="1">$F$13+K75</f>
+        <f t="shared" ref="L75:L127" si="4">$F$13+K75</f>
         <v>45334</v>
       </c>
       <c r="M75" s="3" t="str">
-        <f>TEXT(F75,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="N75" s="3"/>
@@ -4908,11 +4026,11 @@
         <v>21</v>
       </c>
       <c r="L76" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45334</v>
       </c>
       <c r="M76" s="3" t="str">
-        <f>TEXT(F76,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="N76" s="3"/>
@@ -4939,7 +4057,7 @@
       </c>
       <c r="L77" s="16"/>
       <c r="M77" s="3" t="str">
-        <f>TEXT(F77,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="N77" s="3"/>
@@ -4966,7 +4084,7 @@
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="3" t="str">
-        <f>TEXT(F78,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="N78" s="3"/>
@@ -5002,7 +4120,7 @@
         <v>45333</v>
       </c>
       <c r="M79" s="3" t="str">
-        <f>TEXT(F79,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Sun</v>
       </c>
       <c r="N79" s="3"/>
@@ -5038,7 +4156,7 @@
         <v>45334</v>
       </c>
       <c r="M80" s="3" t="str">
-        <f>TEXT(F80,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="N80" s="3"/>
@@ -5074,7 +4192,7 @@
         <v>45334</v>
       </c>
       <c r="M81" s="3" t="str">
-        <f>TEXT(F81,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="N81" s="3"/>
@@ -5106,11 +4224,11 @@
         <v>23</v>
       </c>
       <c r="L82" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45336</v>
       </c>
       <c r="M82" s="3" t="str">
-        <f>TEXT(F82,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="N82" s="3"/>
@@ -5142,11 +4260,11 @@
         <v>23</v>
       </c>
       <c r="L83" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45336</v>
       </c>
       <c r="M83" s="3" t="str">
-        <f>TEXT(F83,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="N83" s="3"/>
@@ -5178,11 +4296,11 @@
         <v>24</v>
       </c>
       <c r="L84" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45337</v>
       </c>
       <c r="M84" s="3" t="str">
-        <f>TEXT(F84,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Thu</v>
       </c>
       <c r="N84" s="3"/>
@@ -5214,11 +4332,11 @@
         <v>25</v>
       </c>
       <c r="L85" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45338</v>
       </c>
       <c r="M85" s="3" t="str">
-        <f>TEXT(F85,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Fri</v>
       </c>
       <c r="N85" s="3"/>
@@ -5250,11 +4368,11 @@
         <v>27</v>
       </c>
       <c r="L86" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45340</v>
       </c>
       <c r="M86" s="3" t="str">
-        <f>TEXT(F86,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Sun</v>
       </c>
       <c r="N86" s="3"/>
@@ -5281,7 +4399,7 @@
       </c>
       <c r="L87" s="16"/>
       <c r="M87" s="3" t="str">
-        <f>TEXT(F87,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="N87" s="3"/>
@@ -5312,7 +4430,7 @@
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="3" t="str">
-        <f>TEXT(F88,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="N88" s="3"/>
@@ -5343,7 +4461,7 @@
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="3" t="str">
-        <f>TEXT(F89,"ddd")</f>
+        <f t="shared" ref="M89:M120" si="5">TEXT(F89,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="N89" s="3"/>
@@ -5375,11 +4493,11 @@
         <v>28</v>
       </c>
       <c r="L90" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45341</v>
       </c>
       <c r="M90" s="3" t="str">
-        <f>TEXT(F90,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="N90" s="3"/>
@@ -5411,11 +4529,11 @@
         <v>28</v>
       </c>
       <c r="L91" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45341</v>
       </c>
       <c r="M91" s="3" t="str">
-        <f>TEXT(F91,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="N91" s="3"/>
@@ -5442,7 +4560,7 @@
       </c>
       <c r="L92" s="16"/>
       <c r="M92" s="3" t="str">
-        <f>TEXT(F92,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N92" s="3"/>
@@ -5474,11 +4592,11 @@
         <v>28</v>
       </c>
       <c r="L93" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45341</v>
       </c>
       <c r="M93" s="3" t="str">
-        <f>TEXT(F93,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="N93" s="3"/>
@@ -5510,11 +4628,11 @@
         <v>28</v>
       </c>
       <c r="L94" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45341</v>
       </c>
       <c r="M94" s="3" t="str">
-        <f>TEXT(F94,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="N94" s="3"/>
@@ -5541,7 +4659,7 @@
       </c>
       <c r="L95" s="16"/>
       <c r="M95" s="3" t="str">
-        <f>TEXT(F95,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N95" s="3"/>
@@ -5568,7 +4686,7 @@
       </c>
       <c r="L96" s="16"/>
       <c r="M96" s="3" t="str">
-        <f>TEXT(F96,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N96" s="3"/>
@@ -5600,11 +4718,11 @@
         <v>30</v>
       </c>
       <c r="L97" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45343</v>
       </c>
       <c r="M97" s="3" t="str">
-        <f>TEXT(F97,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="N97" s="3"/>
@@ -5636,11 +4754,11 @@
         <v>30</v>
       </c>
       <c r="L98" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45343</v>
       </c>
       <c r="M98" s="3" t="str">
-        <f>TEXT(F98,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="N98" s="3"/>
@@ -5672,11 +4790,11 @@
         <v>32</v>
       </c>
       <c r="L99" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45345</v>
       </c>
       <c r="M99" s="3" t="str">
-        <f>TEXT(F99,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Fri</v>
       </c>
       <c r="N99" s="3"/>
@@ -5703,7 +4821,7 @@
       </c>
       <c r="L100" s="16"/>
       <c r="M100" s="3" t="str">
-        <f>TEXT(F100,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N100" s="3"/>
@@ -5730,7 +4848,7 @@
       </c>
       <c r="L101" s="16"/>
       <c r="M101" s="3" t="str">
-        <f>TEXT(F101,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N101" s="3"/>
@@ -5759,7 +4877,7 @@
       </c>
       <c r="L102" s="16"/>
       <c r="M102" s="3" t="str">
-        <f>TEXT(F102,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N102" s="3"/>
@@ -5790,7 +4908,7 @@
       </c>
       <c r="L103" s="16"/>
       <c r="M103" s="3" t="str">
-        <f>TEXT(F103,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N103" s="3"/>
@@ -5821,7 +4939,7 @@
       </c>
       <c r="L104" s="16"/>
       <c r="M104" s="3" t="str">
-        <f>TEXT(F104,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N104" s="3"/>
@@ -5852,7 +4970,7 @@
       </c>
       <c r="L105" s="16"/>
       <c r="M105" s="3" t="str">
-        <f>TEXT(F105,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N105" s="3"/>
@@ -5883,7 +5001,7 @@
       </c>
       <c r="L106" s="16"/>
       <c r="M106" s="3" t="str">
-        <f>TEXT(F106,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N106" s="3"/>
@@ -5912,7 +5030,7 @@
       </c>
       <c r="L107" s="16"/>
       <c r="M107" s="3" t="str">
-        <f>TEXT(F107,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N107" s="3"/>
@@ -5943,7 +5061,7 @@
       </c>
       <c r="L108" s="16"/>
       <c r="M108" s="3" t="str">
-        <f>TEXT(F108,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N108" s="3"/>
@@ -5972,7 +5090,7 @@
       </c>
       <c r="L109" s="16"/>
       <c r="M109" s="3" t="str">
-        <f>TEXT(F109,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N109" s="3"/>
@@ -6001,7 +5119,7 @@
       </c>
       <c r="L110" s="16"/>
       <c r="M110" s="3" t="str">
-        <f>TEXT(F110,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N110" s="3"/>
@@ -6030,7 +5148,7 @@
       </c>
       <c r="L111" s="16"/>
       <c r="M111" s="3" t="str">
-        <f>TEXT(F111,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N111" s="3"/>
@@ -6062,11 +5180,11 @@
         <v>35</v>
       </c>
       <c r="L112" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45348</v>
       </c>
       <c r="M112" s="3" t="str">
-        <f>TEXT(F112,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="N112" s="3"/>
@@ -6093,7 +5211,7 @@
       </c>
       <c r="L113" s="16"/>
       <c r="M113" s="3" t="str">
-        <f>TEXT(F113,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="N113" s="3"/>
@@ -6125,11 +5243,11 @@
         <v>35</v>
       </c>
       <c r="L114" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45348</v>
       </c>
       <c r="M114" s="3" t="str">
-        <f>TEXT(F114,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="N114" s="3"/>
@@ -6161,11 +5279,11 @@
         <v>35</v>
       </c>
       <c r="L115" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45348</v>
       </c>
       <c r="M115" s="3" t="str">
-        <f>TEXT(F115,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="N115" s="3"/>
@@ -6197,11 +5315,11 @@
         <v>37</v>
       </c>
       <c r="L116" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45350</v>
       </c>
       <c r="M116" s="3" t="str">
-        <f>TEXT(F116,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="N116" s="3"/>
@@ -6233,11 +5351,11 @@
         <v>37</v>
       </c>
       <c r="L117" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45350</v>
       </c>
       <c r="M117" s="3" t="str">
-        <f>TEXT(F117,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="N117" s="3"/>
@@ -6273,7 +5391,7 @@
         <v>45347</v>
       </c>
       <c r="M118" s="3" t="str">
-        <f>TEXT(F118,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="N118" s="3"/>
@@ -6309,7 +5427,7 @@
         <v>45348</v>
       </c>
       <c r="M119" s="3" t="str">
-        <f>TEXT(F119,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="N119" s="3"/>
@@ -6341,11 +5459,11 @@
         <v>39</v>
       </c>
       <c r="L120" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45352</v>
       </c>
       <c r="M120" s="3" t="str">
-        <f>TEXT(F120,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Fri</v>
       </c>
       <c r="N120" s="3"/>
@@ -6372,7 +5490,7 @@
       </c>
       <c r="L121" s="16"/>
       <c r="M121" s="3" t="str">
-        <f>TEXT(F121,"ddd")</f>
+        <f t="shared" ref="M121:M152" si="6">TEXT(F121,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="N121" s="3"/>
@@ -6399,7 +5517,7 @@
       </c>
       <c r="L122" s="16"/>
       <c r="M122" s="3" t="str">
-        <f>TEXT(F122,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N122" s="3"/>
@@ -6428,7 +5546,7 @@
       </c>
       <c r="L123" s="16"/>
       <c r="M123" s="3" t="str">
-        <f>TEXT(F123,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N123" s="3"/>
@@ -6457,7 +5575,7 @@
       </c>
       <c r="L124" s="16"/>
       <c r="M124" s="3" t="str">
-        <f>TEXT(F124,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N124" s="3"/>
@@ -6489,11 +5607,11 @@
         <v>42</v>
       </c>
       <c r="L125" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45355</v>
       </c>
       <c r="M125" s="3" t="str">
-        <f>TEXT(F125,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Mon</v>
       </c>
       <c r="N125" s="3"/>
@@ -6525,11 +5643,11 @@
         <v>42</v>
       </c>
       <c r="L126" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45355</v>
       </c>
       <c r="M126" s="3" t="str">
-        <f>TEXT(F126,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Mon</v>
       </c>
       <c r="N126" s="3"/>
@@ -6561,11 +5679,11 @@
         <v>44</v>
       </c>
       <c r="L127" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45357</v>
       </c>
       <c r="M127" s="3" t="str">
-        <f>TEXT(F127,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Wed</v>
       </c>
       <c r="N127" s="3"/>
@@ -6598,7 +5716,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="16"/>
       <c r="M128" s="3" t="str">
-        <f>TEXT(F128,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Fri</v>
       </c>
       <c r="N128" s="3"/>
@@ -6627,7 +5745,7 @@
       </c>
       <c r="L129" s="16"/>
       <c r="M129" s="3" t="str">
-        <f>TEXT(F129,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N129" s="3"/>
@@ -6662,7 +5780,7 @@
       </c>
       <c r="L130" s="16"/>
       <c r="M130" s="3" t="str">
-        <f>TEXT(F130,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Mon</v>
       </c>
       <c r="N130" s="3"/>
@@ -6695,7 +5813,7 @@
       </c>
       <c r="L131" s="16"/>
       <c r="M131" s="3" t="str">
-        <f>TEXT(F131,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Mon</v>
       </c>
       <c r="N131" s="3"/>
@@ -6730,7 +5848,7 @@
       </c>
       <c r="L132" s="16"/>
       <c r="M132" s="3" t="str">
-        <f>TEXT(F132,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Wed</v>
       </c>
       <c r="N132" s="3"/>
@@ -6759,7 +5877,7 @@
       </c>
       <c r="L133" s="16"/>
       <c r="M133" s="3" t="str">
-        <f>TEXT(F133,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N133" s="3"/>
@@ -6790,7 +5908,7 @@
       </c>
       <c r="L134" s="16"/>
       <c r="M134" s="3" t="str">
-        <f>TEXT(F134,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N134" s="3"/>
@@ -6821,7 +5939,7 @@
       </c>
       <c r="L135" s="16"/>
       <c r="M135" s="3" t="str">
-        <f>TEXT(F135,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N135" s="3"/>
@@ -6852,7 +5970,7 @@
       </c>
       <c r="L136" s="16"/>
       <c r="M136" s="3" t="str">
-        <f>TEXT(F136,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N136" s="3"/>
@@ -6883,7 +6001,7 @@
       </c>
       <c r="L137" s="16"/>
       <c r="M137" s="3" t="str">
-        <f>TEXT(F137,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N137" s="3"/>
@@ -6914,7 +6032,7 @@
       </c>
       <c r="L138" s="16"/>
       <c r="M138" s="3" t="str">
-        <f>TEXT(F138,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N138" s="3"/>
@@ -6945,7 +6063,7 @@
       </c>
       <c r="L139" s="16"/>
       <c r="M139" s="3" t="str">
-        <f>TEXT(F139,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N139" s="3"/>
@@ -6974,7 +6092,7 @@
       </c>
       <c r="L140" s="16"/>
       <c r="M140" s="3" t="str">
-        <f>TEXT(F140,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N140" s="3"/>
@@ -7009,7 +6127,7 @@
       </c>
       <c r="L141" s="16"/>
       <c r="M141" s="3" t="str">
-        <f>TEXT(F141,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N141" s="3"/>
@@ -7040,7 +6158,7 @@
       </c>
       <c r="L142" s="16"/>
       <c r="M142" s="3" t="str">
-        <f>TEXT(F142,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N142" s="3"/>
@@ -7069,7 +6187,7 @@
       </c>
       <c r="L143" s="16"/>
       <c r="M143" s="3" t="str">
-        <f>TEXT(F143,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N143" s="3"/>
@@ -7098,7 +6216,7 @@
       </c>
       <c r="L144" s="16"/>
       <c r="M144" s="3" t="str">
-        <f>TEXT(F144,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N144" s="3"/>
@@ -7127,7 +6245,7 @@
       </c>
       <c r="L145" s="16"/>
       <c r="M145" s="3" t="str">
-        <f>TEXT(F145,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N145" s="3"/>
@@ -7154,7 +6272,7 @@
       </c>
       <c r="L146" s="16"/>
       <c r="M146" s="3" t="str">
-        <f>TEXT(F146,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="N146" s="3"/>
@@ -7186,11 +6304,11 @@
         <v>56</v>
       </c>
       <c r="L147" s="16">
-        <f t="shared" ref="L147:L194" si="2">$F$13+K147</f>
+        <f t="shared" ref="L147:L194" si="7">$F$13+K147</f>
         <v>45369</v>
       </c>
       <c r="M147" s="3" t="str">
-        <f>TEXT(F147,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Mon</v>
       </c>
       <c r="N147" s="3"/>
@@ -7222,11 +6340,11 @@
         <v>56</v>
       </c>
       <c r="L148" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45369</v>
       </c>
       <c r="M148" s="3" t="str">
-        <f>TEXT(F148,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Mon</v>
       </c>
       <c r="N148" s="3"/>
@@ -7258,11 +6376,11 @@
         <v>58</v>
       </c>
       <c r="L149" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45371</v>
       </c>
       <c r="M149" s="3" t="str">
-        <f>TEXT(F149,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Wed</v>
       </c>
       <c r="N149" s="3"/>
@@ -7294,11 +6412,11 @@
         <v>58</v>
       </c>
       <c r="L150" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45371</v>
       </c>
       <c r="M150" s="3" t="str">
-        <f>TEXT(F150,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Wed</v>
       </c>
       <c r="N150" s="3"/>
@@ -7330,11 +6448,11 @@
         <v>58</v>
       </c>
       <c r="L151" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45371</v>
       </c>
       <c r="M151" s="3" t="str">
-        <f>TEXT(F151,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Wed</v>
       </c>
       <c r="N151" s="3"/>
@@ -7366,11 +6484,11 @@
         <v>60</v>
       </c>
       <c r="L152" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45373</v>
       </c>
       <c r="M152" s="3" t="str">
-        <f>TEXT(F152,"ddd")</f>
+        <f t="shared" si="6"/>
         <v>Fri</v>
       </c>
       <c r="N152" s="3"/>
@@ -7402,11 +6520,11 @@
         <v>60</v>
       </c>
       <c r="L153" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45373</v>
       </c>
       <c r="M153" s="3" t="str">
-        <f>TEXT(F153,"ddd")</f>
+        <f t="shared" ref="M153:M171" si="8">TEXT(F153,"ddd")</f>
         <v>Fri</v>
       </c>
       <c r="N153" s="3"/>
@@ -7433,7 +6551,7 @@
       </c>
       <c r="L154" s="16"/>
       <c r="M154" s="3" t="str">
-        <f>TEXT(F154,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="N154" s="3"/>
@@ -7462,7 +6580,7 @@
       </c>
       <c r="L155" s="16"/>
       <c r="M155" s="3" t="str">
-        <f>TEXT(F155,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="N155" s="3"/>
@@ -7491,7 +6609,7 @@
       </c>
       <c r="L156" s="16"/>
       <c r="M156" s="3" t="str">
-        <f>TEXT(F156,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="N156" s="3"/>
@@ -7527,7 +6645,7 @@
         <v>45375</v>
       </c>
       <c r="M157" s="3" t="str">
-        <f>TEXT(F157,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Sun</v>
       </c>
       <c r="N157" s="3"/>
@@ -7559,11 +6677,11 @@
         <v>63</v>
       </c>
       <c r="L158" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45376</v>
       </c>
       <c r="M158" s="3" t="str">
-        <f>TEXT(F158,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Mon</v>
       </c>
       <c r="N158" s="3"/>
@@ -7595,11 +6713,11 @@
         <v>63</v>
       </c>
       <c r="L159" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45376</v>
       </c>
       <c r="M159" s="3" t="str">
-        <f>TEXT(F159,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Mon</v>
       </c>
       <c r="N159" s="3"/>
@@ -7635,7 +6753,7 @@
         <v>45375</v>
       </c>
       <c r="M160" s="3" t="str">
-        <f>TEXT(F160,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Tue</v>
       </c>
       <c r="N160" s="3"/>
@@ -7667,11 +6785,11 @@
         <v>65</v>
       </c>
       <c r="L161" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45378</v>
       </c>
       <c r="M161" s="3" t="str">
-        <f>TEXT(F161,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Wed</v>
       </c>
       <c r="N161" s="3"/>
@@ -7703,11 +6821,11 @@
         <v>69</v>
       </c>
       <c r="L162" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45382</v>
       </c>
       <c r="M162" s="3" t="str">
-        <f>TEXT(F162,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Sun</v>
       </c>
       <c r="N162" s="3"/>
@@ -7739,11 +6857,11 @@
         <v>69</v>
       </c>
       <c r="L163" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45382</v>
       </c>
       <c r="M163" s="3" t="str">
-        <f>TEXT(F163,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Sun</v>
       </c>
       <c r="N163" s="3"/>
@@ -7770,7 +6888,7 @@
       </c>
       <c r="L164" s="16"/>
       <c r="M164" s="3" t="str">
-        <f>TEXT(F164,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="N164" s="3"/>
@@ -7799,7 +6917,7 @@
       </c>
       <c r="L165" s="16"/>
       <c r="M165" s="3" t="str">
-        <f>TEXT(F165,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="N165" s="3"/>
@@ -7828,7 +6946,7 @@
       </c>
       <c r="L166" s="16"/>
       <c r="M166" s="3" t="str">
-        <f>TEXT(F166,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="N166" s="3"/>
@@ -7860,11 +6978,11 @@
         <v>70</v>
       </c>
       <c r="L167" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45383</v>
       </c>
       <c r="M167" s="3" t="str">
-        <f>TEXT(F167,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Mon</v>
       </c>
       <c r="N167" s="3"/>
@@ -7896,11 +7014,11 @@
         <v>72</v>
       </c>
       <c r="L168" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45385</v>
       </c>
       <c r="M168" s="3" t="str">
-        <f>TEXT(F168,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Wed</v>
       </c>
       <c r="N168" s="3"/>
@@ -7932,11 +7050,11 @@
         <v>72</v>
       </c>
       <c r="L169" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45385</v>
       </c>
       <c r="M169" s="3" t="str">
-        <f>TEXT(F169,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Wed</v>
       </c>
       <c r="N169" s="3"/>
@@ -7972,7 +7090,7 @@
         <v>45385</v>
       </c>
       <c r="M170" s="3" t="str">
-        <f>TEXT(F170,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Wed</v>
       </c>
       <c r="N170" s="3"/>
@@ -8001,7 +7119,7 @@
       </c>
       <c r="L171" s="16"/>
       <c r="M171" s="3" t="str">
-        <f>TEXT(F171,"ddd")</f>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="N171" s="3"/>
@@ -8057,18 +7175,18 @@
         <v>77</v>
       </c>
       <c r="L173" s="16">
-        <f t="shared" ref="L173:L174" si="3">$F$13+K173</f>
+        <f t="shared" ref="L173" si="9">$F$13+K173</f>
         <v>45390</v>
       </c>
       <c r="M173" s="3" t="str">
-        <f>TEXT(F173,"ddd")</f>
+        <f t="shared" ref="M173:M199" si="10">TEXT(F173,"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="N173" s="3"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>172.3</v>
+        <v>173</v>
       </c>
       <c r="B174" s="1">
         <v>4</v>
@@ -8076,35 +7194,35 @@
       <c r="C174" s="1">
         <v>12</v>
       </c>
-      <c r="D174" s="12" t="s">
-        <v>14</v>
+      <c r="D174" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E174" s="7"/>
-      <c r="F174" s="23">
+      <c r="F174" s="19">
         <v>45390</v>
       </c>
-      <c r="G174" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H174" s="38"/>
+      <c r="G174" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H174" s="18"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3">
         <v>77</v>
       </c>
       <c r="L174" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45390</v>
       </c>
       <c r="M174" s="3" t="str">
-        <f>TEXT(F174,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Mon</v>
       </c>
       <c r="N174" s="3"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>173.3</v>
       </c>
       <c r="B175" s="1">
         <v>4</v>
@@ -8112,35 +7230,35 @@
       <c r="C175" s="1">
         <v>12</v>
       </c>
-      <c r="D175" s="14" t="s">
-        <v>13</v>
+      <c r="D175" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E175" s="7"/>
       <c r="F175" s="19">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="G175" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H175" s="18"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L175" s="16">
-        <f t="shared" si="2"/>
-        <v>45390</v>
+        <f t="shared" si="7"/>
+        <v>45392</v>
       </c>
       <c r="M175" s="3" t="str">
-        <f>TEXT(F175,"ddd")</f>
-        <v>Mon</v>
+        <f t="shared" si="10"/>
+        <v>Wed</v>
       </c>
       <c r="N175" s="3"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>173.3</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1">
         <v>4</v>
@@ -8148,15 +7266,15 @@
       <c r="C176" s="1">
         <v>12</v>
       </c>
-      <c r="D176" s="12" t="s">
-        <v>14</v>
+      <c r="D176" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="19">
         <v>45392</v>
       </c>
       <c r="G176" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H176" s="18"/>
       <c r="I176" s="3"/>
@@ -8165,18 +7283,18 @@
         <v>79</v>
       </c>
       <c r="L176" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45392</v>
       </c>
       <c r="M176" s="3" t="str">
-        <f>TEXT(F176,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Wed</v>
       </c>
       <c r="N176" s="3"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1">
         <v>4</v>
@@ -8184,35 +7302,26 @@
       <c r="C177" s="1">
         <v>12</v>
       </c>
-      <c r="D177" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="D177" s="12"/>
       <c r="E177" s="7"/>
-      <c r="F177" s="19">
-        <v>45392</v>
-      </c>
-      <c r="G177" s="18" t="s">
-        <v>132</v>
-      </c>
+      <c r="F177" s="19"/>
+      <c r="G177" s="18"/>
       <c r="H177" s="18"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3">
-        <v>79</v>
-      </c>
-      <c r="L177" s="16">
-        <f t="shared" si="2"/>
-        <v>45392</v>
-      </c>
+        <v>-44224</v>
+      </c>
+      <c r="L177" s="16"/>
       <c r="M177" s="3" t="str">
-        <f>TEXT(F177,"ddd")</f>
-        <v>Wed</v>
+        <f t="shared" si="10"/>
+        <v>Sat</v>
       </c>
       <c r="N177" s="3"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>175</v>
+        <v>175.5</v>
       </c>
       <c r="B178" s="1">
         <v>4</v>
@@ -8220,26 +7329,35 @@
       <c r="C178" s="1">
         <v>12</v>
       </c>
-      <c r="D178" s="12"/>
+      <c r="D178" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="E178" s="7"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
+      <c r="F178" s="29">
+        <v>45394</v>
+      </c>
+      <c r="G178" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H178" s="38"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3">
-        <v>-44224</v>
-      </c>
-      <c r="L178" s="16"/>
+        <v>81</v>
+      </c>
+      <c r="L178" s="16">
+        <f>$F$13+K178</f>
+        <v>45394</v>
+      </c>
       <c r="M178" s="3" t="str">
-        <f>TEXT(F178,"ddd")</f>
-        <v>Sat</v>
+        <f t="shared" si="10"/>
+        <v>Fri</v>
       </c>
       <c r="N178" s="3"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>175.5</v>
+        <v>176</v>
       </c>
       <c r="B179" s="1">
         <v>4</v>
@@ -8247,18 +7365,20 @@
       <c r="C179" s="1">
         <v>12</v>
       </c>
-      <c r="D179" s="20" t="s">
-        <v>33</v>
+      <c r="D179" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E179" s="7"/>
-      <c r="F179" s="29">
+      <c r="F179" s="19">
         <v>45394</v>
       </c>
-      <c r="G179" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="H179" s="38"/>
-      <c r="I179" s="3"/>
+      <c r="G179" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H179" s="18"/>
+      <c r="I179" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="J179" s="3"/>
       <c r="K179" s="3">
         <v>81</v>
@@ -8268,52 +7388,43 @@
         <v>45394</v>
       </c>
       <c r="M179" s="3" t="str">
-        <f>TEXT(F179,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Fri</v>
       </c>
       <c r="N179" s="3"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B180" s="1">
         <v>4</v>
       </c>
       <c r="C180" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D180" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E180" s="7"/>
-      <c r="F180" s="19">
-        <v>45394</v>
-      </c>
-      <c r="G180" s="18" t="s">
-        <v>134</v>
-      </c>
+      <c r="F180" s="19"/>
+      <c r="G180" s="18"/>
       <c r="H180" s="18"/>
-      <c r="I180" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3">
-        <v>81</v>
-      </c>
-      <c r="L180" s="16">
-        <f>$F$13+K180</f>
-        <v>45394</v>
-      </c>
+        <v>-44221</v>
+      </c>
+      <c r="L180" s="16"/>
       <c r="M180" s="3" t="str">
-        <f>TEXT(F180,"ddd")</f>
-        <v>Fri</v>
+        <f t="shared" si="10"/>
+        <v>Sat</v>
       </c>
       <c r="N180" s="3"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B181" s="1">
         <v>4</v>
@@ -8321,28 +7432,28 @@
       <c r="C181" s="1">
         <v>13</v>
       </c>
-      <c r="D181" s="12" t="s">
-        <v>14</v>
+      <c r="D181" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="19"/>
       <c r="G181" s="18"/>
       <c r="H181" s="18"/>
       <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
+      <c r="J181" s="24"/>
       <c r="K181" s="3">
-        <v>-44221</v>
+        <v>-44220</v>
       </c>
       <c r="L181" s="16"/>
       <c r="M181" s="3" t="str">
-        <f>TEXT(F181,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="N181" s="3"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>178</v>
+        <v>178.1</v>
       </c>
       <c r="B182" s="1">
         <v>4</v>
@@ -8350,22 +7461,29 @@
       <c r="C182" s="1">
         <v>13</v>
       </c>
-      <c r="D182" s="14" t="s">
-        <v>13</v>
+      <c r="D182" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="E182" s="7"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="18"/>
-      <c r="H182" s="18"/>
+      <c r="F182" s="23">
+        <v>45397</v>
+      </c>
+      <c r="G182" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H182" s="38"/>
       <c r="I182" s="3"/>
-      <c r="J182" s="24"/>
+      <c r="J182" s="3"/>
       <c r="K182" s="3">
-        <v>-44220</v>
-      </c>
-      <c r="L182" s="16"/>
+        <v>77</v>
+      </c>
+      <c r="L182" s="16">
+        <f>$F$13+K182</f>
+        <v>45390</v>
+      </c>
       <c r="M182" s="3" t="str">
         <f>TEXT(F182,"ddd")</f>
-        <v>Sat</v>
+        <v>Mon</v>
       </c>
       <c r="N182" s="3"/>
     </row>
@@ -8396,11 +7514,11 @@
         <v>84</v>
       </c>
       <c r="L183" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45397</v>
       </c>
       <c r="M183" s="3" t="str">
-        <f>TEXT(F183,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Mon</v>
       </c>
       <c r="N183" s="3"/>
@@ -8432,11 +7550,11 @@
         <v>84</v>
       </c>
       <c r="L184" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45397</v>
       </c>
       <c r="M184" s="3" t="str">
-        <f>TEXT(F184,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Mon</v>
       </c>
       <c r="N184" s="3"/>
@@ -8468,11 +7586,11 @@
         <v>84</v>
       </c>
       <c r="L185" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45397</v>
       </c>
       <c r="M185" s="3" t="str">
-        <f>TEXT(F185,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Mon</v>
       </c>
       <c r="N185" s="3"/>
@@ -8504,11 +7622,11 @@
         <v>86</v>
       </c>
       <c r="L186" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45399</v>
       </c>
       <c r="M186" s="3" t="str">
-        <f>TEXT(F186,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Wed</v>
       </c>
       <c r="N186" s="3"/>
@@ -8540,11 +7658,11 @@
         <v>86</v>
       </c>
       <c r="L187" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45399</v>
       </c>
       <c r="M187" s="3" t="str">
-        <f>TEXT(F187,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Wed</v>
       </c>
       <c r="N187" s="3"/>
@@ -8576,11 +7694,11 @@
         <v>88</v>
       </c>
       <c r="L188" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45401</v>
       </c>
       <c r="M188" s="3" t="str">
-        <f>TEXT(F188,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Fri</v>
       </c>
       <c r="N188" s="3"/>
@@ -8609,7 +7727,7 @@
       </c>
       <c r="L189" s="16"/>
       <c r="M189" s="3" t="str">
-        <f>TEXT(F189,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="N189" s="3"/>
@@ -8638,7 +7756,7 @@
       </c>
       <c r="L190" s="16"/>
       <c r="M190" s="3" t="str">
-        <f>TEXT(F190,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="N190" s="3"/>
@@ -8670,11 +7788,11 @@
         <v>90</v>
       </c>
       <c r="L191" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45403</v>
       </c>
       <c r="M191" s="3" t="str">
-        <f>TEXT(F191,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Sun</v>
       </c>
       <c r="N191" s="3"/>
@@ -8706,11 +7824,11 @@
         <v>90</v>
       </c>
       <c r="L192" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45403</v>
       </c>
       <c r="M192" s="3" t="str">
-        <f>TEXT(F192,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Sun</v>
       </c>
       <c r="N192" s="3"/>
@@ -8742,11 +7860,11 @@
         <v>90</v>
       </c>
       <c r="L193" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45403</v>
       </c>
       <c r="M193" s="3" t="str">
-        <f>TEXT(F193,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Sun</v>
       </c>
       <c r="N193" s="3"/>
@@ -8778,11 +7896,11 @@
         <v>91</v>
       </c>
       <c r="L194" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45404</v>
       </c>
       <c r="M194" s="3" t="str">
-        <f>TEXT(F194,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Mon</v>
       </c>
       <c r="N194" s="3"/>
@@ -8809,7 +7927,7 @@
       </c>
       <c r="L195" s="16"/>
       <c r="M195" s="3" t="str">
-        <f>TEXT(F195,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="N195" s="3"/>
@@ -8841,11 +7959,11 @@
         <v>92</v>
       </c>
       <c r="L196" s="16">
-        <f t="shared" ref="L196:L207" si="4">$F$13+K196</f>
+        <f t="shared" ref="L196:L207" si="11">$F$13+K196</f>
         <v>45405</v>
       </c>
       <c r="M196" s="3" t="str">
-        <f>TEXT(F196,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Tue</v>
       </c>
       <c r="N196" s="3"/>
@@ -8877,11 +7995,11 @@
         <v>93</v>
       </c>
       <c r="L197" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>45406</v>
       </c>
       <c r="M197" s="3" t="str">
-        <f>TEXT(F197,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Wed</v>
       </c>
       <c r="N197" s="3"/>
@@ -8917,7 +8035,7 @@
         <v>45408</v>
       </c>
       <c r="M198" s="3" t="str">
-        <f>TEXT(F198,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Fri</v>
       </c>
       <c r="N198" s="3"/>
@@ -8946,7 +8064,7 @@
       </c>
       <c r="L199" s="16"/>
       <c r="M199" s="3" t="str">
-        <f>TEXT(F199,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="N199" s="3"/>
@@ -9002,11 +8120,11 @@
         <v>98</v>
       </c>
       <c r="L201" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>45411</v>
       </c>
       <c r="M201" s="3" t="str">
-        <f t="shared" ref="M201:M207" si="5">TEXT(F201,"ddd")</f>
+        <f t="shared" ref="M201:M207" si="12">TEXT(F201,"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="N201" s="3"/>
@@ -9038,11 +8156,11 @@
         <v>98</v>
       </c>
       <c r="L202" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>45411</v>
       </c>
       <c r="M202" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>Mon</v>
       </c>
       <c r="N202" s="3"/>
@@ -9074,11 +8192,11 @@
         <v>98</v>
       </c>
       <c r="L203" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>45411</v>
       </c>
       <c r="M203" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>Mon</v>
       </c>
       <c r="N203" s="3"/>
@@ -9112,11 +8230,11 @@
         <v>100</v>
       </c>
       <c r="L204" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>45413</v>
       </c>
       <c r="M204" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>Wed</v>
       </c>
       <c r="N204" s="3"/>
@@ -9148,11 +8266,11 @@
         <v>100</v>
       </c>
       <c r="L205" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>45413</v>
       </c>
       <c r="M205" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>Wed</v>
       </c>
       <c r="N205" s="3"/>
@@ -9184,11 +8302,11 @@
         <v>100</v>
       </c>
       <c r="L206" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>45413</v>
       </c>
       <c r="M206" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>Wed</v>
       </c>
       <c r="N206" s="3"/>
@@ -9220,11 +8338,11 @@
         <v>102</v>
       </c>
       <c r="L207" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>45415</v>
       </c>
       <c r="M207" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>Fri</v>
       </c>
       <c r="N207" s="3"/>
@@ -9318,732 +8436,224 @@
       <c r="N211" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C8 C103:C106 C57 C59:C61 C63:C65 C67 C130 C125 C127:C128 C151 C132:C140 C117:C119 C153 C204 C13:C15 C69:C70 C79:C81 C169:C172 C179:C182 C185 C201 C194:C198 C175 C177 C187:C188 C17:C21 C26:C41 C148 C44:C53 C156:C157 C159:C163">
-    <cfRule type="expression" dxfId="181" priority="187">
+  <conditionalFormatting sqref="C3:C76 C182 C173:C178">
+    <cfRule type="expression" dxfId="55" priority="1">
       <formula>ISEVEN(C3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="188">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>ISODD(C3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="179" priority="185">
-      <formula>ISEVEN(C9)</formula>
+  <conditionalFormatting sqref="C77:C83">
+    <cfRule type="expression" dxfId="53" priority="151">
+      <formula>ISEVEN(C77)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="186">
-      <formula>ISODD(C9)</formula>
+    <cfRule type="expression" dxfId="52" priority="152">
+      <formula>ISODD(C77)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="177" priority="183">
-      <formula>ISEVEN(C54)</formula>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="expression" dxfId="51" priority="149">
+      <formula>ISEVEN(C78)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="184">
-      <formula>ISODD(C54)</formula>
+    <cfRule type="expression" dxfId="50" priority="150">
+      <formula>ISODD(C78)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="175" priority="181">
-      <formula>ISEVEN(C55)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="182">
-      <formula>ISODD(C55)</formula>
+  <conditionalFormatting sqref="C79:C81 C117:C119 C153 C169:C172 C187:C188">
+    <cfRule type="expression" dxfId="49" priority="188">
+      <formula>ISODD(C79)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="expression" dxfId="173" priority="177">
-      <formula>ISEVEN(C107)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="178">
-      <formula>ISODD(C107)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="expression" dxfId="171" priority="175">
-      <formula>ISEVEN(C108)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="176">
-      <formula>ISODD(C108)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:C112 C114:C115">
-    <cfRule type="expression" dxfId="169" priority="171">
-      <formula>ISEVEN(C111)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="172">
-      <formula>ISODD(C111)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109:C110 C119 C113 C116">
-    <cfRule type="expression" dxfId="167" priority="173">
-      <formula>ISEVEN(C109)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="174">
-      <formula>ISODD(C109)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="expression" dxfId="165" priority="167">
-      <formula>ISEVEN(C143)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="168">
-      <formula>ISODD(C143)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="expression" dxfId="163" priority="169">
-      <formula>ISEVEN(C142)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="170">
-      <formula>ISODD(C142)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="161" priority="163">
-      <formula>ISEVEN(C10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="164">
-      <formula>ISODD(C10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="159" priority="161">
-      <formula>ISEVEN(C24)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="162">
-      <formula>ISODD(C24)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="157" priority="159">
-      <formula>ISEVEN(C25)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="160">
-      <formula>ISODD(C25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="155" priority="157">
-      <formula>ISEVEN(C42)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="158">
-      <formula>ISODD(C42)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="153" priority="155">
-      <formula>ISEVEN(C43)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="156">
-      <formula>ISODD(C43)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80 C82 C85">
-    <cfRule type="expression" dxfId="151" priority="153">
+  <conditionalFormatting sqref="C80">
+    <cfRule type="expression" dxfId="48" priority="153">
       <formula>ISEVEN(C80)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="154">
+    <cfRule type="expression" dxfId="47" priority="154">
       <formula>ISODD(C80)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72 C74 C77:C81 C83">
-    <cfRule type="expression" dxfId="149" priority="151">
-      <formula>ISEVEN(C72)</formula>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="expression" dxfId="46" priority="147">
+      <formula>ISEVEN(C81)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="152">
-      <formula>ISODD(C72)</formula>
+    <cfRule type="expression" dxfId="45" priority="148">
+      <formula>ISODD(C81)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73 C75 C78 C84">
-    <cfRule type="expression" dxfId="147" priority="149">
-      <formula>ISEVEN(C73)</formula>
+  <conditionalFormatting sqref="C84:C116">
+    <cfRule type="expression" dxfId="44" priority="119">
+      <formula>ISEVEN(C84)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="150">
-      <formula>ISODD(C73)</formula>
+    <cfRule type="expression" dxfId="43" priority="120">
+      <formula>ISODD(C84)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81 C76 C86">
-    <cfRule type="expression" dxfId="145" priority="147">
-      <formula>ISEVEN(C76)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="148">
-      <formula>ISODD(C76)</formula>
+  <conditionalFormatting sqref="C117:C119 C79:C81 C153 C187:C188 C169:C172">
+    <cfRule type="expression" dxfId="42" priority="187">
+      <formula>ISEVEN(C79)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C90 C92 C94 C96 C98 C118:C119">
-    <cfRule type="expression" dxfId="143" priority="145">
-      <formula>ISEVEN(C90)</formula>
+  <conditionalFormatting sqref="C118:C147">
+    <cfRule type="expression" dxfId="41" priority="15">
+      <formula>ISEVEN(C118)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="146">
-      <formula>ISODD(C90)</formula>
+    <cfRule type="expression" dxfId="40" priority="16">
+      <formula>ISODD(C118)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="141" priority="143">
-      <formula>ISEVEN(C88)</formula>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="expression" dxfId="39" priority="173">
+      <formula>ISEVEN(C119)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="144">
-      <formula>ISODD(C88)</formula>
+    <cfRule type="expression" dxfId="38" priority="174">
+      <formula>ISODD(C119)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C89">
-    <cfRule type="expression" dxfId="139" priority="141">
-      <formula>ISEVEN(C89)</formula>
+  <conditionalFormatting sqref="C148:C157">
+    <cfRule type="expression" dxfId="37" priority="63">
+      <formula>ISEVEN(C148)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="142">
-      <formula>ISODD(C89)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91 C93 C95 C97 C99">
-    <cfRule type="expression" dxfId="137" priority="139">
-      <formula>ISEVEN(C91)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="140">
-      <formula>ISODD(C91)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
-    <cfRule type="expression" dxfId="135" priority="137">
-      <formula>ISEVEN(C100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="138">
-      <formula>ISODD(C100)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="133" priority="135">
-      <formula>ISEVEN(C71)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="136">
-      <formula>ISODD(C71)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="131" priority="133">
-      <formula>ISEVEN(C87)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="134">
-      <formula>ISODD(C87)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="129" priority="131">
-      <formula>ISEVEN(C58)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="132">
-      <formula>ISODD(C58)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="127" priority="129">
-      <formula>ISEVEN(C62)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="130">
-      <formula>ISODD(C62)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="125" priority="127">
-      <formula>ISEVEN(C68)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="128">
-      <formula>ISODD(C68)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="123" priority="125">
-      <formula>ISEVEN(C66)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="126">
-      <formula>ISODD(C66)</formula>
+    <cfRule type="expression" dxfId="36" priority="64">
+      <formula>ISODD(C148)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="expression" dxfId="121" priority="123">
+    <cfRule type="expression" dxfId="35" priority="123">
       <formula>ISEVEN(C153)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="124">
+    <cfRule type="expression" dxfId="34" priority="124">
       <formula>ISODD(C153)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C101">
-    <cfRule type="expression" dxfId="119" priority="121">
-      <formula>ISEVEN(C101)</formula>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="expression" dxfId="33" priority="55">
+      <formula>ISEVEN(C157)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="122">
-      <formula>ISODD(C101)</formula>
+    <cfRule type="expression" dxfId="32" priority="56">
+      <formula>ISODD(C157)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="57">
+      <formula>ISEVEN(C157)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="58">
+      <formula>ISODD(C157)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="117" priority="119">
-      <formula>ISEVEN(C102)</formula>
+  <conditionalFormatting sqref="C157:C158">
+    <cfRule type="expression" dxfId="29" priority="45">
+      <formula>ISEVEN(C157)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="120">
-      <formula>ISODD(C102)</formula>
+    <cfRule type="expression" dxfId="28" priority="46">
+      <formula>ISODD(C157)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="expression" dxfId="115" priority="117">
-      <formula>ISEVEN(C124)</formula>
+  <conditionalFormatting sqref="C159:C167">
+    <cfRule type="expression" dxfId="27" priority="77">
+      <formula>ISEVEN(C159)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="118">
-      <formula>ISODD(C124)</formula>
+    <cfRule type="expression" dxfId="26" priority="78">
+      <formula>ISODD(C159)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="expression" dxfId="113" priority="115">
-      <formula>ISEVEN(C129)</formula>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="expression" dxfId="25" priority="65">
+      <formula>ISEVEN(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="116">
-      <formula>ISODD(C129)</formula>
+    <cfRule type="expression" dxfId="24" priority="66">
+      <formula>ISODD(C160)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="67">
+      <formula>ISEVEN(C160)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="68">
+      <formula>ISODD(C160)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="69">
+      <formula>ISEVEN(C160)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="70">
+      <formula>ISODD(C160)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="expression" dxfId="111" priority="113">
-      <formula>ISEVEN(C126)</formula>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="expression" dxfId="19" priority="61">
+      <formula>ISEVEN(C163)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="114">
-      <formula>ISODD(C126)</formula>
+    <cfRule type="expression" dxfId="18" priority="62">
+      <formula>ISODD(C163)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="expression" dxfId="109" priority="111">
-      <formula>ISEVEN(C121)</formula>
+  <conditionalFormatting sqref="C168">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>ISEVEN(C168)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="112">
-      <formula>ISODD(C121)</formula>
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>ISODD(C168)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="expression" dxfId="107" priority="109">
-      <formula>ISEVEN(C122)</formula>
+  <conditionalFormatting sqref="C170">
+    <cfRule type="expression" dxfId="15" priority="59">
+      <formula>ISEVEN(C170)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="110">
-      <formula>ISODD(C122)</formula>
+    <cfRule type="expression" dxfId="14" priority="60">
+      <formula>ISODD(C170)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="expression" dxfId="105" priority="107">
-      <formula>ISEVEN(C123)</formula>
+  <conditionalFormatting sqref="C178:C186">
+    <cfRule type="expression" dxfId="13" priority="5">
+      <formula>ISEVEN(C178)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="108">
-      <formula>ISODD(C123)</formula>
+    <cfRule type="expression" dxfId="12" priority="6">
+      <formula>ISODD(C178)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="expression" dxfId="103" priority="105">
-      <formula>ISEVEN(C131)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="106">
-      <formula>ISODD(C131)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
-    <cfRule type="expression" dxfId="101" priority="103">
-      <formula>ISEVEN(C167)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="104">
-      <formula>ISODD(C167)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C190 C188">
-    <cfRule type="expression" dxfId="99" priority="101">
+  <conditionalFormatting sqref="C188">
+    <cfRule type="expression" dxfId="11" priority="43">
       <formula>ISEVEN(C188)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="102">
+    <cfRule type="expression" dxfId="10" priority="44">
       <formula>ISODD(C188)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
-    <cfRule type="expression" dxfId="97" priority="97">
-      <formula>ISEVEN(C145)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="98">
-      <formula>ISODD(C145)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="expression" dxfId="95" priority="99">
-      <formula>ISEVEN(C144)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="100">
-      <formula>ISODD(C144)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="expression" dxfId="93" priority="89">
-      <formula>ISEVEN(C149)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="90">
-      <formula>ISODD(C149)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="expression" dxfId="91" priority="95">
-      <formula>ISEVEN(C153)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="96">
-      <formula>ISODD(C153)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="expression" dxfId="89" priority="93">
-      <formula>ISEVEN(C146)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="94">
-      <formula>ISODD(C146)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="expression" dxfId="87" priority="91">
-      <formula>ISEVEN(C141)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="92">
-      <formula>ISODD(C141)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C189">
-    <cfRule type="expression" dxfId="85" priority="75">
-      <formula>ISEVEN(C189)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="76">
-      <formula>ISODD(C189)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
-    <cfRule type="expression" dxfId="83" priority="85">
-      <formula>ISEVEN(C166)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="86">
-      <formula>ISODD(C166)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
-    <cfRule type="expression" dxfId="81" priority="81">
-      <formula>ISEVEN(C154)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="82">
-      <formula>ISODD(C154)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="expression" dxfId="79" priority="83">
-      <formula>ISEVEN(C155)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="84">
-      <formula>ISODD(C155)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C165">
-    <cfRule type="expression" dxfId="77" priority="79">
-      <formula>ISEVEN(C165)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="80">
-      <formula>ISODD(C165)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="expression" dxfId="75" priority="77">
-      <formula>ISEVEN(C164)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="78">
-      <formula>ISODD(C164)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C199:C200">
-    <cfRule type="expression" dxfId="73" priority="73">
-      <formula>ISEVEN(C199)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="74">
-      <formula>ISODD(C199)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="expression" dxfId="71" priority="71">
-      <formula>ISEVEN(C152)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="72">
-      <formula>ISODD(C152)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="expression" dxfId="69" priority="69">
-      <formula>ISEVEN(C160)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="70">
-      <formula>ISODD(C160)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="expression" dxfId="67" priority="65">
-      <formula>ISEVEN(C160)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="66">
-      <formula>ISODD(C160)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="expression" dxfId="65" priority="67">
-      <formula>ISEVEN(C160)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="68">
-      <formula>ISODD(C160)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
-    <cfRule type="expression" dxfId="63" priority="63">
-      <formula>ISEVEN(C150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="64">
-      <formula>ISODD(C150)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C170">
-    <cfRule type="expression" dxfId="61" priority="59">
-      <formula>ISEVEN(C170)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="60">
-      <formula>ISODD(C170)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="expression" dxfId="59" priority="61">
-      <formula>ISEVEN(C163)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62">
-      <formula>ISODD(C163)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="expression" dxfId="57" priority="57">
-      <formula>ISEVEN(C157)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="58">
-      <formula>ISODD(C157)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="expression" dxfId="55" priority="55">
-      <formula>ISEVEN(C157)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
-      <formula>ISODD(C157)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="expression" dxfId="53" priority="53">
-      <formula>ISEVEN(C157)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="54">
-      <formula>ISODD(C157)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
-    <cfRule type="expression" dxfId="51" priority="51">
-      <formula>ISEVEN(C183)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="52">
-      <formula>ISODD(C183)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C202:C203">
-    <cfRule type="expression" dxfId="49" priority="49">
-      <formula>ISEVEN(C202)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50">
-      <formula>ISODD(C202)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
-    <cfRule type="expression" dxfId="47" priority="47">
-      <formula>ISEVEN(C147)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
-      <formula>ISODD(C147)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
-    <cfRule type="expression" dxfId="45" priority="45">
-      <formula>ISEVEN(C158)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
-      <formula>ISODD(C158)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C188">
-    <cfRule type="expression" dxfId="43" priority="43">
+  <conditionalFormatting sqref="C188:C190">
+    <cfRule type="expression" dxfId="9" priority="75">
       <formula>ISEVEN(C188)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
+    <cfRule type="expression" dxfId="8" priority="76">
       <formula>ISODD(C188)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C191:C193">
+    <cfRule type="expression" dxfId="7" priority="33">
+      <formula>ISEVEN(C191)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="34">
+      <formula>ISODD(C191)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C194:C204">
+    <cfRule type="expression" dxfId="5" priority="49">
+      <formula>ISEVEN(C194)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="50">
+      <formula>ISODD(C194)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C198">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="3" priority="41">
       <formula>ISEVEN(C198)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="2" priority="42">
       <formula>ISODD(C198)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C206">
-    <cfRule type="expression" dxfId="39" priority="39">
-      <formula>ISEVEN(C206)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40">
-      <formula>ISODD(C206)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C193">
-    <cfRule type="expression" dxfId="37" priority="33">
-      <formula>ISEVEN(C193)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="34">
-      <formula>ISODD(C193)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>ISEVEN(C191)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>ISODD(C191)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C192">
-    <cfRule type="expression" dxfId="33" priority="35">
-      <formula>ISEVEN(C192)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="36">
-      <formula>ISODD(C192)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C207">
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>ISEVEN(C207)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
-      <formula>ISODD(C207)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205">
-    <cfRule type="expression" dxfId="29" priority="29">
+  <conditionalFormatting sqref="C205:C207">
+    <cfRule type="expression" dxfId="1" priority="29">
       <formula>ISEVEN(C205)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="0" priority="30">
       <formula>ISODD(C205)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>ISEVEN(C11)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
-      <formula>ISODD(C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>ISEVEN(C56)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
-      <formula>ISODD(C56)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>ISEVEN(C12)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
-      <formula>ISODD(C12)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C178:C179">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>ISEVEN(C178)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>ISODD(C178)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>ISEVEN(C22)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>ISODD(C22)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>ISEVEN(C23)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>ISODD(C23)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>ISEVEN(C120)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>ISODD(C120)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C168">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>ISEVEN(C168)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>ISODD(C168)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>ISEVEN(C174)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>ISODD(C174)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>ISEVEN(C176)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>ISODD(C176)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C184">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>ISEVEN(C184)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>ISODD(C184)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C186">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>ISEVEN(C186)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>ISODD(C186)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C173">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>ISEVEN(C173)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>ISODD(C173)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>ISEVEN(C16)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>ISODD(C16)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/content/about/Schedule.xlsx
+++ b/content/about/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2024\content\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01189244-0FBC-4BB8-BE2D-1081621A24FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BF95AE-4700-41E4-8E7F-2E0FAFB948E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="169">
   <si>
     <t>Row</t>
   </si>
@@ -477,9 +477,6 @@
   </si>
   <si>
     <t>A quick journey into The Future</t>
-  </si>
-  <si>
-    <t>Project Status Reports due at 4pm EST (CANCELLED)</t>
   </si>
   <si>
     <t>Project working groups</t>
@@ -555,7 +552,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ d"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,15 +637,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -710,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -835,9 +823,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -846,49 +831,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <fill>
         <patternFill>
@@ -1569,16 +1512,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF092B6-1F8C-4FD2-8E57-195959BA7874}">
-  <dimension ref="A1:N211"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="46.81640625" style="43" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="46.81640625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -1601,10 +1544,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
@@ -1902,7 +1845,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>16</v>
@@ -1940,7 +1883,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>21</v>
@@ -1980,7 +1923,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>21</v>
@@ -2020,7 +1963,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>21</v>
@@ -2185,7 +2128,7 @@
         <v>26</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>27</v>
@@ -2261,7 +2204,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>27</v>
@@ -2522,7 +2465,7 @@
         <v>35</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>27</v>
@@ -2598,7 +2541,7 @@
         <v>37</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>27</v>
@@ -2705,7 +2648,7 @@
         <v>39</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>40</v>
@@ -3682,7 +3625,7 @@
         <v>62</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I66" s="14" t="s">
         <v>27</v>
@@ -6116,7 +6059,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="18"/>
       <c r="H141" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I141" s="14" t="s">
         <v>27</v>
@@ -6304,7 +6247,7 @@
         <v>56</v>
       </c>
       <c r="L147" s="16">
-        <f t="shared" ref="L147:L194" si="7">$F$13+K147</f>
+        <f t="shared" ref="L147:L193" si="7">$F$13+K147</f>
         <v>45369</v>
       </c>
       <c r="M147" s="3" t="str">
@@ -7179,7 +7122,7 @@
         <v>45390</v>
       </c>
       <c r="M173" s="3" t="str">
-        <f t="shared" ref="M173:M199" si="10">TEXT(F173,"ddd")</f>
+        <f t="shared" ref="M173:M197" si="10">TEXT(F173,"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="N173" s="3"/>
@@ -7453,7 +7396,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>178.1</v>
+        <v>179</v>
       </c>
       <c r="B182" s="1">
         <v>4</v>
@@ -7461,35 +7404,35 @@
       <c r="C182" s="1">
         <v>13</v>
       </c>
-      <c r="D182" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E182" s="7"/>
-      <c r="F182" s="23">
+      <c r="D182" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E182" s="3"/>
+      <c r="F182" s="21">
         <v>45397</v>
       </c>
-      <c r="G182" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H182" s="38"/>
-      <c r="I182" s="3"/>
+      <c r="G182" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="H182" s="37"/>
+      <c r="I182" s="11"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L182" s="16">
-        <f>$F$13+K182</f>
-        <v>45390</v>
+        <f t="shared" si="7"/>
+        <v>45397</v>
       </c>
       <c r="M182" s="3" t="str">
-        <f>TEXT(F182,"ddd")</f>
+        <f t="shared" si="10"/>
         <v>Mon</v>
       </c>
       <c r="N182" s="3"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>179</v>
+        <v>179.5</v>
       </c>
       <c r="B183" s="1">
         <v>4</v>
@@ -7497,18 +7440,18 @@
       <c r="C183" s="1">
         <v>13</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E183" s="3"/>
-      <c r="F183" s="21">
+      <c r="D183" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" s="7"/>
+      <c r="F183" s="19">
         <v>45397</v>
       </c>
-      <c r="G183" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="H183" s="37"/>
-      <c r="I183" s="11"/>
+      <c r="G183" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H183" s="18"/>
+      <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3">
         <v>84</v>
@@ -7525,7 +7468,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>179.5</v>
+        <v>180</v>
       </c>
       <c r="B184" s="1">
         <v>4</v>
@@ -7533,15 +7476,15 @@
       <c r="C184" s="1">
         <v>13</v>
       </c>
-      <c r="D184" s="12" t="s">
-        <v>14</v>
+      <c r="D184" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="19">
         <v>45397</v>
       </c>
       <c r="G184" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H184" s="18"/>
       <c r="I184" s="3"/>
@@ -7561,7 +7504,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>180</v>
+        <v>180.5</v>
       </c>
       <c r="B185" s="1">
         <v>4</v>
@@ -7569,35 +7512,35 @@
       <c r="C185" s="1">
         <v>13</v>
       </c>
-      <c r="D185" s="14" t="s">
-        <v>13</v>
+      <c r="D185" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="19">
-        <v>45397</v>
+        <v>45399</v>
       </c>
       <c r="G185" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H185" s="18"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L185" s="16">
         <f t="shared" si="7"/>
-        <v>45397</v>
+        <v>45399</v>
       </c>
       <c r="M185" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="N185" s="3"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>180.5</v>
+        <v>182</v>
       </c>
       <c r="B186" s="1">
         <v>4</v>
@@ -7605,15 +7548,15 @@
       <c r="C186" s="1">
         <v>13</v>
       </c>
-      <c r="D186" s="12" t="s">
-        <v>14</v>
+      <c r="D186" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="19">
         <v>45399</v>
       </c>
       <c r="G186" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H186" s="18"/>
       <c r="I186" s="3"/>
@@ -7633,7 +7576,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>182</v>
+        <v>182.5</v>
       </c>
       <c r="B187" s="1">
         <v>4</v>
@@ -7641,71 +7584,64 @@
       <c r="C187" s="1">
         <v>13</v>
       </c>
-      <c r="D187" s="14" t="s">
-        <v>13</v>
+      <c r="D187" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="E187" s="7"/>
-      <c r="F187" s="19">
-        <v>45399</v>
-      </c>
-      <c r="G187" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="H187" s="18"/>
+      <c r="F187" s="29">
+        <v>45401</v>
+      </c>
+      <c r="G187" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H187" s="38"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L187" s="16">
         <f t="shared" si="7"/>
-        <v>45399</v>
+        <v>45401</v>
       </c>
       <c r="M187" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>Wed</v>
+        <v>Fri</v>
       </c>
       <c r="N187" s="3"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <v>182.5</v>
+        <v>185</v>
       </c>
       <c r="B188" s="1">
         <v>4</v>
       </c>
       <c r="C188" s="1">
-        <v>13</v>
-      </c>
-      <c r="D188" s="20" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E188" s="7"/>
-      <c r="F188" s="29">
-        <v>45401</v>
-      </c>
-      <c r="G188" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="H188" s="38"/>
+      <c r="F188" s="19"/>
+      <c r="G188" s="18"/>
+      <c r="H188" s="18"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3">
-        <v>88</v>
-      </c>
-      <c r="L188" s="16">
-        <f t="shared" si="7"/>
-        <v>45401</v>
-      </c>
+        <v>-44228</v>
+      </c>
+      <c r="L188" s="16"/>
       <c r="M188" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>Fri</v>
+        <v>Sat</v>
       </c>
       <c r="N188" s="3"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B189" s="1">
         <v>4</v>
@@ -7713,15 +7649,15 @@
       <c r="C189" s="1">
         <v>14</v>
       </c>
-      <c r="D189" s="12" t="s">
-        <v>14</v>
+      <c r="D189" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="19"/>
       <c r="G189" s="18"/>
       <c r="H189" s="18"/>
       <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
+      <c r="J189" s="24"/>
       <c r="K189" s="3">
         <v>-44228</v>
       </c>
@@ -7734,7 +7670,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B190" s="1">
         <v>4</v>
@@ -7742,28 +7678,35 @@
       <c r="C190" s="1">
         <v>14</v>
       </c>
-      <c r="D190" s="14" t="s">
-        <v>13</v>
+      <c r="D190" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="E190" s="7"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="18"/>
-      <c r="H190" s="18"/>
+      <c r="F190" s="29">
+        <v>45403</v>
+      </c>
+      <c r="G190" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="H190" s="38"/>
       <c r="I190" s="3"/>
       <c r="J190" s="24"/>
       <c r="K190" s="3">
-        <v>-44228</v>
-      </c>
-      <c r="L190" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="L190" s="16">
+        <f t="shared" si="7"/>
+        <v>45403</v>
+      </c>
       <c r="M190" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>Sat</v>
+        <v>Sun</v>
       </c>
       <c r="N190" s="3"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B191" s="1">
         <v>4</v>
@@ -7771,17 +7714,17 @@
       <c r="C191" s="1">
         <v>14</v>
       </c>
-      <c r="D191" s="20" t="s">
-        <v>33</v>
+      <c r="D191" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E191" s="7"/>
-      <c r="F191" s="29">
+      <c r="F191" s="21">
         <v>45403</v>
       </c>
-      <c r="G191" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="H191" s="38"/>
+      <c r="G191" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H191" s="37"/>
       <c r="I191" s="3"/>
       <c r="J191" s="24"/>
       <c r="K191" s="3">
@@ -7799,7 +7742,7 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B192" s="1">
         <v>4</v>
@@ -7815,7 +7758,7 @@
         <v>45403</v>
       </c>
       <c r="G192" s="37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H192" s="37"/>
       <c r="I192" s="3"/>
@@ -7835,7 +7778,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B193" s="1">
         <v>4</v>
@@ -7843,35 +7786,35 @@
       <c r="C193" s="1">
         <v>14</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>45</v>
+      <c r="D193" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E193" s="7"/>
-      <c r="F193" s="21">
-        <v>45403</v>
-      </c>
-      <c r="G193" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H193" s="37"/>
+      <c r="F193" s="19">
+        <v>45404</v>
+      </c>
+      <c r="G193" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H193" s="18"/>
       <c r="I193" s="3"/>
-      <c r="J193" s="24"/>
+      <c r="J193" s="3"/>
       <c r="K193" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L193" s="16">
         <f t="shared" si="7"/>
-        <v>45403</v>
+        <v>45404</v>
       </c>
       <c r="M193" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>Sun</v>
+        <v>Mon</v>
       </c>
       <c r="N193" s="3"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B194" s="1">
         <v>4</v>
@@ -7879,35 +7822,26 @@
       <c r="C194" s="1">
         <v>14</v>
       </c>
-      <c r="D194" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="D194" s="14"/>
       <c r="E194" s="7"/>
-      <c r="F194" s="19">
-        <v>45404</v>
-      </c>
-      <c r="G194" s="18" t="s">
-        <v>144</v>
-      </c>
+      <c r="F194" s="19"/>
+      <c r="G194" s="18"/>
       <c r="H194" s="18"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3">
-        <v>91</v>
-      </c>
-      <c r="L194" s="16">
-        <f t="shared" si="7"/>
-        <v>45404</v>
-      </c>
+        <v>-44228</v>
+      </c>
+      <c r="L194" s="16"/>
       <c r="M194" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>Mon</v>
+        <v>Sat</v>
       </c>
       <c r="N194" s="3"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B195" s="1">
         <v>4</v>
@@ -7915,26 +7849,35 @@
       <c r="C195" s="1">
         <v>14</v>
       </c>
-      <c r="D195" s="14"/>
+      <c r="D195" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="E195" s="7"/>
-      <c r="F195" s="19"/>
-      <c r="G195" s="18"/>
-      <c r="H195" s="18"/>
+      <c r="F195" s="29">
+        <v>45405</v>
+      </c>
+      <c r="G195" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="H195" s="38"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3">
-        <v>-44228</v>
-      </c>
-      <c r="L195" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="L195" s="16">
+        <f t="shared" ref="L195:L205" si="11">$F$13+K195</f>
+        <v>45405</v>
+      </c>
       <c r="M195" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>Sat</v>
+        <v>Tue</v>
       </c>
       <c r="N195" s="3"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B196" s="1">
         <v>4</v>
@@ -7942,107 +7885,88 @@
       <c r="C196" s="1">
         <v>14</v>
       </c>
-      <c r="D196" s="20" t="s">
-        <v>33</v>
+      <c r="D196" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E196" s="7"/>
-      <c r="F196" s="29">
-        <v>45405</v>
-      </c>
-      <c r="G196" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="H196" s="38"/>
+      <c r="F196" s="19">
+        <v>45406</v>
+      </c>
+      <c r="G196" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H196" s="18"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L196" s="16">
-        <f t="shared" ref="L196:L207" si="11">$F$13+K196</f>
-        <v>45405</v>
+        <f t="shared" si="11"/>
+        <v>45406</v>
       </c>
       <c r="M196" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="N196" s="3"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B197" s="1">
         <v>4</v>
       </c>
       <c r="C197" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D197" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E197" s="7"/>
-      <c r="F197" s="19">
-        <v>45406</v>
-      </c>
-      <c r="G197" s="18" t="s">
-        <v>146</v>
-      </c>
+      <c r="F197" s="19"/>
+      <c r="G197" s="18"/>
       <c r="H197" s="18"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3">
-        <v>93</v>
-      </c>
-      <c r="L197" s="16">
-        <f t="shared" si="11"/>
-        <v>45406</v>
-      </c>
+        <v>-44228</v>
+      </c>
+      <c r="L197" s="16"/>
       <c r="M197" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>Wed</v>
+        <v>Sat</v>
       </c>
       <c r="N197" s="3"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <v>194.5</v>
+        <v>195.5</v>
       </c>
       <c r="B198" s="1">
         <v>4</v>
       </c>
       <c r="C198" s="1">
+        <v>15</v>
+      </c>
+      <c r="D198" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D198" s="20" t="s">
-        <v>33</v>
-      </c>
       <c r="E198" s="7"/>
-      <c r="F198" s="29">
-        <v>45408</v>
-      </c>
-      <c r="G198" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="H198" s="42"/>
+      <c r="F198" s="19"/>
+      <c r="G198" s="18"/>
+      <c r="H198" s="18"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="3">
-        <v>95</v>
-      </c>
-      <c r="L198" s="16">
-        <f>$F$13+K198</f>
-        <v>45408</v>
-      </c>
-      <c r="M198" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Fri</v>
-      </c>
+      <c r="K198" s="3"/>
+      <c r="L198" s="16"/>
+      <c r="M198" s="3"/>
       <c r="N198" s="3"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B199" s="1">
         <v>4</v>
@@ -8054,24 +7978,31 @@
         <v>13</v>
       </c>
       <c r="E199" s="7"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="18"/>
+      <c r="F199" s="19">
+        <v>45411</v>
+      </c>
+      <c r="G199" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="H199" s="18"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3">
-        <v>-44228</v>
-      </c>
-      <c r="L199" s="16"/>
+        <v>98</v>
+      </c>
+      <c r="L199" s="16">
+        <f t="shared" si="11"/>
+        <v>45411</v>
+      </c>
       <c r="M199" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Sat</v>
+        <f t="shared" ref="M199:M205" si="12">TEXT(F199,"ddd")</f>
+        <v>Mon</v>
       </c>
       <c r="N199" s="3"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
-        <v>195.5</v>
+        <v>198</v>
       </c>
       <c r="B200" s="1">
         <v>4</v>
@@ -8079,23 +8010,35 @@
       <c r="C200" s="1">
         <v>15</v>
       </c>
-      <c r="D200" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E200" s="7"/>
-      <c r="F200" s="19"/>
-      <c r="G200" s="18"/>
-      <c r="H200" s="18"/>
-      <c r="I200" s="3"/>
+      <c r="D200" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E200" s="3"/>
+      <c r="F200" s="29">
+        <v>45411</v>
+      </c>
+      <c r="G200" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="H200" s="38"/>
+      <c r="I200" s="11"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
-      <c r="L200" s="16"/>
-      <c r="M200" s="3"/>
+      <c r="K200" s="3">
+        <v>98</v>
+      </c>
+      <c r="L200" s="16">
+        <f t="shared" si="11"/>
+        <v>45411</v>
+      </c>
+      <c r="M200" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Mon</v>
+      </c>
       <c r="N200" s="3"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B201" s="1">
         <v>4</v>
@@ -8103,18 +8046,18 @@
       <c r="C201" s="1">
         <v>15</v>
       </c>
-      <c r="D201" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E201" s="7"/>
-      <c r="F201" s="19">
+      <c r="D201" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E201" s="3"/>
+      <c r="F201" s="29">
         <v>45411</v>
       </c>
-      <c r="G201" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="H201" s="18"/>
-      <c r="I201" s="3"/>
+      <c r="G201" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="H201" s="38"/>
+      <c r="I201" s="11"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3">
         <v>98</v>
@@ -8124,14 +8067,14 @@
         <v>45411</v>
       </c>
       <c r="M201" s="3" t="str">
-        <f t="shared" ref="M201:M207" si="12">TEXT(F201,"ddd")</f>
+        <f t="shared" si="12"/>
         <v>Mon</v>
       </c>
       <c r="N201" s="3"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B202" s="1">
         <v>4</v>
@@ -8139,35 +8082,37 @@
       <c r="C202" s="1">
         <v>15</v>
       </c>
-      <c r="D202" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E202" s="3"/>
-      <c r="F202" s="29">
-        <v>45411</v>
-      </c>
-      <c r="G202" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="H202" s="38"/>
-      <c r="I202" s="11"/>
-      <c r="J202" s="3"/>
+      <c r="D202" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" s="7"/>
+      <c r="F202" s="19">
+        <v>45413</v>
+      </c>
+      <c r="G202" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H202" s="18"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="K202" s="3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L202" s="16">
         <f t="shared" si="11"/>
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="M202" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="N202" s="3"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B203" s="1">
         <v>4</v>
@@ -8178,32 +8123,32 @@
       <c r="D203" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E203" s="3"/>
+      <c r="E203" s="2"/>
       <c r="F203" s="29">
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="G203" s="38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H203" s="38"/>
-      <c r="I203" s="11"/>
+      <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L203" s="16">
         <f t="shared" si="11"/>
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="M203" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="N203" s="3"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B204" s="1">
         <v>4</v>
@@ -8211,21 +8156,19 @@
       <c r="C204" s="1">
         <v>15</v>
       </c>
-      <c r="D204" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E204" s="7"/>
-      <c r="F204" s="19">
+      <c r="D204" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E204" s="3"/>
+      <c r="F204" s="29">
         <v>45413</v>
       </c>
-      <c r="G204" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H204" s="18"/>
+      <c r="G204" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H204" s="38"/>
       <c r="I204" s="3"/>
-      <c r="J204" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="J204" s="3"/>
       <c r="K204" s="3">
         <v>100</v>
       </c>
@@ -8241,7 +8184,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B205" s="1">
         <v>4</v>
@@ -8252,32 +8195,32 @@
       <c r="D205" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E205" s="2"/>
+      <c r="E205" s="7"/>
       <c r="F205" s="29">
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="G205" s="38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H205" s="38"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L205" s="16">
         <f t="shared" si="11"/>
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="M205" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Wed</v>
+        <v>Fri</v>
       </c>
       <c r="N205" s="3"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
-        <v>201</v>
+        <v>202.1</v>
       </c>
       <c r="B206" s="1">
         <v>4</v>
@@ -8288,32 +8231,32 @@
       <c r="D206" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E206" s="3"/>
-      <c r="F206" s="29">
-        <v>45413</v>
+      <c r="E206" s="7"/>
+      <c r="F206" s="23">
+        <v>45417</v>
       </c>
       <c r="G206" s="38" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H206" s="38"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="L206" s="16">
-        <f t="shared" si="11"/>
-        <v>45413</v>
+        <f>$F$13+K206</f>
+        <v>45390</v>
       </c>
       <c r="M206" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Wed</v>
+        <f>TEXT(F206,"ddd")</f>
+        <v>Sun</v>
       </c>
       <c r="N206" s="3"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B207" s="1">
         <v>4</v>
@@ -8321,48 +8264,42 @@
       <c r="C207" s="1">
         <v>15</v>
       </c>
-      <c r="D207" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E207" s="7"/>
-      <c r="F207" s="29">
-        <v>45415</v>
-      </c>
-      <c r="G207" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="H207" s="38"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="33"/>
+      <c r="G207" s="18"/>
+      <c r="H207" s="18"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="3">
-        <v>102</v>
-      </c>
-      <c r="L207" s="16">
-        <f t="shared" si="11"/>
-        <v>45415</v>
-      </c>
-      <c r="M207" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Fri</v>
-      </c>
+      <c r="K207" s="3"/>
+      <c r="L207" s="16"/>
+      <c r="M207" s="16"/>
       <c r="N207" s="3"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B208" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C208" s="1">
         <v>15</v>
       </c>
-      <c r="D208" s="2"/>
+      <c r="D208" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E208" s="2"/>
-      <c r="F208" s="33"/>
-      <c r="G208" s="18"/>
+      <c r="F208" s="33">
+        <v>45430</v>
+      </c>
+      <c r="G208" s="18" t="s">
+        <v>155</v>
+      </c>
       <c r="H208" s="18"/>
-      <c r="I208" s="3"/>
+      <c r="I208" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
       <c r="L208" s="16"/>
@@ -8371,28 +8308,16 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
-        <v>206</v>
-      </c>
-      <c r="B209" s="1">
-        <v>5</v>
-      </c>
-      <c r="C209" s="1">
-        <v>15</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="2"/>
       <c r="E209" s="2"/>
-      <c r="F209" s="33">
-        <v>45430</v>
-      </c>
-      <c r="G209" s="18" t="s">
-        <v>156</v>
-      </c>
+      <c r="F209" s="33"/>
+      <c r="G209" s="18"/>
       <c r="H209" s="18"/>
-      <c r="I209" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
       <c r="L209" s="16"/>
@@ -8401,7 +8326,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8417,243 +8342,201 @@
       <c r="M210" s="16"/>
       <c r="N210" s="3"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A211" s="1">
-        <v>208</v>
-      </c>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="33"/>
-      <c r="G211" s="18"/>
-      <c r="H211" s="18"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
-      <c r="L211" s="16"/>
-      <c r="M211" s="16"/>
-      <c r="N211" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C76 C182 C173:C178">
-    <cfRule type="expression" dxfId="55" priority="1">
+  <conditionalFormatting sqref="C3:C76 C193:C202 C173:C185 C206">
+    <cfRule type="expression" dxfId="49" priority="1">
       <formula>ISEVEN(C3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>ISODD(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C83">
-    <cfRule type="expression" dxfId="53" priority="151">
+    <cfRule type="expression" dxfId="47" priority="151">
       <formula>ISEVEN(C77)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="152">
+    <cfRule type="expression" dxfId="46" priority="152">
       <formula>ISODD(C77)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78">
-    <cfRule type="expression" dxfId="51" priority="149">
+    <cfRule type="expression" dxfId="45" priority="149">
       <formula>ISEVEN(C78)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="150">
+    <cfRule type="expression" dxfId="44" priority="150">
       <formula>ISODD(C78)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79:C81 C117:C119 C153 C169:C172 C187:C188">
-    <cfRule type="expression" dxfId="49" priority="188">
+  <conditionalFormatting sqref="C79:C81 C117:C119 C153 C169:C172 C186:C187">
+    <cfRule type="expression" dxfId="43" priority="188">
       <formula>ISODD(C79)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="48" priority="153">
+    <cfRule type="expression" dxfId="42" priority="153">
       <formula>ISEVEN(C80)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="154">
+    <cfRule type="expression" dxfId="41" priority="154">
       <formula>ISODD(C80)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="46" priority="147">
+    <cfRule type="expression" dxfId="40" priority="147">
       <formula>ISEVEN(C81)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="148">
+    <cfRule type="expression" dxfId="39" priority="148">
       <formula>ISODD(C81)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:C116">
-    <cfRule type="expression" dxfId="44" priority="119">
+    <cfRule type="expression" dxfId="38" priority="119">
       <formula>ISEVEN(C84)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="120">
+    <cfRule type="expression" dxfId="37" priority="120">
       <formula>ISODD(C84)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C117:C119 C79:C81 C153 C187:C188 C169:C172">
-    <cfRule type="expression" dxfId="42" priority="187">
+  <conditionalFormatting sqref="C117:C119 C79:C81 C153 C186:C187 C169:C172">
+    <cfRule type="expression" dxfId="36" priority="187">
       <formula>ISEVEN(C79)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:C147">
-    <cfRule type="expression" dxfId="41" priority="15">
+    <cfRule type="expression" dxfId="35" priority="15">
       <formula>ISEVEN(C118)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="16">
+    <cfRule type="expression" dxfId="34" priority="16">
       <formula>ISODD(C118)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119">
-    <cfRule type="expression" dxfId="39" priority="173">
+    <cfRule type="expression" dxfId="33" priority="173">
       <formula>ISEVEN(C119)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="174">
+    <cfRule type="expression" dxfId="32" priority="174">
       <formula>ISODD(C119)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:C157">
-    <cfRule type="expression" dxfId="37" priority="63">
+    <cfRule type="expression" dxfId="31" priority="63">
       <formula>ISEVEN(C148)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="64">
+    <cfRule type="expression" dxfId="30" priority="64">
       <formula>ISODD(C148)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="expression" dxfId="35" priority="123">
+    <cfRule type="expression" dxfId="29" priority="123">
       <formula>ISEVEN(C153)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="124">
+    <cfRule type="expression" dxfId="28" priority="124">
       <formula>ISODD(C153)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157">
-    <cfRule type="expression" dxfId="33" priority="55">
+    <cfRule type="expression" dxfId="27" priority="55">
       <formula>ISEVEN(C157)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="56">
+    <cfRule type="expression" dxfId="26" priority="56">
       <formula>ISODD(C157)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="57">
+    <cfRule type="expression" dxfId="25" priority="57">
       <formula>ISEVEN(C157)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="58">
+    <cfRule type="expression" dxfId="24" priority="58">
       <formula>ISODD(C157)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:C158">
-    <cfRule type="expression" dxfId="29" priority="45">
+    <cfRule type="expression" dxfId="23" priority="45">
       <formula>ISEVEN(C157)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="46">
+    <cfRule type="expression" dxfId="22" priority="46">
       <formula>ISODD(C157)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159:C167">
-    <cfRule type="expression" dxfId="27" priority="77">
+    <cfRule type="expression" dxfId="21" priority="77">
       <formula>ISEVEN(C159)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="78">
+    <cfRule type="expression" dxfId="20" priority="78">
       <formula>ISODD(C159)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="expression" dxfId="25" priority="65">
+    <cfRule type="expression" dxfId="19" priority="65">
       <formula>ISEVEN(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="66">
+    <cfRule type="expression" dxfId="18" priority="66">
       <formula>ISODD(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="67">
+    <cfRule type="expression" dxfId="17" priority="67">
       <formula>ISEVEN(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="68">
+    <cfRule type="expression" dxfId="16" priority="68">
       <formula>ISODD(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="69">
+    <cfRule type="expression" dxfId="15" priority="69">
       <formula>ISEVEN(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="70">
+    <cfRule type="expression" dxfId="14" priority="70">
       <formula>ISODD(C160)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="expression" dxfId="19" priority="61">
+    <cfRule type="expression" dxfId="13" priority="61">
       <formula>ISEVEN(C163)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="62">
+    <cfRule type="expression" dxfId="12" priority="62">
       <formula>ISODD(C163)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C168">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>ISEVEN(C168)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>ISODD(C168)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170">
-    <cfRule type="expression" dxfId="15" priority="59">
+    <cfRule type="expression" dxfId="9" priority="59">
       <formula>ISEVEN(C170)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="60">
+    <cfRule type="expression" dxfId="8" priority="60">
       <formula>ISODD(C170)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C178:C186">
-    <cfRule type="expression" dxfId="13" priority="5">
-      <formula>ISEVEN(C178)</formula>
+  <conditionalFormatting sqref="C187">
+    <cfRule type="expression" dxfId="7" priority="43">
+      <formula>ISEVEN(C187)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
-      <formula>ISODD(C178)</formula>
+    <cfRule type="expression" dxfId="6" priority="44">
+      <formula>ISODD(C187)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C188">
-    <cfRule type="expression" dxfId="11" priority="43">
-      <formula>ISEVEN(C188)</formula>
+  <conditionalFormatting sqref="C187:C189">
+    <cfRule type="expression" dxfId="5" priority="75">
+      <formula>ISEVEN(C187)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="44">
-      <formula>ISODD(C188)</formula>
+    <cfRule type="expression" dxfId="4" priority="76">
+      <formula>ISODD(C187)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C188:C190">
-    <cfRule type="expression" dxfId="9" priority="75">
-      <formula>ISEVEN(C188)</formula>
+  <conditionalFormatting sqref="C190:C192">
+    <cfRule type="expression" dxfId="3" priority="33">
+      <formula>ISEVEN(C190)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="76">
-      <formula>ISODD(C188)</formula>
+    <cfRule type="expression" dxfId="2" priority="34">
+      <formula>ISODD(C190)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C191:C193">
-    <cfRule type="expression" dxfId="7" priority="33">
-      <formula>ISEVEN(C191)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="34">
-      <formula>ISODD(C191)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C194:C204">
-    <cfRule type="expression" dxfId="5" priority="49">
-      <formula>ISEVEN(C194)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="50">
-      <formula>ISODD(C194)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C198">
-    <cfRule type="expression" dxfId="3" priority="41">
-      <formula>ISEVEN(C198)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
-      <formula>ISODD(C198)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205:C207">
+  <conditionalFormatting sqref="C203:C206">
     <cfRule type="expression" dxfId="1" priority="29">
-      <formula>ISEVEN(C205)</formula>
+      <formula>ISEVEN(C203)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="30">
-      <formula>ISODD(C205)</formula>
+      <formula>ISODD(C203)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/content/about/Schedule.xlsx
+++ b/content/about/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2024\content\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BF95AE-4700-41E4-8E7F-2E0FAFB948E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A2882D-E967-4F68-B8AD-AA660298BF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="168">
   <si>
     <t>Row</t>
   </si>
@@ -425,9 +425,6 @@
     <t>Important: Read 8.1-8.3 BEFORE class</t>
   </si>
   <si>
-    <t>Finish personal website, send URL to me+TA for review</t>
-  </si>
-  <si>
     <t>Pipelines: Prediction modeling done right</t>
   </si>
   <si>
@@ -485,9 +482,6 @@
     <t>ASGN 8 (Prediction contest) due at 5pm!!!</t>
   </si>
   <si>
-    <t>ASGN 9 (Personal Websites) graded</t>
-  </si>
-  <si>
     <t>Presentations, contest results, outro</t>
   </si>
   <si>
@@ -543,6 +537,9 @@
   </si>
   <si>
     <t>https://ledatascifi.github.io/ledatascifi-2024/content/about/hall_of_awesomeness.html</t>
+  </si>
+  <si>
+    <t>Personal website graded</t>
   </si>
 </sst>
 </file>
@@ -831,21 +828,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill>
@@ -1512,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF092B6-1F8C-4FD2-8E57-195959BA7874}">
-  <dimension ref="A1:N210"/>
+  <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="G180" sqref="G180"/>
+      <selection activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1544,10 +1527,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
@@ -1845,7 +1828,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>16</v>
@@ -1883,7 +1866,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>21</v>
@@ -1923,7 +1906,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>21</v>
@@ -1963,7 +1946,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>21</v>
@@ -2128,7 +2111,7 @@
         <v>26</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>27</v>
@@ -2204,7 +2187,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>27</v>
@@ -2465,7 +2448,7 @@
         <v>35</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>27</v>
@@ -2541,7 +2524,7 @@
         <v>37</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>27</v>
@@ -2648,7 +2631,7 @@
         <v>39</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>40</v>
@@ -3625,7 +3608,7 @@
         <v>62</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I66" s="14" t="s">
         <v>27</v>
@@ -6059,7 +6042,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="18"/>
       <c r="H141" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I141" s="14" t="s">
         <v>27</v>
@@ -7145,7 +7128,7 @@
         <v>45390</v>
       </c>
       <c r="G174" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H174" s="18"/>
       <c r="I174" s="3"/>
@@ -7181,7 +7164,7 @@
         <v>45392</v>
       </c>
       <c r="G175" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H175" s="18"/>
       <c r="I175" s="3"/>
@@ -7217,7 +7200,7 @@
         <v>45392</v>
       </c>
       <c r="G176" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H176" s="18"/>
       <c r="I176" s="3"/>
@@ -7280,7 +7263,7 @@
         <v>45394</v>
       </c>
       <c r="G178" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H178" s="38"/>
       <c r="I178" s="3"/>
@@ -7316,7 +7299,7 @@
         <v>45394</v>
       </c>
       <c r="G179" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H179" s="18"/>
       <c r="I179" s="14" t="s">
@@ -7412,7 +7395,7 @@
         <v>45397</v>
       </c>
       <c r="G182" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H182" s="37"/>
       <c r="I182" s="11"/>
@@ -7448,7 +7431,7 @@
         <v>45397</v>
       </c>
       <c r="G183" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H183" s="18"/>
       <c r="I183" s="3"/>
@@ -7484,7 +7467,7 @@
         <v>45397</v>
       </c>
       <c r="G184" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H184" s="18"/>
       <c r="I184" s="3"/>
@@ -7520,7 +7503,7 @@
         <v>45399</v>
       </c>
       <c r="G185" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H185" s="18"/>
       <c r="I185" s="3"/>
@@ -7556,7 +7539,7 @@
         <v>45399</v>
       </c>
       <c r="G186" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H186" s="18"/>
       <c r="I186" s="3"/>
@@ -7592,7 +7575,7 @@
         <v>45401</v>
       </c>
       <c r="G187" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H187" s="38"/>
       <c r="I187" s="3"/>
@@ -7686,7 +7669,7 @@
         <v>45403</v>
       </c>
       <c r="G190" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H190" s="38"/>
       <c r="I190" s="3"/>
@@ -7722,7 +7705,7 @@
         <v>45403</v>
       </c>
       <c r="G191" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H191" s="37"/>
       <c r="I191" s="3"/>
@@ -7758,7 +7741,7 @@
         <v>45403</v>
       </c>
       <c r="G192" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H192" s="37"/>
       <c r="I192" s="3"/>
@@ -7794,7 +7777,7 @@
         <v>45404</v>
       </c>
       <c r="G193" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H193" s="18"/>
       <c r="I193" s="3"/>
@@ -7857,7 +7840,7 @@
         <v>45405</v>
       </c>
       <c r="G195" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H195" s="38"/>
       <c r="I195" s="3"/>
@@ -7866,7 +7849,7 @@
         <v>92</v>
       </c>
       <c r="L195" s="16">
-        <f t="shared" ref="L195:L205" si="11">$F$13+K195</f>
+        <f t="shared" ref="L195:L204" si="11">$F$13+K195</f>
         <v>45405</v>
       </c>
       <c r="M195" s="3" t="str">
@@ -7893,7 +7876,7 @@
         <v>45406</v>
       </c>
       <c r="G196" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H196" s="18"/>
       <c r="I196" s="3"/>
@@ -7982,7 +7965,7 @@
         <v>45411</v>
       </c>
       <c r="G199" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H199" s="18"/>
       <c r="I199" s="3"/>
@@ -7995,7 +7978,7 @@
         <v>45411</v>
       </c>
       <c r="M199" s="3" t="str">
-        <f t="shared" ref="M199:M205" si="12">TEXT(F199,"ddd")</f>
+        <f t="shared" ref="M199:M204" si="12">TEXT(F199,"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="N199" s="3"/>
@@ -8018,7 +8001,7 @@
         <v>45411</v>
       </c>
       <c r="G200" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H200" s="38"/>
       <c r="I200" s="11"/>
@@ -8038,7 +8021,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B201" s="1">
         <v>4</v>
@@ -8046,35 +8029,37 @@
       <c r="C201" s="1">
         <v>15</v>
       </c>
-      <c r="D201" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E201" s="3"/>
-      <c r="F201" s="29">
-        <v>45411</v>
-      </c>
-      <c r="G201" s="38" t="s">
+      <c r="D201" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" s="7"/>
+      <c r="F201" s="19">
+        <v>45413</v>
+      </c>
+      <c r="G201" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H201" s="18"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H201" s="38"/>
-      <c r="I201" s="11"/>
-      <c r="J201" s="3"/>
       <c r="K201" s="3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L201" s="16">
         <f t="shared" si="11"/>
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="M201" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="N201" s="3"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B202" s="1">
         <v>4</v>
@@ -8082,21 +8067,19 @@
       <c r="C202" s="1">
         <v>15</v>
       </c>
-      <c r="D202" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E202" s="7"/>
-      <c r="F202" s="19">
+      <c r="D202" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E202" s="2"/>
+      <c r="F202" s="29">
         <v>45413</v>
       </c>
-      <c r="G202" s="18" t="s">
+      <c r="G202" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="H202" s="18"/>
+      <c r="H202" s="38"/>
       <c r="I202" s="3"/>
-      <c r="J202" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="J202" s="3"/>
       <c r="K202" s="3">
         <v>100</v>
       </c>
@@ -8112,7 +8095,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B203" s="1">
         <v>4</v>
@@ -8123,12 +8106,12 @@
       <c r="D203" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E203" s="2"/>
+      <c r="E203" s="3"/>
       <c r="F203" s="29">
         <v>45413</v>
       </c>
       <c r="G203" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H203" s="38"/>
       <c r="I203" s="3"/>
@@ -8148,7 +8131,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B204" s="1">
         <v>4</v>
@@ -8159,32 +8142,32 @@
       <c r="D204" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E204" s="3"/>
+      <c r="E204" s="7"/>
       <c r="F204" s="29">
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="G204" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H204" s="38"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L204" s="16">
         <f t="shared" si="11"/>
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="M204" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Wed</v>
+        <v>Fri</v>
       </c>
       <c r="N204" s="3"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
-        <v>202</v>
+        <v>202.1</v>
       </c>
       <c r="B205" s="1">
         <v>4</v>
@@ -8196,31 +8179,31 @@
         <v>33</v>
       </c>
       <c r="E205" s="7"/>
-      <c r="F205" s="29">
-        <v>45415</v>
+      <c r="F205" s="23">
+        <v>45417</v>
       </c>
       <c r="G205" s="38" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="H205" s="38"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="L205" s="16">
-        <f t="shared" si="11"/>
-        <v>45415</v>
+        <f>$F$13+K205</f>
+        <v>45390</v>
       </c>
       <c r="M205" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Fri</v>
+        <f>TEXT(F205,"ddd")</f>
+        <v>Sun</v>
       </c>
       <c r="N205" s="3"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
-        <v>202.1</v>
+        <v>204</v>
       </c>
       <c r="B206" s="1">
         <v>4</v>
@@ -8228,48 +8211,42 @@
       <c r="C206" s="1">
         <v>15</v>
       </c>
-      <c r="D206" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E206" s="7"/>
-      <c r="F206" s="23">
-        <v>45417</v>
-      </c>
-      <c r="G206" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H206" s="38"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="33"/>
+      <c r="G206" s="18"/>
+      <c r="H206" s="18"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="3">
-        <v>77</v>
-      </c>
-      <c r="L206" s="16">
-        <f>$F$13+K206</f>
-        <v>45390</v>
-      </c>
-      <c r="M206" s="3" t="str">
-        <f>TEXT(F206,"ddd")</f>
-        <v>Sun</v>
-      </c>
+      <c r="K206" s="3"/>
+      <c r="L206" s="16"/>
+      <c r="M206" s="16"/>
       <c r="N206" s="3"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C207" s="1">
         <v>15</v>
       </c>
-      <c r="D207" s="2"/>
+      <c r="D207" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E207" s="2"/>
-      <c r="F207" s="33"/>
-      <c r="G207" s="18"/>
+      <c r="F207" s="33">
+        <v>45430</v>
+      </c>
+      <c r="G207" s="18" t="s">
+        <v>153</v>
+      </c>
       <c r="H207" s="18"/>
-      <c r="I207" s="3"/>
+      <c r="I207" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
       <c r="L207" s="16"/>
@@ -8278,28 +8255,16 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208" s="1">
-        <v>5</v>
-      </c>
-      <c r="C208" s="1">
-        <v>15</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="2"/>
       <c r="E208" s="2"/>
-      <c r="F208" s="33">
-        <v>45430</v>
-      </c>
-      <c r="G208" s="18" t="s">
-        <v>155</v>
-      </c>
+      <c r="F208" s="33"/>
+      <c r="G208" s="18"/>
       <c r="H208" s="18"/>
-      <c r="I208" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
       <c r="L208" s="16"/>
@@ -8308,7 +8273,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8324,219 +8289,193 @@
       <c r="M209" s="16"/>
       <c r="N209" s="3"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="33"/>
-      <c r="G210" s="18"/>
-      <c r="H210" s="18"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
-      <c r="L210" s="16"/>
-      <c r="M210" s="16"/>
-      <c r="N210" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C76 C193:C202 C173:C185 C206">
-    <cfRule type="expression" dxfId="49" priority="1">
+  <conditionalFormatting sqref="C3:C76 C173:C185 C205 C190:C201">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>ISEVEN(C3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>ISODD(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C83">
-    <cfRule type="expression" dxfId="47" priority="151">
+    <cfRule type="expression" dxfId="45" priority="151">
       <formula>ISEVEN(C77)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="152">
+    <cfRule type="expression" dxfId="44" priority="152">
       <formula>ISODD(C77)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78">
-    <cfRule type="expression" dxfId="45" priority="149">
+    <cfRule type="expression" dxfId="43" priority="149">
       <formula>ISEVEN(C78)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="150">
+    <cfRule type="expression" dxfId="42" priority="150">
       <formula>ISODD(C78)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C81 C117:C119 C153 C169:C172 C186:C187">
-    <cfRule type="expression" dxfId="43" priority="188">
+    <cfRule type="expression" dxfId="41" priority="188">
       <formula>ISODD(C79)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="42" priority="153">
+    <cfRule type="expression" dxfId="40" priority="153">
       <formula>ISEVEN(C80)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="154">
+    <cfRule type="expression" dxfId="39" priority="154">
       <formula>ISODD(C80)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="40" priority="147">
+    <cfRule type="expression" dxfId="38" priority="147">
       <formula>ISEVEN(C81)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="148">
+    <cfRule type="expression" dxfId="37" priority="148">
       <formula>ISODD(C81)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:C116">
-    <cfRule type="expression" dxfId="38" priority="119">
+    <cfRule type="expression" dxfId="36" priority="119">
       <formula>ISEVEN(C84)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="120">
+    <cfRule type="expression" dxfId="35" priority="120">
       <formula>ISODD(C84)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117:C119 C79:C81 C153 C186:C187 C169:C172">
-    <cfRule type="expression" dxfId="36" priority="187">
+    <cfRule type="expression" dxfId="34" priority="187">
       <formula>ISEVEN(C79)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:C147">
-    <cfRule type="expression" dxfId="35" priority="15">
+    <cfRule type="expression" dxfId="33" priority="15">
       <formula>ISEVEN(C118)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>ISODD(C118)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119">
-    <cfRule type="expression" dxfId="33" priority="173">
+    <cfRule type="expression" dxfId="31" priority="173">
       <formula>ISEVEN(C119)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="174">
+    <cfRule type="expression" dxfId="30" priority="174">
       <formula>ISODD(C119)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:C157">
-    <cfRule type="expression" dxfId="31" priority="63">
+    <cfRule type="expression" dxfId="29" priority="63">
       <formula>ISEVEN(C148)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="64">
+    <cfRule type="expression" dxfId="28" priority="64">
       <formula>ISODD(C148)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="expression" dxfId="29" priority="123">
+    <cfRule type="expression" dxfId="27" priority="123">
       <formula>ISEVEN(C153)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="124">
+    <cfRule type="expression" dxfId="26" priority="124">
       <formula>ISODD(C153)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157">
-    <cfRule type="expression" dxfId="27" priority="55">
+    <cfRule type="expression" dxfId="25" priority="55">
       <formula>ISEVEN(C157)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="56">
+    <cfRule type="expression" dxfId="24" priority="56">
       <formula>ISODD(C157)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="57">
+    <cfRule type="expression" dxfId="23" priority="57">
       <formula>ISEVEN(C157)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="58">
+    <cfRule type="expression" dxfId="22" priority="58">
       <formula>ISODD(C157)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:C158">
-    <cfRule type="expression" dxfId="23" priority="45">
+    <cfRule type="expression" dxfId="21" priority="45">
       <formula>ISEVEN(C157)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="46">
+    <cfRule type="expression" dxfId="20" priority="46">
       <formula>ISODD(C157)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159:C167">
-    <cfRule type="expression" dxfId="21" priority="77">
+    <cfRule type="expression" dxfId="19" priority="77">
       <formula>ISEVEN(C159)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="78">
+    <cfRule type="expression" dxfId="18" priority="78">
       <formula>ISODD(C159)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="expression" dxfId="19" priority="65">
+    <cfRule type="expression" dxfId="17" priority="65">
       <formula>ISEVEN(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="66">
+    <cfRule type="expression" dxfId="16" priority="66">
       <formula>ISODD(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="67">
+    <cfRule type="expression" dxfId="15" priority="67">
       <formula>ISEVEN(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="68">
+    <cfRule type="expression" dxfId="14" priority="68">
       <formula>ISODD(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="69">
+    <cfRule type="expression" dxfId="13" priority="69">
       <formula>ISEVEN(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="70">
+    <cfRule type="expression" dxfId="12" priority="70">
       <formula>ISODD(C160)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="expression" dxfId="13" priority="61">
+    <cfRule type="expression" dxfId="11" priority="61">
       <formula>ISEVEN(C163)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="62">
+    <cfRule type="expression" dxfId="10" priority="62">
       <formula>ISODD(C163)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C168">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>ISEVEN(C168)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>ISODD(C168)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170">
-    <cfRule type="expression" dxfId="9" priority="59">
+    <cfRule type="expression" dxfId="7" priority="59">
       <formula>ISEVEN(C170)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="60">
+    <cfRule type="expression" dxfId="6" priority="60">
       <formula>ISODD(C170)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="expression" dxfId="7" priority="43">
+    <cfRule type="expression" dxfId="5" priority="43">
       <formula>ISEVEN(C187)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="44">
+    <cfRule type="expression" dxfId="4" priority="44">
       <formula>ISODD(C187)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187:C189">
-    <cfRule type="expression" dxfId="5" priority="75">
+    <cfRule type="expression" dxfId="3" priority="75">
       <formula>ISEVEN(C187)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="76">
+    <cfRule type="expression" dxfId="2" priority="76">
       <formula>ISODD(C187)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C190:C192">
-    <cfRule type="expression" dxfId="3" priority="33">
-      <formula>ISEVEN(C190)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="34">
-      <formula>ISODD(C190)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C203:C206">
+  <conditionalFormatting sqref="C202:C205">
     <cfRule type="expression" dxfId="1" priority="29">
-      <formula>ISEVEN(C203)</formula>
+      <formula>ISEVEN(C202)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="30">
-      <formula>ISODD(C203)</formula>
+      <formula>ISODD(C202)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
